--- a/measurements/20130516_transformation/Koordinatentransformation.xlsx
+++ b/measurements/20130516_transformation/Koordinatentransformation.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="28455" windowHeight="13290" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="28455" windowHeight="13290" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Messaufbau_Messdaten" sheetId="1" r:id="rId1"/>
     <sheet name="Modell+Rechnung" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="testing_ground" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="d_10">Messaufbau_Messdaten!$I$9</definedName>
     <definedName name="d_20">Messaufbau_Messdaten!$I$10</definedName>
     <definedName name="d_30">Messaufbau_Messdaten!$I$11</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>(0,0)</t>
   </si>
@@ -118,13 +117,22 @@
   </si>
   <si>
     <t>d_30</t>
+  </si>
+  <si>
+    <t>x_1</t>
+  </si>
+  <si>
+    <t>x_2</t>
+  </si>
+  <si>
+    <t>x_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +155,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -265,6 +279,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1523,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1603,12 +1618,344 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B4:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:L37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:10">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>-5</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9">
+        <f>MDETERM(B4:D6)</f>
+        <v>113.99999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11">
+        <f>$H4</f>
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <f>C4</f>
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f>D4</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12">
+        <f>$H5</f>
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <f>C5</f>
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <f>D5</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13">
+        <f>$H6</f>
+        <v>-3</v>
+      </c>
+      <c r="C13">
+        <f>C6</f>
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <f>D6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15">
+        <f>B16/$B$9</f>
+        <v>15.754385964912286</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16">
+        <f>MDETERM(B11:D13)</f>
+        <v>1796.0000000000002</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16">
+        <f>B23/$B$9</f>
+        <v>-8.2894736842105292</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17">
+        <f>B30/$B$9</f>
+        <v>0.14912280701754368</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18">
+        <f>B4</f>
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <f>$H4</f>
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <f>D4</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19">
+        <f>B5</f>
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <f>$H5</f>
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <f>D5</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20">
+        <f>B6</f>
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <f>$H6</f>
+        <v>-3</v>
+      </c>
+      <c r="D20">
+        <f>D6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="H21">
+        <f>MMULT(B4:D4,$J$15:$J$17)</f>
+        <v>15.000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="H22">
+        <f t="shared" ref="H22:H23" si="0">MMULT(B5:D5,$J$15:$J$17)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23">
+        <f>MDETERM(B18:D20)</f>
+        <v>-945</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000000018</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25">
+        <f>B4</f>
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <f>C4</f>
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f>$H4</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26">
+        <f t="shared" ref="B26:C26" si="1">B5</f>
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D27" si="2">$H5</f>
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <f>MMULT(MINVERSE(B4:D6),H4:H6)</f>
+        <v>15.754385964912284</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27">
+        <f t="shared" ref="B27:C27" si="3">B6</f>
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30">
+        <f>MDETERM(B25:D27)</f>
+        <v>16.999999999999975</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="H32" s="17">
+        <f>INDEX(MINVERSE($B$4:$D$6),ROW(A1),COLUMN(A1))</f>
+        <v>0.47368421052631582</v>
+      </c>
+      <c r="I32" s="17">
+        <f t="shared" ref="I32:J32" si="4">INDEX(MINVERSE($B$4:$D$6),ROW(B1),COLUMN(B1))</f>
+        <v>0.35087719298245623</v>
+      </c>
+      <c r="J32" s="17">
+        <f t="shared" si="4"/>
+        <v>-0.54385964912280715</v>
+      </c>
+      <c r="L32">
+        <f>MMULT($H$32:$J$34,$H$4:$H$6)</f>
+        <v>15.754385964912284</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33">
+        <f>MINVERSE(B4:D6)</f>
+        <v>0.47368421052631582</v>
+      </c>
+      <c r="H33" s="17">
+        <f t="shared" ref="H33:H34" si="5">INDEX(MINVERSE($B$4:$D$6),ROW(A2),COLUMN(A2))</f>
+        <v>-0.26315789473684215</v>
+      </c>
+      <c r="I33" s="17">
+        <f t="shared" ref="I33:I34" si="6">INDEX(MINVERSE($B$4:$D$6),ROW(B2),COLUMN(B2))</f>
+        <v>-0.15789473684210528</v>
+      </c>
+      <c r="J33" s="17">
+        <f t="shared" ref="J33:J34" si="7">INDEX(MINVERSE($B$4:$D$6),ROW(C2),COLUMN(C2))</f>
+        <v>0.39473684210526322</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ref="L33:L34" si="8">MMULT($H$32:$J$34,$H$4:$H$6)</f>
+        <v>15.754385964912284</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="H34" s="17">
+        <f t="shared" si="5"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="I34" s="17">
+        <f t="shared" si="6"/>
+        <v>-7.0175438596491238E-2</v>
+      </c>
+      <c r="J34" s="17">
+        <f t="shared" si="7"/>
+        <v>8.7719298245614134E-3</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="8"/>
+        <v>15.754385964912284</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="17">
+        <f>INDEX(MMULT(MINVERSE($B$4:$D$6),$H$4:$H$6),ROW(A1),COLUMN(A1))</f>
+        <v>15.754385964912284</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="17">
+        <f t="shared" ref="B36:D36" si="9">INDEX(MMULT(MINVERSE($B$4:$D$6),$H$4:$H$6),ROW(A2),COLUMN(A2))</f>
+        <v>-8.2894736842105274</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="17">
+        <f t="shared" ref="B37:D37" si="10">INDEX(MMULT(MINVERSE($B$4:$D$6),$H$4:$H$6),ROW(A3),COLUMN(A3))</f>
+        <v>0.14912280701754371</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/measurements/20130516_transformation/Koordinatentransformation.xlsx
+++ b/measurements/20130516_transformation/Koordinatentransformation.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="28455" windowHeight="13290" activeTab="2"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="22695" windowHeight="12705" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Messaufbau_Messdaten" sheetId="1" r:id="rId1"/>
-    <sheet name="Modell+Rechnung" sheetId="2" r:id="rId2"/>
-    <sheet name="testing_ground" sheetId="3" r:id="rId3"/>
+    <sheet name="Ergebnisse" sheetId="13" r:id="rId2"/>
+    <sheet name="Modell+Rechnung" sheetId="4" r:id="rId3"/>
+    <sheet name="Alle" sheetId="14" r:id="rId4"/>
+    <sheet name="RechnungA1" sheetId="5" r:id="rId5"/>
+    <sheet name="RechnungA2" sheetId="6" r:id="rId6"/>
+    <sheet name="RechnungA3" sheetId="7" r:id="rId7"/>
+    <sheet name="RechnungA4" sheetId="8" r:id="rId8"/>
+    <sheet name="RechnungA5" sheetId="9" r:id="rId9"/>
+    <sheet name="RechnungA6" sheetId="10" r:id="rId10"/>
+    <sheet name="RechnungA7" sheetId="11" r:id="rId11"/>
+    <sheet name="RechnungA8" sheetId="12" r:id="rId12"/>
+    <sheet name="testing_ground" sheetId="3" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="d_10">Messaufbau_Messdaten!$I$9</definedName>
     <definedName name="d_20">Messaufbau_Messdaten!$I$10</definedName>
     <definedName name="d_30">Messaufbau_Messdaten!$I$11</definedName>
+    <definedName name="OFFSET">Messaufbau_Messdaten!$I$4</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="72">
   <si>
     <t>(0,0)</t>
   </si>
@@ -126,13 +137,127 @@
   </si>
   <si>
     <t>x_3</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Originaldaten</t>
+  </si>
+  <si>
+    <t>Daten + Offset</t>
+  </si>
+  <si>
+    <t>d_10=d_01</t>
+  </si>
+  <si>
+    <t>d_12=d_21</t>
+  </si>
+  <si>
+    <t>d_13=d_31</t>
+  </si>
+  <si>
+    <t>d_20=d_02</t>
+  </si>
+  <si>
+    <t>d_30=d_03</t>
+  </si>
+  <si>
+    <t>d_23=d_32</t>
+  </si>
+  <si>
+    <t>c_30</t>
+  </si>
+  <si>
+    <t>c_20</t>
+  </si>
+  <si>
+    <t>1/2[-r_0^2-r_1^2+d_10^2]</t>
+  </si>
+  <si>
+    <t>c_10</t>
+  </si>
+  <si>
+    <t>z-z_</t>
+  </si>
+  <si>
+    <t>y-y_0</t>
+  </si>
+  <si>
+    <t>x-x_0</t>
+  </si>
+  <si>
+    <t>1/2[-r_0^2-r_2^2+d_20^2]</t>
+  </si>
+  <si>
+    <t>1/2[-r_0^2-r_3^2+d_30^2]</t>
+  </si>
+  <si>
+    <t>LSG</t>
+  </si>
+  <si>
+    <t>z-z_0</t>
+  </si>
+  <si>
+    <t>x_0</t>
+  </si>
+  <si>
+    <t>y_0</t>
+  </si>
+  <si>
+    <t>z_0</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>1/2[r_j^2-r_ab^2+d_bj^2]</t>
+  </si>
+  <si>
+    <t>alt Messung vom 15.5.2013</t>
+  </si>
+  <si>
+    <t>x_i</t>
+  </si>
+  <si>
+    <t>y_i</t>
+  </si>
+  <si>
+    <t>z_i</t>
+  </si>
+  <si>
+    <t>Inertialkoordinaten von x_0</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Ermittelte Koordinaten</t>
+  </si>
+  <si>
+    <t>Lineare Modell für die Koordinatenberechnung</t>
+  </si>
+  <si>
+    <t>Lösung des Modells</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,16 +287,39 @@
       <name val="Ubuntu"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -255,11 +403,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -275,16 +458,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -1242,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1254,19 +1491,19 @@
     <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="2:10">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:10">
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1276,29 +1513,38 @@
         <v>1</v>
       </c>
       <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="I4">
+        <v>0.08</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="5"/>
       <c r="C5" s="2"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:10">
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="5"/>
       <c r="C7" s="2"/>
       <c r="G7" s="7"/>
@@ -1309,12 +1555,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:10">
       <c r="B8" s="5"/>
       <c r="C8" s="2"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:10">
       <c r="B9" s="5"/>
       <c r="C9" s="2"/>
       <c r="G9" s="7"/>
@@ -1325,7 +1571,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:10">
       <c r="B10" s="5"/>
       <c r="C10" s="2"/>
       <c r="G10" s="7"/>
@@ -1336,7 +1582,7 @@
         <v>1.972</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:10">
       <c r="B11" s="5"/>
       <c r="C11" s="2"/>
       <c r="G11" s="7"/>
@@ -1347,173 +1593,335 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:10">
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:10">
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:10">
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:10">
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:10">
       <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="G17" s="7"/>
       <c r="J17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:27">
       <c r="G18" s="7"/>
       <c r="I18" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="12">
+        <v>2</v>
+      </c>
+      <c r="L18" s="12">
+        <v>3</v>
+      </c>
+      <c r="M18" s="12">
+        <v>4</v>
+      </c>
+      <c r="N18" s="12">
+        <v>5</v>
+      </c>
+      <c r="O18" s="12">
+        <v>6</v>
+      </c>
+      <c r="P18" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>8</v>
+      </c>
+      <c r="T18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="B19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="G19" s="7"/>
+      <c r="I19" s="21">
         <v>1</v>
       </c>
-      <c r="L18" s="12">
-        <v>2</v>
-      </c>
-      <c r="M18" s="12">
-        <v>3</v>
-      </c>
-      <c r="N18" s="12">
-        <v>4</v>
-      </c>
-      <c r="O18" s="12">
-        <v>5</v>
-      </c>
-      <c r="P18" s="12">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="B19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="G19" s="7"/>
-      <c r="I19" s="10">
-        <v>1</v>
-      </c>
       <c r="J19">
-        <v>1.18</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K19">
-        <v>1.81</v>
+        <v>2.238</v>
       </c>
       <c r="L19">
-        <v>2.2599999999999998</v>
+        <v>1.843</v>
       </c>
       <c r="M19">
-        <v>1.58</v>
+        <v>2.105</v>
       </c>
       <c r="N19">
-        <v>2.3199999999999998</v>
+        <v>1.7609999999999999</v>
       </c>
       <c r="O19">
-        <v>1.71</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="P19">
-        <v>1.95</v>
+        <v>1.7030000000000001</v>
       </c>
       <c r="Q19">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.46</v>
+      </c>
+      <c r="T19" s="20">
+        <v>1.04</v>
+      </c>
+      <c r="U19" s="20">
+        <v>1.36</v>
+      </c>
+      <c r="V19" s="20">
+        <v>1.89</v>
+      </c>
+      <c r="W19" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="X19" s="20">
+        <v>1.96</v>
+      </c>
+      <c r="Y19" s="20">
+        <v>1.25</v>
+      </c>
+      <c r="Z19" s="20">
+        <v>1.56</v>
+      </c>
+      <c r="AA19" s="20">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="G20" s="7"/>
       <c r="I20" s="10">
         <v>2</v>
       </c>
       <c r="J20">
+        <v>1.853</v>
+      </c>
+      <c r="K20">
+        <v>2.3260000000000001</v>
+      </c>
+      <c r="L20">
+        <v>2.6880000000000002</v>
+      </c>
+      <c r="M20">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="N20">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O20">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="P20">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="Q20">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="T20" s="20">
         <v>1.1200000000000001</v>
       </c>
-      <c r="K20">
+      <c r="U20" s="20">
         <v>2.2400000000000002</v>
       </c>
-      <c r="L20">
+      <c r="V20" s="20">
         <v>1.84</v>
       </c>
-      <c r="M20">
+      <c r="W20" s="20">
         <v>2.1</v>
       </c>
-      <c r="N20">
+      <c r="X20" s="20">
         <v>1.76</v>
       </c>
-      <c r="O20">
+      <c r="Y20" s="20">
         <v>2.13</v>
       </c>
-      <c r="P20">
+      <c r="Z20" s="20">
         <v>1.7</v>
       </c>
-      <c r="Q20">
+      <c r="AA20" s="20">
         <v>1.46</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:27">
       <c r="G21" s="7"/>
-      <c r="I21" s="10">
+      <c r="I21" s="22">
         <v>3</v>
       </c>
       <c r="J21">
+        <v>1.04</v>
+      </c>
+      <c r="K21">
+        <v>1.36</v>
+      </c>
+      <c r="L21">
+        <v>1.89</v>
+      </c>
+      <c r="M21">
+        <v>1.05</v>
+      </c>
+      <c r="N21">
+        <v>1.96</v>
+      </c>
+      <c r="O21">
+        <v>1.25</v>
+      </c>
+      <c r="P21">
+        <v>1.56</v>
+      </c>
+      <c r="Q21">
+        <v>1.35</v>
+      </c>
+      <c r="T21" s="20">
         <v>1.81</v>
       </c>
-      <c r="K21">
+      <c r="U21" s="20">
         <v>2.29</v>
       </c>
-      <c r="L21">
+      <c r="V21" s="20">
         <v>2.66</v>
       </c>
-      <c r="M21">
+      <c r="W21" s="20">
         <v>1.8</v>
       </c>
-      <c r="N21">
+      <c r="X21" s="20">
         <v>2.42</v>
       </c>
-      <c r="O21">
+      <c r="Y21" s="20">
         <v>1.45</v>
       </c>
-      <c r="P21">
+      <c r="Z21" s="20">
         <v>1.7</v>
       </c>
-      <c r="Q21">
+      <c r="AA21" s="20">
         <v>0.94</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:27">
       <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.179</v>
+      </c>
+      <c r="K22">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="L22">
+        <v>2.254</v>
+      </c>
+      <c r="M22">
+        <v>1.581</v>
+      </c>
+      <c r="N22">
+        <v>2.319</v>
+      </c>
+      <c r="O22">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="P22">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="Q22">
+        <v>1.494</v>
+      </c>
+      <c r="T22" s="20">
+        <v>1.18</v>
+      </c>
+      <c r="U22" s="20">
+        <v>1.81</v>
+      </c>
+      <c r="V22" s="20">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="W22" s="20">
+        <v>1.58</v>
+      </c>
+      <c r="X22" s="20">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Y22" s="20">
+        <v>1.71</v>
+      </c>
+      <c r="Z22" s="20">
+        <v>1.95</v>
+      </c>
+      <c r="AA22" s="20">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:27">
       <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="J25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" thickBot="1">
+      <c r="I26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="12">
+        <v>1</v>
+      </c>
+      <c r="K26" s="12">
+        <v>2</v>
+      </c>
+      <c r="L26" s="12">
+        <v>3</v>
+      </c>
+      <c r="M26" s="12">
+        <v>4</v>
+      </c>
+      <c r="N26" s="12">
+        <v>5</v>
+      </c>
+      <c r="O26" s="12">
+        <v>6</v>
+      </c>
+      <c r="P26" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" thickBot="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1521,8 +1929,268 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" thickTop="1"/>
+      <c r="I27" s="21">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f>J19+OFFSET</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="K27">
+        <f>K19+OFFSET</f>
+        <v>2.3180000000000001</v>
+      </c>
+      <c r="L27">
+        <f>L19+OFFSET</f>
+        <v>1.923</v>
+      </c>
+      <c r="M27">
+        <f>M19+OFFSET</f>
+        <v>2.1850000000000001</v>
+      </c>
+      <c r="N27">
+        <f>N19+OFFSET</f>
+        <v>1.841</v>
+      </c>
+      <c r="O27">
+        <f>O19+OFFSET</f>
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="P27">
+        <f>P19+OFFSET</f>
+        <v>1.7830000000000001</v>
+      </c>
+      <c r="Q27">
+        <f>Q19+OFFSET</f>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" thickTop="1">
+      <c r="I28" s="10">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <f>J20+OFFSET</f>
+        <v>1.9330000000000001</v>
+      </c>
+      <c r="K28">
+        <f>K20+OFFSET</f>
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="L28">
+        <f>L20+OFFSET</f>
+        <v>2.7680000000000002</v>
+      </c>
+      <c r="M28">
+        <f>M20+OFFSET</f>
+        <v>1.9120000000000001</v>
+      </c>
+      <c r="N28">
+        <f>N20+OFFSET</f>
+        <v>2.5100000000000002</v>
+      </c>
+      <c r="O28">
+        <f>O20+OFFSET</f>
+        <v>1.5290000000000001</v>
+      </c>
+      <c r="P28">
+        <f>P20+OFFSET</f>
+        <v>1.7790000000000001</v>
+      </c>
+      <c r="Q28">
+        <f>Q20+OFFSET</f>
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="I29" s="10">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <f>J21+OFFSET</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K29">
+        <f>K21+OFFSET</f>
+        <v>1.4400000000000002</v>
+      </c>
+      <c r="L29">
+        <f>L21+OFFSET</f>
+        <v>1.97</v>
+      </c>
+      <c r="M29">
+        <f>M21+OFFSET</f>
+        <v>1.1300000000000001</v>
+      </c>
+      <c r="N29">
+        <f>N21+OFFSET</f>
+        <v>2.04</v>
+      </c>
+      <c r="O29">
+        <f>O21+OFFSET</f>
+        <v>1.33</v>
+      </c>
+      <c r="P29">
+        <f>P21+OFFSET</f>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="Q29">
+        <f>Q21+OFFSET</f>
+        <v>1.4300000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>J22+OFFSET</f>
+        <v>1.2590000000000001</v>
+      </c>
+      <c r="K30">
+        <f>K22+OFFSET</f>
+        <v>1.8940000000000001</v>
+      </c>
+      <c r="L30">
+        <f>L22+OFFSET</f>
+        <v>2.3340000000000001</v>
+      </c>
+      <c r="M30">
+        <f>M22+OFFSET</f>
+        <v>1.661</v>
+      </c>
+      <c r="N30">
+        <f>N22+OFFSET</f>
+        <v>2.399</v>
+      </c>
+      <c r="O30">
+        <f>O22+OFFSET</f>
+        <v>1.851</v>
+      </c>
+      <c r="P30">
+        <f>P22+OFFSET</f>
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="Q30">
+        <f>Q22+OFFSET</f>
+        <v>1.5740000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="J31" s="19">
+        <f>J30*J30</f>
+        <v>1.5850810000000004</v>
+      </c>
+      <c r="K31" s="19">
+        <f t="shared" ref="K31:Q31" si="0">K30*K30</f>
+        <v>3.5872360000000003</v>
+      </c>
+      <c r="L31" s="19">
+        <f t="shared" si="0"/>
+        <v>5.4475560000000005</v>
+      </c>
+      <c r="M31" s="19">
+        <f t="shared" si="0"/>
+        <v>2.758921</v>
+      </c>
+      <c r="N31" s="19">
+        <f t="shared" si="0"/>
+        <v>5.7552010000000005</v>
+      </c>
+      <c r="O31" s="19">
+        <f t="shared" si="0"/>
+        <v>3.4262009999999998</v>
+      </c>
+      <c r="P31" s="19">
+        <f t="shared" si="0"/>
+        <v>4.2230250000000007</v>
+      </c>
+      <c r="Q31" s="19">
+        <f t="shared" si="0"/>
+        <v>2.4774760000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10">
+      <c r="I34" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10">
+      <c r="I35">
+        <v>0.77</v>
+      </c>
+      <c r="J35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10">
+      <c r="I36" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10">
+      <c r="I37">
+        <f>SQRT(0.77^2+0.77^2)</f>
+        <v>1.0889444430272832</v>
+      </c>
+      <c r="J37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10">
+      <c r="I38" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10">
+      <c r="I39">
+        <f>SQRT(0.77^2+0.8^2)</f>
+        <v>1.1103603018840327</v>
+      </c>
+      <c r="J39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10">
+      <c r="I40" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10">
+      <c r="I41">
+        <v>0.77</v>
+      </c>
+      <c r="J41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10">
+      <c r="I42" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10">
+      <c r="I43">
+        <v>0.8</v>
+      </c>
+      <c r="J43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="9:10">
+      <c r="I44" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="9:10">
+      <c r="I45">
+        <f>SQRT(0.77^2+0.8^2)</f>
+        <v>1.1103603018840327</v>
+      </c>
+      <c r="J45" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H6:I6"/>
@@ -1534,22 +2202,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:H21"/>
+  <dimension ref="A3:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:H51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -1563,10 +2231,10 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -1579,11 +2247,14 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -1597,10 +2268,124 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="18.75">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9">
+        <v>0.77</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <f>I23</f>
+        <v>-0.42808150000000034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.77</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f>I24</f>
+        <v>0.84062999999999966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <f>I25</f>
+        <v>1.1486505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <f>INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A1))</f>
+        <v>-0.55595000000000039</v>
+      </c>
+      <c r="J15">
+        <f>MDETERM(B9:D11)</f>
+        <v>0.47432000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D17" si="0">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
+        <v>1.0917272727272722</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.4358131250000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="J18">
+        <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
+        <v>-0.42808150000000028</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="J19">
+        <f t="shared" ref="J19:J20" si="1">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
+        <v>0.84062999999999966</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.1486505000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="18.75">
       <c r="B21" s="13" t="s">
         <v>26</v>
       </c>
@@ -1608,7 +2393,172 @@
         <v>27</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>28</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <f>(Messaufbau_Messdaten!$O$30^2)</f>
+        <v>3.4262009999999998</v>
+      </c>
+      <c r="F23">
+        <f>(Messaufbau_Messdaten!O27^2 )</f>
+        <v>4.8752640000000005</v>
+      </c>
+      <c r="G23">
+        <f>(Messaufbau_Messdaten!$I$35^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <f>D23*(E23-F23+G23)</f>
+        <v>-0.42808150000000034</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <f>(Messaufbau_Messdaten!$O$30^2)</f>
+        <v>3.4262009999999998</v>
+      </c>
+      <c r="F24">
+        <f>(Messaufbau_Messdaten!O28^2 )</f>
+        <v>2.3378410000000005</v>
+      </c>
+      <c r="G24">
+        <f>(Messaufbau_Messdaten!$I$41^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I25" si="2">D24*(E24-F24+G24)</f>
+        <v>0.84062999999999966</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <f>(Messaufbau_Messdaten!$O$30^2)</f>
+        <v>3.4262009999999998</v>
+      </c>
+      <c r="F25">
+        <f>(Messaufbau_Messdaten!O29^2 )</f>
+        <v>1.7689000000000001</v>
+      </c>
+      <c r="G25">
+        <f>(Messaufbau_Messdaten!$I$43^2)</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1.1486505</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="19">
+        <f>D15+D29</f>
+        <v>-0.55595000000000039</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="19">
+        <f>D16+D30</f>
+        <v>1.0917272727272722</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="19">
+        <f>D17+D31</f>
+        <v>1.4358131250000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <f>SQRT(D34^2+D35^2+D36^2)</f>
+        <v>1.8874607732185573</v>
       </c>
     </row>
   </sheetData>
@@ -1616,12 +2566,740 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9">
+        <v>0.77</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <f>I23</f>
+        <v>0.81841799999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.77</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f>I24</f>
+        <v>0.82554200000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <f>I25</f>
+        <v>1.0867125000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <f>INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A1))</f>
+        <v>1.0628805194805195</v>
+      </c>
+      <c r="J15">
+        <f>MDETERM(B9:D11)</f>
+        <v>0.47432000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D17" si="0">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
+        <v>1.0721324675324677</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.3583906250000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="J18">
+        <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
+        <v>0.81841800000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="J19">
+        <f t="shared" ref="J19:J20" si="1">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
+        <v>0.82554200000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.0867125000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="18.75">
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <f>(Messaufbau_Messdaten!$P$30^2)</f>
+        <v>4.2230250000000007</v>
+      </c>
+      <c r="F23">
+        <f>(Messaufbau_Messdaten!P27^2 )</f>
+        <v>3.1790890000000007</v>
+      </c>
+      <c r="G23">
+        <f>(Messaufbau_Messdaten!$I$35^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <f>D23*(E23-F23+G23)</f>
+        <v>0.81841799999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <f>(Messaufbau_Messdaten!$P$30^2)</f>
+        <v>4.2230250000000007</v>
+      </c>
+      <c r="F24">
+        <f>(Messaufbau_Messdaten!P28^2 )</f>
+        <v>3.1648410000000005</v>
+      </c>
+      <c r="G24">
+        <f>(Messaufbau_Messdaten!$I$41^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I25" si="2">D24*(E24-F24+G24)</f>
+        <v>0.82554200000000011</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <f>(Messaufbau_Messdaten!$P$30^2)</f>
+        <v>4.2230250000000007</v>
+      </c>
+      <c r="F25">
+        <f>(Messaufbau_Messdaten!P29^2 )</f>
+        <v>2.6896000000000004</v>
+      </c>
+      <c r="G25">
+        <f>(Messaufbau_Messdaten!$I$43^2)</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1.0867125000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="19">
+        <f>D15+D29</f>
+        <v>1.0628805194805195</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="19">
+        <f>D16+D30</f>
+        <v>1.0721324675324677</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="19">
+        <f>D17+D31</f>
+        <v>1.3583906250000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <f>SQRT(D34^2+D35^2+D36^2)</f>
+        <v>2.0308638843399445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9">
+        <v>0.77</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <f>I23</f>
+        <v>0.34938800000000014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.77</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f>I24</f>
+        <v>1.0431560000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <f>I25</f>
+        <v>0.53628799999999988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <f>INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A1))</f>
+        <v>0.45375064935064952</v>
+      </c>
+      <c r="J15">
+        <f>MDETERM(B9:D11)</f>
+        <v>0.47432000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D17" si="0">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
+        <v>1.3547480519480521</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.67035999999999984</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="J18">
+        <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
+        <v>0.34938800000000014</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="J19">
+        <f t="shared" ref="J19:J20" si="1">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
+        <v>1.0431560000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0.53628799999999988</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="18.75">
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <f>(Messaufbau_Messdaten!$Q$30^2)</f>
+        <v>2.4774760000000002</v>
+      </c>
+      <c r="F23">
+        <f>(Messaufbau_Messdaten!Q27^2 )</f>
+        <v>2.3715999999999999</v>
+      </c>
+      <c r="G23">
+        <f>(Messaufbau_Messdaten!$I$35^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <f>D23*(E23-F23+G23)</f>
+        <v>0.34938800000000014</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <f>(Messaufbau_Messdaten!$Q$30^2)</f>
+        <v>2.4774760000000002</v>
+      </c>
+      <c r="F24">
+        <f>(Messaufbau_Messdaten!Q28^2 )</f>
+        <v>0.98406399999999994</v>
+      </c>
+      <c r="G24">
+        <f>(Messaufbau_Messdaten!$I$41^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I25" si="2">D24*(E24-F24+G24)</f>
+        <v>1.0431560000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <f>(Messaufbau_Messdaten!$Q$30^2)</f>
+        <v>2.4774760000000002</v>
+      </c>
+      <c r="F25">
+        <f>(Messaufbau_Messdaten!Q29^2 )</f>
+        <v>2.0449000000000006</v>
+      </c>
+      <c r="G25">
+        <f>(Messaufbau_Messdaten!$I$43^2)</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0.53628799999999988</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="19">
+        <f>D15+D29</f>
+        <v>0.45375064935064952</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="19">
+        <f>D16+D30</f>
+        <v>1.3547480519480521</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="19">
+        <f>D17+D31</f>
+        <v>0.67035999999999984</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <f>SQRT(D34^2+D35^2+D36^2)</f>
+        <v>1.5781680726852823</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:L37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1680,11 +3358,11 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <f>C4</f>
+        <f t="shared" ref="C11:D13" si="0">C4</f>
         <v>4</v>
       </c>
       <c r="D11">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1694,11 +3372,11 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D12">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
     </row>
@@ -1708,11 +3386,11 @@
         <v>-3</v>
       </c>
       <c r="C13">
-        <f>C6</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D13">
-        <f>D6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1806,7 +3484,7 @@
     </row>
     <row r="22" spans="2:12">
       <c r="H22">
-        <f t="shared" ref="H22:H23" si="0">MMULT(B5:D5,$J$15:$J$17)</f>
+        <f t="shared" ref="H22:H23" si="1">MMULT(B5:D5,$J$15:$J$17)</f>
         <v>20</v>
       </c>
     </row>
@@ -1816,7 +3494,7 @@
         <v>-945</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.0000000000000018</v>
       </c>
     </row>
@@ -1836,15 +3514,15 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26">
-        <f t="shared" ref="B26:C26" si="1">B5</f>
+        <f t="shared" ref="B26:C26" si="2">B5</f>
         <v>5</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:D27" si="2">$H5</f>
+        <f t="shared" ref="D26:D27" si="3">$H5</f>
         <v>20</v>
       </c>
       <c r="H26">
@@ -1854,15 +3532,15 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27">
-        <f t="shared" ref="B27:C27" si="3">B6</f>
+        <f t="shared" ref="B27:C27" si="4">B6</f>
         <v>4</v>
       </c>
       <c r="C27">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
     </row>
@@ -1873,16 +3551,16 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="H32" s="17">
+      <c r="H32" s="16">
         <f>INDEX(MINVERSE($B$4:$D$6),ROW(A1),COLUMN(A1))</f>
         <v>0.47368421052631582</v>
       </c>
-      <c r="I32" s="17">
-        <f t="shared" ref="I32:J32" si="4">INDEX(MINVERSE($B$4:$D$6),ROW(B1),COLUMN(B1))</f>
+      <c r="I32" s="16">
+        <f t="shared" ref="I32:J32" si="5">INDEX(MINVERSE($B$4:$D$6),ROW(B1),COLUMN(B1))</f>
         <v>0.35087719298245623</v>
       </c>
-      <c r="J32" s="17">
-        <f t="shared" si="4"/>
+      <c r="J32" s="16">
+        <f t="shared" si="5"/>
         <v>-0.54385964912280715</v>
       </c>
       <c r="L32">
@@ -1895,67 +3573,3306 @@
         <f>MINVERSE(B4:D6)</f>
         <v>0.47368421052631582</v>
       </c>
-      <c r="H33" s="17">
-        <f t="shared" ref="H33:H34" si="5">INDEX(MINVERSE($B$4:$D$6),ROW(A2),COLUMN(A2))</f>
+      <c r="H33" s="16">
+        <f t="shared" ref="H33:H34" si="6">INDEX(MINVERSE($B$4:$D$6),ROW(A2),COLUMN(A2))</f>
         <v>-0.26315789473684215</v>
       </c>
-      <c r="I33" s="17">
-        <f t="shared" ref="I33:I34" si="6">INDEX(MINVERSE($B$4:$D$6),ROW(B2),COLUMN(B2))</f>
+      <c r="I33" s="16">
+        <f t="shared" ref="I33:I34" si="7">INDEX(MINVERSE($B$4:$D$6),ROW(B2),COLUMN(B2))</f>
         <v>-0.15789473684210528</v>
       </c>
-      <c r="J33" s="17">
-        <f t="shared" ref="J33:J34" si="7">INDEX(MINVERSE($B$4:$D$6),ROW(C2),COLUMN(C2))</f>
+      <c r="J33" s="16">
+        <f t="shared" ref="J33:J34" si="8">INDEX(MINVERSE($B$4:$D$6),ROW(C2),COLUMN(C2))</f>
         <v>0.39473684210526322</v>
       </c>
       <c r="L33">
-        <f t="shared" ref="L33:L34" si="8">MMULT($H$32:$J$34,$H$4:$H$6)</f>
+        <f t="shared" ref="L33:L34" si="9">MMULT($H$32:$J$34,$H$4:$H$6)</f>
         <v>15.754385964912284</v>
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="H34" s="17">
-        <f t="shared" si="5"/>
+      <c r="H34" s="16">
+        <f t="shared" si="6"/>
         <v>0.10526315789473684</v>
       </c>
-      <c r="I34" s="17">
-        <f t="shared" si="6"/>
+      <c r="I34" s="16">
+        <f t="shared" si="7"/>
         <v>-7.0175438596491238E-2</v>
       </c>
-      <c r="J34" s="17">
-        <f t="shared" si="7"/>
+      <c r="J34" s="16">
+        <f t="shared" si="8"/>
         <v>8.7719298245614134E-3</v>
       </c>
       <c r="L34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.754385964912284</v>
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="17">
+      <c r="B35" s="16">
         <f>INDEX(MMULT(MINVERSE($B$4:$D$6),$H$4:$H$6),ROW(A1),COLUMN(A1))</f>
         <v>15.754385964912284</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="17">
-        <f t="shared" ref="B36:D36" si="9">INDEX(MMULT(MINVERSE($B$4:$D$6),$H$4:$H$6),ROW(A2),COLUMN(A2))</f>
+      <c r="B36" s="16">
+        <f t="shared" ref="B36" si="10">INDEX(MMULT(MINVERSE($B$4:$D$6),$H$4:$H$6),ROW(A2),COLUMN(A2))</f>
         <v>-8.2894736842105274</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="17">
-        <f t="shared" ref="B37:D37" si="10">INDEX(MMULT(MINVERSE($B$4:$D$6),$H$4:$H$6),ROW(A3),COLUMN(A3))</f>
+      <c r="B37" s="16">
+        <f t="shared" ref="B37" si="11">INDEX(MMULT(MINVERSE($B$4:$D$6),$H$4:$H$6),ROW(A3),COLUMN(A3))</f>
         <v>0.14912280701754371</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="10" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="11"/>
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26">
+        <v>2</v>
+      </c>
+      <c r="E2" s="26">
+        <v>3</v>
+      </c>
+      <c r="F2" s="26">
+        <v>4</v>
+      </c>
+      <c r="G2" s="26">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26">
+        <v>6</v>
+      </c>
+      <c r="I2" s="26">
+        <v>7</v>
+      </c>
+      <c r="J2" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <f>RechnungA1!$D34</f>
+        <v>0.47920844155844156</v>
+      </c>
+      <c r="D3">
+        <f>RechnungA2!$D34</f>
+        <v>-0.77466753246753273</v>
+      </c>
+      <c r="E3">
+        <f>RechnungA3!$D34</f>
+        <v>1.521121428571429</v>
+      </c>
+      <c r="F3">
+        <f>RechnungA4!$D34</f>
+        <v>-0.92363896103896137</v>
+      </c>
+      <c r="G3">
+        <f>RechnungA5!$D34</f>
+        <v>1.9213116883116885</v>
+      </c>
+      <c r="H3">
+        <f>RechnungA6!$D34</f>
+        <v>-0.55595000000000039</v>
+      </c>
+      <c r="I3">
+        <f>RechnungA7!$D34</f>
+        <v>1.0628805194805195</v>
+      </c>
+      <c r="J3">
+        <f>RechnungA8!$D34</f>
+        <v>0.45375064935064952</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <f>RechnungA1!$D35</f>
+        <v>-1.0120181818181817</v>
+      </c>
+      <c r="D4">
+        <f>RechnungA2!$D35</f>
+        <v>-1.04461038961039</v>
+      </c>
+      <c r="E4">
+        <f>RechnungA3!$D35</f>
+        <v>-1.052836363636364</v>
+      </c>
+      <c r="F4">
+        <f>RechnungA4!$D35</f>
+        <v>-0.19735259740259795</v>
+      </c>
+      <c r="G4">
+        <f>RechnungA5!$D35</f>
+        <v>3.1169480519479917E-2</v>
+      </c>
+      <c r="H4">
+        <f>RechnungA6!$D35</f>
+        <v>1.0917272727272722</v>
+      </c>
+      <c r="I4">
+        <f>RechnungA7!$D35</f>
+        <v>1.0721324675324677</v>
+      </c>
+      <c r="J4">
+        <f>RechnungA8!$D35</f>
+        <v>1.3547480519480521</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <f>RechnungA1!$D36</f>
+        <v>0.60667562500000027</v>
+      </c>
+      <c r="D5">
+        <f>RechnungA2!$D36</f>
+        <v>1.3460225000000001</v>
+      </c>
+      <c r="E5">
+        <f>RechnungA3!$D36</f>
+        <v>1.3791600000000004</v>
+      </c>
+      <c r="F5">
+        <f>RechnungA4!$D36</f>
+        <v>1.3262631249999999</v>
+      </c>
+      <c r="G5">
+        <f>RechnungA5!$D36</f>
+        <v>1.3960006250000003</v>
+      </c>
+      <c r="H5">
+        <f>RechnungA6!$D36</f>
+        <v>1.4358131250000001</v>
+      </c>
+      <c r="I5">
+        <f>RechnungA7!$D36</f>
+        <v>1.3583906250000002</v>
+      </c>
+      <c r="J5">
+        <f>RechnungA8!$D36</f>
+        <v>0.67035999999999984</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18.75">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-0.8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <f>G23</f>
+        <v>0.3689905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10">
+        <v>0.77</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-0.8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H11" si="0">G24</f>
+        <v>-0.779254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.77</v>
+      </c>
+      <c r="D11">
+        <v>-0.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.48534050000000017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <f>INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A1))</f>
+        <v>-1.4912266233766234</v>
+      </c>
+      <c r="J15">
+        <f>MDETERM(B9:D11)</f>
+        <v>-0.47432000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D17" si="1">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
+        <v>0.1511038961038963</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>-0.461238125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="J18">
+        <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
+        <v>0.3689905</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="J19">
+        <f t="shared" ref="J19:J20" si="2">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
+        <v>-0.77925400000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0.48534050000000017</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="18.75">
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23">
+        <f>1/2*(-Messaufbau_Messdaten!$J$30^2-Messaufbau_Messdaten!J27^2+Messaufbau_Messdaten!$I$35^2)</f>
+        <v>0.3689905</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24">
+        <f>1/2*(-Messaufbau_Messdaten!$J$30^2-Messaufbau_Messdaten!J28^2+Messaufbau_Messdaten!$I$41^2)</f>
+        <v>-0.779254</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25">
+        <f>1/2*(-Messaufbau_Messdaten!$J$30^2-Messaufbau_Messdaten!J29^2+Messaufbau_Messdaten!$I$43^2)</f>
+        <v>0.48534050000000017</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <f>D15+D29</f>
+        <v>-1.4912266233766234</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:D36" si="3">D16+D30</f>
+        <v>0.1511038961038963</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>0.33876187500000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="A2" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="23"/>
+      <c r="B3" s="15">
+        <v>0.77</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="23"/>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.77</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="23"/>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="37">
+        <v>1</v>
+      </c>
+      <c r="E8" s="38">
+        <v>2</v>
+      </c>
+      <c r="F8" s="38">
+        <v>3</v>
+      </c>
+      <c r="G8" s="38">
+        <v>4</v>
+      </c>
+      <c r="H8" s="37">
+        <v>5</v>
+      </c>
+      <c r="I8" s="38">
+        <v>6</v>
+      </c>
+      <c r="J8" s="38">
+        <v>7</v>
+      </c>
+      <c r="K8" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="23">
+        <f>INDEX(MMULT(MINVERSE($B$3:$D$5),D$15:D$17),ROW(A1))</f>
+        <v>0.47920844155844156</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" ref="E9:K11" si="0">INDEX(MMULT(MINVERSE($B$3:$D$5),E$15:E$17),ROW(B1))</f>
+        <v>-0.77466753246753273</v>
+      </c>
+      <c r="F9" s="23">
+        <f t="shared" si="0"/>
+        <v>1.521121428571429</v>
+      </c>
+      <c r="G9" s="23">
+        <f t="shared" si="0"/>
+        <v>-0.92363896103896137</v>
+      </c>
+      <c r="H9" s="23">
+        <f t="shared" si="0"/>
+        <v>1.9213116883116885</v>
+      </c>
+      <c r="I9" s="23">
+        <f t="shared" si="0"/>
+        <v>-0.55595000000000039</v>
+      </c>
+      <c r="J9" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0628805194805195</v>
+      </c>
+      <c r="K9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.45375064935064952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="23">
+        <f t="shared" ref="D10:D11" si="1">INDEX(MMULT(MINVERSE($B$3:$D$5),D$15:D$17),ROW(A2))</f>
+        <v>-1.0120181818181817</v>
+      </c>
+      <c r="E10" s="23">
+        <f t="shared" si="0"/>
+        <v>-1.04461038961039</v>
+      </c>
+      <c r="F10" s="23">
+        <f t="shared" si="0"/>
+        <v>-1.052836363636364</v>
+      </c>
+      <c r="G10" s="23">
+        <f t="shared" si="0"/>
+        <v>-0.19735259740259795</v>
+      </c>
+      <c r="H10" s="23">
+        <f t="shared" si="0"/>
+        <v>3.1169480519479917E-2</v>
+      </c>
+      <c r="I10" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0917272727272722</v>
+      </c>
+      <c r="J10" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0721324675324677</v>
+      </c>
+      <c r="K10" s="23">
+        <f t="shared" si="0"/>
+        <v>1.3547480519480521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="23">
+        <f t="shared" si="1"/>
+        <v>0.60667562500000027</v>
+      </c>
+      <c r="E11" s="23">
+        <f t="shared" si="0"/>
+        <v>1.3460225000000001</v>
+      </c>
+      <c r="F11" s="23">
+        <f t="shared" si="0"/>
+        <v>1.3791600000000004</v>
+      </c>
+      <c r="G11" s="23">
+        <f t="shared" si="0"/>
+        <v>1.3262631249999999</v>
+      </c>
+      <c r="H11" s="23">
+        <f t="shared" si="0"/>
+        <v>1.3960006250000003</v>
+      </c>
+      <c r="I11" s="23">
+        <f t="shared" si="0"/>
+        <v>1.4358131250000001</v>
+      </c>
+      <c r="J11" s="23">
+        <f t="shared" si="0"/>
+        <v>1.3583906250000002</v>
+      </c>
+      <c r="K11" s="23">
+        <f t="shared" si="0"/>
+        <v>0.67035999999999984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="C12" s="2"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.75">
+      <c r="B13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="C14" s="2"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="23">
+        <f>((Messaufbau_Messdaten!J$30)^2-(Messaufbau_Messdaten!J27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>0.3689905</v>
+      </c>
+      <c r="E15" s="30">
+        <f>((Messaufbau_Messdaten!K$30)^2-(Messaufbau_Messdaten!K27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>-0.59649400000000019</v>
+      </c>
+      <c r="F15" s="30">
+        <f>((Messaufbau_Messdaten!L$30)^2-(Messaufbau_Messdaten!L27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>1.1712635000000002</v>
+      </c>
+      <c r="G15" s="30">
+        <f>((Messaufbau_Messdaten!M$30)^2-(Messaufbau_Messdaten!M27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>-0.71120200000000022</v>
+      </c>
+      <c r="H15" s="23">
+        <f>((Messaufbau_Messdaten!N$30)^2-(Messaufbau_Messdaten!N27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>1.4794100000000001</v>
+      </c>
+      <c r="I15" s="30">
+        <f>((Messaufbau_Messdaten!O$30)^2-(Messaufbau_Messdaten!O27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>-0.42808150000000034</v>
+      </c>
+      <c r="J15" s="30">
+        <f>((Messaufbau_Messdaten!P$30)^2-(Messaufbau_Messdaten!P27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>0.81841799999999998</v>
+      </c>
+      <c r="K15">
+        <f>((Messaufbau_Messdaten!Q$30)^2-(Messaufbau_Messdaten!Q27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>0.34938800000000014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="23">
+        <f>((Messaufbau_Messdaten!J$30)^2-(Messaufbau_Messdaten!J28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>-0.779254</v>
+      </c>
+      <c r="E16" s="30">
+        <f>((Messaufbau_Messdaten!K$30)^2-(Messaufbau_Messdaten!K28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>-0.80435000000000023</v>
+      </c>
+      <c r="F16" s="30">
+        <f>((Messaufbau_Messdaten!L$30)^2-(Messaufbau_Messdaten!L28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>-0.81068400000000029</v>
+      </c>
+      <c r="G16" s="30">
+        <f>((Messaufbau_Messdaten!M$30)^2-(Messaufbau_Messdaten!M28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>-0.15196150000000042</v>
+      </c>
+      <c r="H16" s="23">
+        <f>((Messaufbau_Messdaten!N$30)^2-(Messaufbau_Messdaten!N28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>2.4000499999999536E-2</v>
+      </c>
+      <c r="I16" s="30">
+        <f>((Messaufbau_Messdaten!O$30)^2-(Messaufbau_Messdaten!O28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>0.84062999999999966</v>
+      </c>
+      <c r="J16" s="30">
+        <f>((Messaufbau_Messdaten!P$30)^2-(Messaufbau_Messdaten!P28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>0.82554200000000011</v>
+      </c>
+      <c r="K16">
+        <f>((Messaufbau_Messdaten!Q$30)^2-(Messaufbau_Messdaten!Q28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>1.0431560000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="23">
+        <f>((Messaufbau_Messdaten!J$30)^2-(Messaufbau_Messdaten!J29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>0.48534050000000017</v>
+      </c>
+      <c r="E17" s="30">
+        <f>((Messaufbau_Messdaten!K$30)^2-(Messaufbau_Messdaten!K29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.0768180000000001</v>
+      </c>
+      <c r="F17" s="30">
+        <f>((Messaufbau_Messdaten!L$30)^2-(Messaufbau_Messdaten!L29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.1033280000000003</v>
+      </c>
+      <c r="G17" s="30">
+        <f>((Messaufbau_Messdaten!M$30)^2-(Messaufbau_Messdaten!M29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.0610104999999999</v>
+      </c>
+      <c r="H17" s="23">
+        <f>((Messaufbau_Messdaten!N$30)^2-(Messaufbau_Messdaten!N29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.1168005000000003</v>
+      </c>
+      <c r="I17" s="30">
+        <f>((Messaufbau_Messdaten!O$30)^2-(Messaufbau_Messdaten!O29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.1486505</v>
+      </c>
+      <c r="J17" s="30">
+        <f>((Messaufbau_Messdaten!P$30)^2-(Messaufbau_Messdaten!P29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.0867125000000002</v>
+      </c>
+      <c r="K17">
+        <f>((Messaufbau_Messdaten!Q$30)^2-(Messaufbau_Messdaten!Q29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>0.53628799999999988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="C18" s="2"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="23">
+        <v>0</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="C23" s="2"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="28"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="32">
+        <f>D9+$D$20</f>
+        <v>0.47920844155844156</v>
+      </c>
+      <c r="E26" s="31">
+        <f t="shared" ref="E26:K26" si="2">E9+$D$20</f>
+        <v>-0.77466753246753273</v>
+      </c>
+      <c r="F26" s="31">
+        <f t="shared" si="2"/>
+        <v>1.521121428571429</v>
+      </c>
+      <c r="G26" s="32">
+        <f t="shared" si="2"/>
+        <v>-0.92363896103896137</v>
+      </c>
+      <c r="H26" s="32">
+        <f t="shared" si="2"/>
+        <v>1.9213116883116885</v>
+      </c>
+      <c r="I26" s="31">
+        <f t="shared" si="2"/>
+        <v>-0.55595000000000039</v>
+      </c>
+      <c r="J26" s="31">
+        <f t="shared" si="2"/>
+        <v>1.0628805194805195</v>
+      </c>
+      <c r="K26" s="27">
+        <f t="shared" si="2"/>
+        <v>0.45375064935064952</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="32">
+        <f t="shared" ref="D27:K28" si="3">D10+$D$20</f>
+        <v>-1.0120181818181817</v>
+      </c>
+      <c r="E27" s="31">
+        <f t="shared" si="3"/>
+        <v>-1.04461038961039</v>
+      </c>
+      <c r="F27" s="31">
+        <f t="shared" si="3"/>
+        <v>-1.052836363636364</v>
+      </c>
+      <c r="G27" s="31">
+        <f t="shared" si="3"/>
+        <v>-0.19735259740259795</v>
+      </c>
+      <c r="H27" s="32">
+        <f t="shared" si="3"/>
+        <v>3.1169480519479917E-2</v>
+      </c>
+      <c r="I27" s="31">
+        <f t="shared" si="3"/>
+        <v>1.0917272727272722</v>
+      </c>
+      <c r="J27" s="31">
+        <f t="shared" si="3"/>
+        <v>1.0721324675324677</v>
+      </c>
+      <c r="K27" s="27">
+        <f t="shared" si="3"/>
+        <v>1.3547480519480521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="B28" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="32">
+        <f t="shared" si="3"/>
+        <v>0.60667562500000027</v>
+      </c>
+      <c r="E28" s="31">
+        <f t="shared" si="3"/>
+        <v>1.3460225000000001</v>
+      </c>
+      <c r="F28" s="32">
+        <f t="shared" si="3"/>
+        <v>1.3791600000000004</v>
+      </c>
+      <c r="G28" s="32">
+        <f t="shared" si="3"/>
+        <v>1.3262631249999999</v>
+      </c>
+      <c r="H28" s="32">
+        <f t="shared" si="3"/>
+        <v>1.3960006250000003</v>
+      </c>
+      <c r="I28" s="31">
+        <f t="shared" si="3"/>
+        <v>1.4358131250000001</v>
+      </c>
+      <c r="J28" s="32">
+        <f t="shared" si="3"/>
+        <v>1.3583906250000002</v>
+      </c>
+      <c r="K28" s="27">
+        <f t="shared" si="3"/>
+        <v>0.67035999999999984</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="D29" s="23"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="D30" s="23">
+        <f>SQRT(D26^2+D27^2+D28^2)</f>
+        <v>1.2735292869661812</v>
+      </c>
+      <c r="E30" s="30">
+        <f t="shared" ref="E30:J30" si="4">SQRT(E26^2+E27^2+E28^2)</f>
+        <v>1.8716562778586128</v>
+      </c>
+      <c r="F30" s="23">
+        <f t="shared" si="4"/>
+        <v>2.3074568500091672</v>
+      </c>
+      <c r="G30" s="30">
+        <f t="shared" si="4"/>
+        <v>1.6281986533545127</v>
+      </c>
+      <c r="H30" s="30">
+        <f t="shared" si="4"/>
+        <v>2.3751269198001519</v>
+      </c>
+      <c r="I30" s="30">
+        <f t="shared" si="4"/>
+        <v>1.8874607732185573</v>
+      </c>
+      <c r="J30" s="30">
+        <f t="shared" si="4"/>
+        <v>2.0308638843399445</v>
+      </c>
+      <c r="K30">
+        <f>SQRT(K26^2+K27^2+K28^2)</f>
+        <v>1.5781680726852823</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="D31" s="23">
+        <f>Messaufbau_Messdaten!J30</f>
+        <v>1.2590000000000001</v>
+      </c>
+      <c r="E31" s="30">
+        <f>Messaufbau_Messdaten!K30</f>
+        <v>1.8940000000000001</v>
+      </c>
+      <c r="F31" s="23">
+        <f>Messaufbau_Messdaten!L30</f>
+        <v>2.3340000000000001</v>
+      </c>
+      <c r="G31" s="30">
+        <f>Messaufbau_Messdaten!M30</f>
+        <v>1.661</v>
+      </c>
+      <c r="H31" s="30">
+        <f>Messaufbau_Messdaten!N30</f>
+        <v>2.399</v>
+      </c>
+      <c r="I31" s="30">
+        <f>Messaufbau_Messdaten!O30</f>
+        <v>1.851</v>
+      </c>
+      <c r="J31" s="30">
+        <f>Messaufbau_Messdaten!P30</f>
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="K31">
+        <f>Messaufbau_Messdaten!Q30</f>
+        <v>1.5740000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="D32" s="39">
+        <f>D31-D30</f>
+        <v>-1.4529286966181054E-2</v>
+      </c>
+      <c r="E32" s="39">
+        <f t="shared" ref="E32:K32" si="5">E31-E30</f>
+        <v>2.2343722141387357E-2</v>
+      </c>
+      <c r="F32" s="39">
+        <f>F31-F30</f>
+        <v>2.6543149990832848E-2</v>
+      </c>
+      <c r="G32" s="40">
+        <f t="shared" si="5"/>
+        <v>3.2801346645487284E-2</v>
+      </c>
+      <c r="H32" s="40">
+        <f t="shared" si="5"/>
+        <v>2.3873080199848129E-2</v>
+      </c>
+      <c r="I32" s="40">
+        <f t="shared" si="5"/>
+        <v>-3.6460773218557341E-2</v>
+      </c>
+      <c r="J32" s="40">
+        <f t="shared" si="5"/>
+        <v>2.413611566005569E-2</v>
+      </c>
+      <c r="K32" s="41">
+        <f t="shared" si="5"/>
+        <v>-4.168072685282187E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:P40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:16">
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9">
+        <v>0.77</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <f>I23</f>
+        <v>0.3689905</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9">
+        <v>0.18310950000000004</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.77</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f>I24</f>
+        <v>-0.779254</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10">
+        <v>-0.8517944999999999</v>
+      </c>
+      <c r="M10">
+        <v>0.77</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <f>I25</f>
+        <v>0.48534050000000017</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11">
+        <v>0.41280000000000017</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="K13" s="23"/>
+      <c r="P13">
+        <f>MDETERM(L9:N11)</f>
+        <v>0.11279545200000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14">
+        <v>0.77</v>
+      </c>
+      <c r="M14">
+        <v>0.18310950000000004</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <f>INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A1))</f>
+        <v>0.47920844155844156</v>
+      </c>
+      <c r="J15">
+        <f>MDETERM(B9:D11)</f>
+        <v>0.47432000000000002</v>
+      </c>
+      <c r="K15" s="23"/>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>-0.8517944999999999</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D17" si="0">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
+        <v>-1.0120181818181817</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0.41280000000000017</v>
+      </c>
+      <c r="N16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.60667562500000027</v>
+      </c>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="J18">
+        <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
+        <v>0.3689905</v>
+      </c>
+      <c r="K18" s="23"/>
+      <c r="P18">
+        <f>MDETERM(L14:N16)</f>
+        <v>-0.52470541199999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="J19">
+        <f t="shared" ref="J19:J20" si="1">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
+        <v>-0.77925399999999989</v>
+      </c>
+      <c r="K19" s="23"/>
+      <c r="L19">
+        <v>0.77</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.18310950000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0.48534050000000023</v>
+      </c>
+      <c r="K20" s="23"/>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0.77</v>
+      </c>
+      <c r="N20">
+        <v>-0.8517944999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="18.75">
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="23"/>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.41280000000000017</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <f>(Messaufbau_Messdaten!$J$30^2)</f>
+        <v>1.5850810000000004</v>
+      </c>
+      <c r="F23">
+        <f>(Messaufbau_Messdaten!J27^2 )</f>
+        <v>1.4400000000000004</v>
+      </c>
+      <c r="G23">
+        <f>(Messaufbau_Messdaten!$I$35^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <f>(E23-F23+G23)/2</f>
+        <v>0.3689905</v>
+      </c>
+      <c r="K23" s="23"/>
+      <c r="P23">
+        <f>MDETERM(L19:N21)</f>
+        <v>0.2447491200000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <f>(Messaufbau_Messdaten!$J$30^2)</f>
+        <v>1.5850810000000004</v>
+      </c>
+      <c r="F24">
+        <f>(Messaufbau_Messdaten!J28^2 )</f>
+        <v>3.7364890000000002</v>
+      </c>
+      <c r="G24">
+        <f>(Messaufbau_Messdaten!$I$41^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I25" si="2">(E24-F24+G24)/2</f>
+        <v>-0.779254</v>
+      </c>
+      <c r="K24" s="23"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <f>(Messaufbau_Messdaten!$J$30^2)</f>
+        <v>1.5850810000000004</v>
+      </c>
+      <c r="F25">
+        <f>(Messaufbau_Messdaten!J29^2 )</f>
+        <v>1.2544000000000002</v>
+      </c>
+      <c r="G25">
+        <f>(Messaufbau_Messdaten!$I$43^2)</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0.48534050000000017</v>
+      </c>
+      <c r="K25" s="23"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="K26" s="23"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="K27" s="23"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="K28" s="23"/>
+      <c r="L28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28">
+        <f>P13/$J$15</f>
+        <v>0.23780454545454552</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="23"/>
+      <c r="L29" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29">
+        <f>P18/$J$15</f>
+        <v>-1.1062266233766234</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="23"/>
+      <c r="L30" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30">
+        <f>P23/$J$15</f>
+        <v>0.51600000000000024</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="23"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="K32" s="23"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="K33" s="23"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="19">
+        <f>D15+D29</f>
+        <v>0.47920844155844156</v>
+      </c>
+      <c r="K34" s="23"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="19">
+        <f>D16+D30</f>
+        <v>-1.0120181818181817</v>
+      </c>
+      <c r="K35" s="23"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="19">
+        <f>D17+D31</f>
+        <v>0.60667562500000027</v>
+      </c>
+      <c r="K36" s="23"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40">
+        <f>SQRT(D34^2+D35^2+D36^2)</f>
+        <v>1.2735292869661812</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J18:J20">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>$H$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$H$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$H$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9">
+        <v>0.77</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <f>I23</f>
+        <v>-0.59649400000000019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.77</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f>I24</f>
+        <v>-0.80435000000000023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <f>I25</f>
+        <v>1.0768180000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <f>INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A1))</f>
+        <v>-0.77466753246753273</v>
+      </c>
+      <c r="J15">
+        <f>MDETERM(B9:D11)</f>
+        <v>0.47432000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D17" si="0">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
+        <v>-1.04461038961039</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.3460225000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="J18">
+        <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
+        <v>-0.59649400000000019</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="J19">
+        <f t="shared" ref="J19:J20" si="1">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
+        <v>-0.80435000000000034</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.0768180000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="18.75">
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <f>(Messaufbau_Messdaten!$K$30^2)</f>
+        <v>3.5872360000000003</v>
+      </c>
+      <c r="F23">
+        <f>(Messaufbau_Messdaten!K27^2 )</f>
+        <v>5.3731240000000007</v>
+      </c>
+      <c r="G23">
+        <f>(Messaufbau_Messdaten!$I$35^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <f>D23*(E23-F23+G23)</f>
+        <v>-0.59649400000000019</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <f>(Messaufbau_Messdaten!$K$30^2)</f>
+        <v>3.5872360000000003</v>
+      </c>
+      <c r="F24">
+        <f>(Messaufbau_Messdaten!K28^2 )</f>
+        <v>5.7888360000000008</v>
+      </c>
+      <c r="G24">
+        <f>(Messaufbau_Messdaten!$I$41^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I25" si="2">D24*(E24-F24+G24)</f>
+        <v>-0.80435000000000023</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <f>(Messaufbau_Messdaten!$K$30^2)</f>
+        <v>3.5872360000000003</v>
+      </c>
+      <c r="F25">
+        <f>(Messaufbau_Messdaten!K29^2 )</f>
+        <v>2.0736000000000003</v>
+      </c>
+      <c r="G25">
+        <f>(Messaufbau_Messdaten!$I$43^2)</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1.0768180000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="19">
+        <f>D15+D29</f>
+        <v>-0.77466753246753273</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="19">
+        <f>D16+D30</f>
+        <v>-1.04461038961039</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="19">
+        <f>D17+D31</f>
+        <v>1.3460225000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <f>SQRT(D34^2+D35^2+D36^2)</f>
+        <v>1.8716562778586128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:J40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9">
+        <v>0.77</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <f>I23</f>
+        <v>1.1712635000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.77</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f>I24</f>
+        <v>-0.81068400000000029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <f>I25</f>
+        <v>1.1033280000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <f>INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A1))</f>
+        <v>1.521121428571429</v>
+      </c>
+      <c r="J15">
+        <f>MDETERM(B9:D11)</f>
+        <v>0.47432000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D17" si="0">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
+        <v>-1.052836363636364</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.3791600000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="J18">
+        <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
+        <v>1.1712635000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="J19">
+        <f t="shared" ref="J19:J20" si="1">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
+        <v>-0.81068400000000029</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.1033280000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="18.75">
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <f>(Messaufbau_Messdaten!$L$30^2)</f>
+        <v>5.4475560000000005</v>
+      </c>
+      <c r="F23">
+        <f>(Messaufbau_Messdaten!L27^2 )</f>
+        <v>3.6979290000000002</v>
+      </c>
+      <c r="G23">
+        <f>(Messaufbau_Messdaten!$I$35^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <f>D23*(E23-F23+G23)</f>
+        <v>1.1712635000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <f>(Messaufbau_Messdaten!$L$30^2)</f>
+        <v>5.4475560000000005</v>
+      </c>
+      <c r="F24">
+        <f>(Messaufbau_Messdaten!L28^2 )</f>
+        <v>7.6618240000000011</v>
+      </c>
+      <c r="G24">
+        <f>(Messaufbau_Messdaten!$I$41^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I25" si="2">D24*(E24-F24+G24)</f>
+        <v>-0.81068400000000029</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <f>(Messaufbau_Messdaten!$L$30^2)</f>
+        <v>5.4475560000000005</v>
+      </c>
+      <c r="F25">
+        <f>(Messaufbau_Messdaten!L29^2 )</f>
+        <v>3.8809</v>
+      </c>
+      <c r="G25">
+        <f>(Messaufbau_Messdaten!$I$43^2)</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1.1033280000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="19">
+        <f>D15+D29</f>
+        <v>1.521121428571429</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="19">
+        <f>D16+D30</f>
+        <v>-1.052836363636364</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="19">
+        <f>D17+D31</f>
+        <v>1.3791600000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <f>SQRT(D34^2+D35^2+D36^2)</f>
+        <v>2.3074568500091672</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9">
+        <v>0.77</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <f>I23</f>
+        <v>-0.71120200000000022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.77</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f>I24</f>
+        <v>-0.15196150000000042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <f>I25</f>
+        <v>1.0610104999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <f>INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A1))</f>
+        <v>-0.92363896103896137</v>
+      </c>
+      <c r="J15">
+        <f>MDETERM(B9:D11)</f>
+        <v>0.47432000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D17" si="0">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
+        <v>-0.19735259740259795</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.3262631249999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="J18">
+        <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
+        <v>-0.71120200000000022</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="J19">
+        <f t="shared" ref="J19:J20" si="1">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
+        <v>-0.15196150000000042</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.0610104999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="18.75">
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <f>(Messaufbau_Messdaten!$M$30^2)</f>
+        <v>2.758921</v>
+      </c>
+      <c r="F23">
+        <f>(Messaufbau_Messdaten!M27^2 )</f>
+        <v>4.7742250000000004</v>
+      </c>
+      <c r="G23">
+        <f>(Messaufbau_Messdaten!$I$35^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <f>D23*(E23-F23+G23)</f>
+        <v>-0.71120200000000022</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <f>(Messaufbau_Messdaten!$M$30^2)</f>
+        <v>2.758921</v>
+      </c>
+      <c r="F24">
+        <f>(Messaufbau_Messdaten!M28^2 )</f>
+        <v>3.6557440000000008</v>
+      </c>
+      <c r="G24">
+        <f>(Messaufbau_Messdaten!$I$41^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I25" si="2">D24*(E24-F24+G24)</f>
+        <v>-0.15196150000000042</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <f>(Messaufbau_Messdaten!$M$30^2)</f>
+        <v>2.758921</v>
+      </c>
+      <c r="F25">
+        <f>(Messaufbau_Messdaten!M29^2 )</f>
+        <v>1.2769000000000004</v>
+      </c>
+      <c r="G25">
+        <f>(Messaufbau_Messdaten!$I$43^2)</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1.0610104999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="19">
+        <f>D15+D29</f>
+        <v>-0.92363896103896137</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="19">
+        <f>D16+D30</f>
+        <v>-0.19735259740259795</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="19">
+        <f>D17+D31</f>
+        <v>1.3262631249999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <f>SQRT(D34^2+D35^2+D36^2)</f>
+        <v>1.6281986533545127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:J40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9">
+        <v>0.77</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <f>I23</f>
+        <v>1.4794100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.77</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f>I24</f>
+        <v>2.4000499999999536E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <f>I25</f>
+        <v>1.1168005000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <f>INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A1))</f>
+        <v>1.9213116883116885</v>
+      </c>
+      <c r="J15">
+        <f>MDETERM(B9:D11)</f>
+        <v>0.47432000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D17" si="0">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
+        <v>3.1169480519479917E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.3960006250000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="J18">
+        <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
+        <v>1.4794100000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="J19">
+        <f t="shared" ref="J19:J20" si="1">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
+        <v>2.4000499999999536E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.1168005000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="18.75">
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <f>(Messaufbau_Messdaten!$N$30^2)</f>
+        <v>5.7552010000000005</v>
+      </c>
+      <c r="F23">
+        <f>(Messaufbau_Messdaten!N27^2 )</f>
+        <v>3.389281</v>
+      </c>
+      <c r="G23">
+        <f>(Messaufbau_Messdaten!$I$35^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <f>D23*(E23-F23+G23)</f>
+        <v>1.4794100000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <f>(Messaufbau_Messdaten!$N$30^2)</f>
+        <v>5.7552010000000005</v>
+      </c>
+      <c r="F24">
+        <f>(Messaufbau_Messdaten!N28^2 )</f>
+        <v>6.3001000000000014</v>
+      </c>
+      <c r="G24">
+        <f>(Messaufbau_Messdaten!$I$41^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I25" si="2">D24*(E24-F24+G24)</f>
+        <v>2.4000499999999536E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <f>(Messaufbau_Messdaten!$N$30^2)</f>
+        <v>5.7552010000000005</v>
+      </c>
+      <c r="F25">
+        <f>(Messaufbau_Messdaten!N29^2 )</f>
+        <v>4.1616</v>
+      </c>
+      <c r="G25">
+        <f>(Messaufbau_Messdaten!$I$43^2)</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1.1168005000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="19">
+        <f>D15+D29</f>
+        <v>1.9213116883116885</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="19">
+        <f>D16+D30</f>
+        <v>3.1169480519479917E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="19">
+        <f>D17+D31</f>
+        <v>1.3960006250000003</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <f>SQRT(D34^2+D35^2+D36^2)</f>
+        <v>2.3751269198001519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/measurements/20130516_transformation/Koordinatentransformation.xlsx
+++ b/measurements/20130516_transformation/Koordinatentransformation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="22695" windowHeight="12705" activeTab="3"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="22695" windowHeight="12705"/>
   </bookViews>
   <sheets>
     <sheet name="Messaufbau_Messdaten" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="79">
   <si>
     <t>(0,0)</t>
   </si>
@@ -248,6 +248,27 @@
   </si>
   <si>
     <t>Lösung des Modells</t>
+  </si>
+  <si>
+    <t>Fehlerbetrachtung</t>
+  </si>
+  <si>
+    <t>Fehler %</t>
+  </si>
+  <si>
+    <t>Fehler ABS [m]</t>
+  </si>
+  <si>
+    <t>berechnet [m]</t>
+  </si>
+  <si>
+    <t>gemessen [m]</t>
+  </si>
+  <si>
+    <t>c_k0</t>
+  </si>
+  <si>
+    <t>1/2[r_0^2-r_k^2+d_k0^2]</t>
   </si>
 </sst>
 </file>
@@ -257,7 +278,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,14 +317,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u val="double"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -319,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -425,19 +438,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -462,10 +462,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -478,29 +474,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1481,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1492,12 +1506,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="2:10">
@@ -1539,10 +1553,10 @@
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="5"/>
@@ -1655,14 +1669,14 @@
       </c>
     </row>
     <row r="19" spans="1:27">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
       <c r="G19" s="7"/>
-      <c r="I19" s="21">
+      <c r="I19" s="19">
         <v>1</v>
       </c>
       <c r="J19">
@@ -1689,28 +1703,28 @@
       <c r="Q19">
         <v>1.46</v>
       </c>
-      <c r="T19" s="20">
+      <c r="T19" s="18">
         <v>1.04</v>
       </c>
-      <c r="U19" s="20">
+      <c r="U19" s="18">
         <v>1.36</v>
       </c>
-      <c r="V19" s="20">
+      <c r="V19" s="18">
         <v>1.89</v>
       </c>
-      <c r="W19" s="20">
+      <c r="W19" s="18">
         <v>1.05</v>
       </c>
-      <c r="X19" s="20">
+      <c r="X19" s="18">
         <v>1.96</v>
       </c>
-      <c r="Y19" s="20">
+      <c r="Y19" s="18">
         <v>1.25</v>
       </c>
-      <c r="Z19" s="20">
+      <c r="Z19" s="18">
         <v>1.56</v>
       </c>
-      <c r="AA19" s="20">
+      <c r="AA19" s="18">
         <v>1.35</v>
       </c>
     </row>
@@ -1743,34 +1757,34 @@
       <c r="Q20">
         <v>0.91200000000000003</v>
       </c>
-      <c r="T20" s="20">
+      <c r="T20" s="18">
         <v>1.1200000000000001</v>
       </c>
-      <c r="U20" s="20">
+      <c r="U20" s="18">
         <v>2.2400000000000002</v>
       </c>
-      <c r="V20" s="20">
+      <c r="V20" s="18">
         <v>1.84</v>
       </c>
-      <c r="W20" s="20">
+      <c r="W20" s="18">
         <v>2.1</v>
       </c>
-      <c r="X20" s="20">
+      <c r="X20" s="18">
         <v>1.76</v>
       </c>
-      <c r="Y20" s="20">
+      <c r="Y20" s="18">
         <v>2.13</v>
       </c>
-      <c r="Z20" s="20">
+      <c r="Z20" s="18">
         <v>1.7</v>
       </c>
-      <c r="AA20" s="20">
+      <c r="AA20" s="18">
         <v>1.46</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="G21" s="7"/>
-      <c r="I21" s="22">
+      <c r="I21" s="20">
         <v>3</v>
       </c>
       <c r="J21">
@@ -1797,28 +1811,28 @@
       <c r="Q21">
         <v>1.35</v>
       </c>
-      <c r="T21" s="20">
+      <c r="T21" s="18">
         <v>1.81</v>
       </c>
-      <c r="U21" s="20">
+      <c r="U21" s="18">
         <v>2.29</v>
       </c>
-      <c r="V21" s="20">
+      <c r="V21" s="18">
         <v>2.66</v>
       </c>
-      <c r="W21" s="20">
+      <c r="W21" s="18">
         <v>1.8</v>
       </c>
-      <c r="X21" s="20">
+      <c r="X21" s="18">
         <v>2.42</v>
       </c>
-      <c r="Y21" s="20">
+      <c r="Y21" s="18">
         <v>1.45</v>
       </c>
-      <c r="Z21" s="20">
+      <c r="Z21" s="18">
         <v>1.7</v>
       </c>
-      <c r="AA21" s="20">
+      <c r="AA21" s="18">
         <v>0.94</v>
       </c>
     </row>
@@ -1851,28 +1865,28 @@
       <c r="Q22">
         <v>1.494</v>
       </c>
-      <c r="T22" s="20">
+      <c r="T22" s="18">
         <v>1.18</v>
       </c>
-      <c r="U22" s="20">
+      <c r="U22" s="18">
         <v>1.81</v>
       </c>
-      <c r="V22" s="20">
+      <c r="V22" s="18">
         <v>2.2599999999999998</v>
       </c>
-      <c r="W22" s="20">
+      <c r="W22" s="18">
         <v>1.58</v>
       </c>
-      <c r="X22" s="20">
+      <c r="X22" s="18">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Y22" s="20">
+      <c r="Y22" s="18">
         <v>1.71</v>
       </c>
-      <c r="Z22" s="20">
+      <c r="Z22" s="18">
         <v>1.95</v>
       </c>
-      <c r="AA22" s="20">
+      <c r="AA22" s="18">
         <v>1.49</v>
       </c>
     </row>
@@ -1929,39 +1943,39 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="9"/>
-      <c r="I27" s="21">
+      <c r="I27" s="19">
         <v>1</v>
       </c>
       <c r="J27">
-        <f>J19+OFFSET</f>
+        <f t="shared" ref="J27:Q30" si="0">J19+OFFSET</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="K27">
-        <f>K19+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>2.3180000000000001</v>
       </c>
       <c r="L27">
-        <f>L19+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.923</v>
       </c>
       <c r="M27">
-        <f>M19+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>2.1850000000000001</v>
       </c>
       <c r="N27">
-        <f>N19+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.841</v>
       </c>
       <c r="O27">
-        <f>O19+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>2.2080000000000002</v>
       </c>
       <c r="P27">
-        <f>P19+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.7830000000000001</v>
       </c>
       <c r="Q27">
-        <f>Q19+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.54</v>
       </c>
     </row>
@@ -1970,35 +1984,35 @@
         <v>2</v>
       </c>
       <c r="J28">
-        <f>J20+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.9330000000000001</v>
       </c>
       <c r="K28">
-        <f>K20+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>2.4060000000000001</v>
       </c>
       <c r="L28">
-        <f>L20+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>2.7680000000000002</v>
       </c>
       <c r="M28">
-        <f>M20+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.9120000000000001</v>
       </c>
       <c r="N28">
-        <f>N20+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>2.5100000000000002</v>
       </c>
       <c r="O28">
-        <f>O20+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.5290000000000001</v>
       </c>
       <c r="P28">
-        <f>P20+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.7790000000000001</v>
       </c>
       <c r="Q28">
-        <f>Q20+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>0.99199999999999999</v>
       </c>
     </row>
@@ -2007,35 +2021,35 @@
         <v>3</v>
       </c>
       <c r="J29">
-        <f>J21+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="K29">
-        <f>K21+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.4400000000000002</v>
       </c>
       <c r="L29">
-        <f>L21+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.97</v>
       </c>
       <c r="M29">
-        <f>M21+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.1300000000000001</v>
       </c>
       <c r="N29">
-        <f>N21+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>2.04</v>
       </c>
       <c r="O29">
-        <f>O21+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.33</v>
       </c>
       <c r="P29">
-        <f>P21+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.6400000000000001</v>
       </c>
       <c r="Q29">
-        <f>Q21+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.4300000000000002</v>
       </c>
     </row>
@@ -2044,74 +2058,74 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <f>J22+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.2590000000000001</v>
       </c>
       <c r="K30">
-        <f>K22+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.8940000000000001</v>
       </c>
       <c r="L30">
-        <f>L22+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>2.3340000000000001</v>
       </c>
       <c r="M30">
-        <f>M22+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.661</v>
       </c>
       <c r="N30">
-        <f>N22+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>2.399</v>
       </c>
       <c r="O30">
-        <f>O22+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.851</v>
       </c>
       <c r="P30">
-        <f>P22+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>2.0550000000000002</v>
       </c>
       <c r="Q30">
-        <f>Q22+OFFSET</f>
+        <f t="shared" si="0"/>
         <v>1.5740000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27">
-      <c r="J31" s="19">
+      <c r="J31" s="17">
         <f>J30*J30</f>
         <v>1.5850810000000004</v>
       </c>
-      <c r="K31" s="19">
-        <f t="shared" ref="K31:Q31" si="0">K30*K30</f>
+      <c r="K31" s="17">
+        <f t="shared" ref="K31:Q31" si="1">K30*K30</f>
         <v>3.5872360000000003</v>
       </c>
-      <c r="L31" s="19">
-        <f t="shared" si="0"/>
+      <c r="L31" s="17">
+        <f t="shared" si="1"/>
         <v>5.4475560000000005</v>
       </c>
-      <c r="M31" s="19">
-        <f t="shared" si="0"/>
+      <c r="M31" s="17">
+        <f t="shared" si="1"/>
         <v>2.758921</v>
       </c>
-      <c r="N31" s="19">
-        <f t="shared" si="0"/>
+      <c r="N31" s="17">
+        <f t="shared" si="1"/>
         <v>5.7552010000000005</v>
       </c>
-      <c r="O31" s="19">
-        <f t="shared" si="0"/>
+      <c r="O31" s="17">
+        <f t="shared" si="1"/>
         <v>3.4262009999999998</v>
       </c>
-      <c r="P31" s="19">
-        <f t="shared" si="0"/>
+      <c r="P31" s="17">
+        <f t="shared" si="1"/>
         <v>4.2230250000000007</v>
       </c>
-      <c r="Q31" s="19">
-        <f t="shared" si="0"/>
+      <c r="Q31" s="17">
+        <f t="shared" si="1"/>
         <v>2.4774760000000002</v>
       </c>
     </row>
     <row r="34" spans="9:10">
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2124,7 +2138,7 @@
       </c>
     </row>
     <row r="36" spans="9:10">
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="17" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2138,7 +2152,7 @@
       </c>
     </row>
     <row r="38" spans="9:10">
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2152,7 +2166,7 @@
       </c>
     </row>
     <row r="40" spans="9:10">
-      <c r="I40" s="19" t="s">
+      <c r="I40" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2165,7 +2179,7 @@
       </c>
     </row>
     <row r="42" spans="9:10">
-      <c r="I42" s="19" t="s">
+      <c r="I42" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2178,7 +2192,7 @@
       </c>
     </row>
     <row r="44" spans="9:10">
-      <c r="I44" s="19" t="s">
+      <c r="I44" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2520,37 +2534,37 @@
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="19">
+      <c r="C34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="17">
         <f>D15+D29</f>
         <v>-0.55595000000000039</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="19">
+      <c r="C35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="17">
         <f>D16+D30</f>
         <v>1.0917272727272722</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="19">
+      <c r="C36" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="17">
         <f>D17+D31</f>
         <v>1.4358131250000001</v>
       </c>
@@ -2884,37 +2898,37 @@
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="19">
+      <c r="C34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="17">
         <f>D15+D29</f>
         <v>1.0628805194805195</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="19">
+      <c r="C35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="17">
         <f>D16+D30</f>
         <v>1.0721324675324677</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="19">
+      <c r="C36" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="17">
         <f>D17+D31</f>
         <v>1.3583906250000002</v>
       </c>
@@ -3248,37 +3262,37 @@
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="19">
+      <c r="C34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="17">
         <f>D15+D29</f>
         <v>0.45375064935064952</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="19">
+      <c r="C35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="17">
         <f>D16+D30</f>
         <v>1.3547480519480521</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="19">
+      <c r="C36" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="17">
         <f>D17+D31</f>
         <v>0.67035999999999984</v>
       </c>
@@ -3653,33 +3667,33 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="11"/>
-      <c r="C2" s="26">
+      <c r="C2" s="24">
         <v>1</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="24">
         <v>2</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="24">
         <v>3</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="24">
         <v>4</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="24">
         <v>5</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="24">
         <v>6</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="24">
         <v>7</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="24">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>64</v>
       </c>
       <c r="C3">
@@ -3716,7 +3730,7 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C4">
@@ -3753,7 +3767,7 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C5">
@@ -4118,80 +4132,90 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K33"/>
+  <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="37" t="s">
         <v>70</v>
       </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="23"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="15">
         <v>0.77</v>
       </c>
       <c r="C3" s="15">
         <v>0</v>
       </c>
-      <c r="D3" s="25">
-        <v>0</v>
-      </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="43" t="s">
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="42" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="23"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="15">
         <v>0</v>
       </c>
       <c r="C4" s="15">
         <v>0.77</v>
       </c>
-      <c r="D4" s="25">
-        <v>0</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="42" t="s">
+      <c r="G4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="23"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="15">
         <v>0</v>
       </c>
       <c r="C5" s="15">
         <v>0</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>0.8</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="43" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="42" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="34" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4203,40 +4227,42 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="37">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="12">
         <v>1</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="12">
         <v>2</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="12">
         <v>3</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="12">
         <v>4</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="12">
         <v>5</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="12">
         <v>6</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="12">
         <v>7</v>
       </c>
       <c r="K8" s="12">
@@ -4244,39 +4270,39 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="23">
+      <c r="D9" s="39">
         <f>INDEX(MMULT(MINVERSE($B$3:$D$5),D$15:D$17),ROW(A1))</f>
         <v>0.47920844155844156</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="39">
         <f t="shared" ref="E9:K11" si="0">INDEX(MMULT(MINVERSE($B$3:$D$5),E$15:E$17),ROW(B1))</f>
         <v>-0.77466753246753273</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="39">
         <f t="shared" si="0"/>
         <v>1.521121428571429</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="39">
         <f t="shared" si="0"/>
         <v>-0.92363896103896137</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="39">
         <f t="shared" si="0"/>
         <v>1.9213116883116885</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="39">
         <f t="shared" si="0"/>
         <v>-0.55595000000000039</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="39">
         <f t="shared" si="0"/>
         <v>1.0628805194805195</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="39">
         <f t="shared" si="0"/>
         <v>0.45375064935064952</v>
       </c>
@@ -4288,35 +4314,35 @@
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="39">
         <f t="shared" ref="D10:D11" si="1">INDEX(MMULT(MINVERSE($B$3:$D$5),D$15:D$17),ROW(A2))</f>
         <v>-1.0120181818181817</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="39">
         <f t="shared" si="0"/>
         <v>-1.04461038961039</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="39">
         <f t="shared" si="0"/>
         <v>-1.052836363636364</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="39">
         <f t="shared" si="0"/>
         <v>-0.19735259740259795</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="39">
         <f t="shared" si="0"/>
         <v>3.1169480519479917E-2</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="39">
         <f t="shared" si="0"/>
         <v>1.0917272727272722</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="39">
         <f t="shared" si="0"/>
         <v>1.0721324675324677</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="39">
         <f t="shared" si="0"/>
         <v>1.3547480519480521</v>
       </c>
@@ -4326,111 +4352,113 @@
         <v>55</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="23">
+      <c r="D11" s="39">
         <f t="shared" si="1"/>
         <v>0.60667562500000027</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="39">
         <f t="shared" si="0"/>
         <v>1.3460225000000001</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="39">
         <f t="shared" si="0"/>
         <v>1.3791600000000004</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="39">
         <f t="shared" si="0"/>
         <v>1.3262631249999999</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="39">
         <f t="shared" si="0"/>
         <v>1.3960006250000003</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="39">
         <f t="shared" si="0"/>
         <v>1.4358131250000001</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="39">
         <f t="shared" si="0"/>
         <v>1.3583906250000002</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="39">
         <f t="shared" si="0"/>
         <v>0.67035999999999984</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="C12" s="2"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="18.75">
       <c r="B13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+        <v>77</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11">
       <c r="C14" s="2"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="23">
+      <c r="D15" s="39">
         <f>((Messaufbau_Messdaten!J$30)^2-(Messaufbau_Messdaten!J27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
         <v>0.3689905</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="39">
         <f>((Messaufbau_Messdaten!K$30)^2-(Messaufbau_Messdaten!K27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
         <v>-0.59649400000000019</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="39">
         <f>((Messaufbau_Messdaten!L$30)^2-(Messaufbau_Messdaten!L27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
         <v>1.1712635000000002</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="39">
         <f>((Messaufbau_Messdaten!M$30)^2-(Messaufbau_Messdaten!M27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
         <v>-0.71120200000000022</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="39">
         <f>((Messaufbau_Messdaten!N$30)^2-(Messaufbau_Messdaten!N27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
         <v>1.4794100000000001</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="39">
         <f>((Messaufbau_Messdaten!O$30)^2-(Messaufbau_Messdaten!O27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
         <v>-0.42808150000000034</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="39">
         <f>((Messaufbau_Messdaten!P$30)^2-(Messaufbau_Messdaten!P27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
         <v>0.81841799999999998</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="39">
         <f>((Messaufbau_Messdaten!Q$30)^2-(Messaufbau_Messdaten!Q27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
         <v>0.34938800000000014</v>
       </c>
@@ -4442,35 +4470,35 @@
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="39">
         <f>((Messaufbau_Messdaten!J$30)^2-(Messaufbau_Messdaten!J28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
         <v>-0.779254</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="39">
         <f>((Messaufbau_Messdaten!K$30)^2-(Messaufbau_Messdaten!K28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
         <v>-0.80435000000000023</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="39">
         <f>((Messaufbau_Messdaten!L$30)^2-(Messaufbau_Messdaten!L28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
         <v>-0.81068400000000029</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="39">
         <f>((Messaufbau_Messdaten!M$30)^2-(Messaufbau_Messdaten!M28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
         <v>-0.15196150000000042</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="39">
         <f>((Messaufbau_Messdaten!N$30)^2-(Messaufbau_Messdaten!N28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
         <v>2.4000499999999536E-2</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="39">
         <f>((Messaufbau_Messdaten!O$30)^2-(Messaufbau_Messdaten!O28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
         <v>0.84062999999999966</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="39">
         <f>((Messaufbau_Messdaten!P$30)^2-(Messaufbau_Messdaten!P28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
         <v>0.82554200000000011</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="39">
         <f>((Messaufbau_Messdaten!Q$30)^2-(Messaufbau_Messdaten!Q28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
         <v>1.0431560000000002</v>
       </c>
@@ -4480,61 +4508,64 @@
         <v>45</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="23">
+      <c r="D17" s="39">
         <f>((Messaufbau_Messdaten!J$30)^2-(Messaufbau_Messdaten!J29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
         <v>0.48534050000000017</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="39">
         <f>((Messaufbau_Messdaten!K$30)^2-(Messaufbau_Messdaten!K29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
         <v>1.0768180000000001</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="39">
         <f>((Messaufbau_Messdaten!L$30)^2-(Messaufbau_Messdaten!L29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
         <v>1.1033280000000003</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="39">
         <f>((Messaufbau_Messdaten!M$30)^2-(Messaufbau_Messdaten!M29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
         <v>1.0610104999999999</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="39">
         <f>((Messaufbau_Messdaten!N$30)^2-(Messaufbau_Messdaten!N29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
         <v>1.1168005000000003</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="39">
         <f>((Messaufbau_Messdaten!O$30)^2-(Messaufbau_Messdaten!O29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
         <v>1.1486505</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="39">
         <f>((Messaufbau_Messdaten!P$30)^2-(Messaufbau_Messdaten!P29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
         <v>1.0867125000000002</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="39">
         <f>((Messaufbau_Messdaten!Q$30)^2-(Messaufbau_Messdaten!Q29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
         <v>0.53628799999999988</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="C18" s="2"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11">
       <c r="B20" t="s">
@@ -4543,15 +4574,16 @@
       <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="23">
-        <v>0</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
       <c r="B21" t="s">
@@ -4560,15 +4592,16 @@
       <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="23">
-        <v>0</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" t="s">
@@ -4577,295 +4610,412 @@
       <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="23">
-        <v>0</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11">
       <c r="C23" s="2"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="28"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="12"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12">
+        <v>2</v>
+      </c>
+      <c r="F25" s="12">
+        <v>3</v>
+      </c>
+      <c r="G25" s="12">
+        <v>4</v>
+      </c>
+      <c r="H25" s="12">
+        <v>5</v>
+      </c>
+      <c r="I25" s="12">
+        <v>6</v>
+      </c>
+      <c r="J25" s="12">
+        <v>7</v>
+      </c>
+      <c r="K25" s="12">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="32">
+      <c r="C26" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="40">
         <f>D9+$D$20</f>
         <v>0.47920844155844156</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="40">
         <f t="shared" ref="E26:K26" si="2">E9+$D$20</f>
         <v>-0.77466753246753273</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="40">
         <f t="shared" si="2"/>
         <v>1.521121428571429</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="40">
         <f t="shared" si="2"/>
         <v>-0.92363896103896137</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="40">
         <f t="shared" si="2"/>
         <v>1.9213116883116885</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="40">
         <f t="shared" si="2"/>
         <v>-0.55595000000000039</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="40">
         <f t="shared" si="2"/>
         <v>1.0628805194805195</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="40">
         <f t="shared" si="2"/>
         <v>0.45375064935064952</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="32">
+      <c r="C27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="40">
         <f t="shared" ref="D27:K28" si="3">D10+$D$20</f>
         <v>-1.0120181818181817</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="40">
         <f t="shared" si="3"/>
         <v>-1.04461038961039</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="40">
         <f t="shared" si="3"/>
         <v>-1.052836363636364</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="40">
         <f t="shared" si="3"/>
         <v>-0.19735259740259795</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="40">
         <f t="shared" si="3"/>
         <v>3.1169480519479917E-2</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="40">
         <f t="shared" si="3"/>
         <v>1.0917272727272722</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="40">
         <f t="shared" si="3"/>
         <v>1.0721324675324677</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K27" s="40">
         <f t="shared" si="3"/>
         <v>1.3547480519480521</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="32">
+      <c r="C28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="40">
         <f t="shared" si="3"/>
         <v>0.60667562500000027</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="40">
         <f t="shared" si="3"/>
         <v>1.3460225000000001</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="40">
         <f t="shared" si="3"/>
         <v>1.3791600000000004</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="40">
         <f t="shared" si="3"/>
         <v>1.3262631249999999</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="40">
         <f t="shared" si="3"/>
         <v>1.3960006250000003</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="40">
         <f t="shared" si="3"/>
         <v>1.4358131250000001</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="40">
         <f t="shared" si="3"/>
         <v>1.3583906250000002</v>
       </c>
-      <c r="K28" s="27">
+      <c r="K28" s="40">
         <f t="shared" si="3"/>
         <v>0.67035999999999984</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="D29" s="23"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="D30" s="23">
+      <c r="A30" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12">
+        <v>2</v>
+      </c>
+      <c r="F31" s="12">
+        <v>3</v>
+      </c>
+      <c r="G31" s="12">
+        <v>4</v>
+      </c>
+      <c r="H31" s="12">
+        <v>5</v>
+      </c>
+      <c r="I31" s="12">
+        <v>6</v>
+      </c>
+      <c r="J31" s="12">
+        <v>7</v>
+      </c>
+      <c r="K31" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32">
+        <f>Messaufbau_Messdaten!J30</f>
+        <v>1.2590000000000001</v>
+      </c>
+      <c r="E32">
+        <f>Messaufbau_Messdaten!K30</f>
+        <v>1.8940000000000001</v>
+      </c>
+      <c r="F32">
+        <f>Messaufbau_Messdaten!L30</f>
+        <v>2.3340000000000001</v>
+      </c>
+      <c r="G32">
+        <f>Messaufbau_Messdaten!M30</f>
+        <v>1.661</v>
+      </c>
+      <c r="H32">
+        <f>Messaufbau_Messdaten!N30</f>
+        <v>2.399</v>
+      </c>
+      <c r="I32">
+        <f>Messaufbau_Messdaten!O30</f>
+        <v>1.851</v>
+      </c>
+      <c r="J32">
+        <f>Messaufbau_Messdaten!P30</f>
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="K32">
+        <f>Messaufbau_Messdaten!Q30</f>
+        <v>1.5740000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="39">
         <f>SQRT(D26^2+D27^2+D28^2)</f>
         <v>1.2735292869661812</v>
       </c>
-      <c r="E30" s="30">
-        <f t="shared" ref="E30:J30" si="4">SQRT(E26^2+E27^2+E28^2)</f>
+      <c r="E33" s="39">
+        <f t="shared" ref="E33:K33" si="4">SQRT(E26^2+E27^2+E28^2)</f>
         <v>1.8716562778586128</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F33" s="39">
         <f t="shared" si="4"/>
         <v>2.3074568500091672</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G33" s="39">
         <f t="shared" si="4"/>
         <v>1.6281986533545127</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H33" s="39">
         <f t="shared" si="4"/>
         <v>2.3751269198001519</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I33" s="39">
         <f t="shared" si="4"/>
         <v>1.8874607732185573</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J33" s="39">
         <f t="shared" si="4"/>
         <v>2.0308638843399445</v>
       </c>
-      <c r="K30">
-        <f>SQRT(K26^2+K27^2+K28^2)</f>
+      <c r="K33" s="39">
+        <f t="shared" si="4"/>
         <v>1.5781680726852823</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="D31" s="23">
-        <f>Messaufbau_Messdaten!J30</f>
-        <v>1.2590000000000001</v>
-      </c>
-      <c r="E31" s="30">
-        <f>Messaufbau_Messdaten!K30</f>
-        <v>1.8940000000000001</v>
-      </c>
-      <c r="F31" s="23">
-        <f>Messaufbau_Messdaten!L30</f>
-        <v>2.3340000000000001</v>
-      </c>
-      <c r="G31" s="30">
-        <f>Messaufbau_Messdaten!M30</f>
-        <v>1.661</v>
-      </c>
-      <c r="H31" s="30">
-        <f>Messaufbau_Messdaten!N30</f>
-        <v>2.399</v>
-      </c>
-      <c r="I31" s="30">
-        <f>Messaufbau_Messdaten!O30</f>
-        <v>1.851</v>
-      </c>
-      <c r="J31" s="30">
-        <f>Messaufbau_Messdaten!P30</f>
-        <v>2.0550000000000002</v>
-      </c>
-      <c r="K31">
-        <f>Messaufbau_Messdaten!Q30</f>
-        <v>1.5740000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="D32" s="39">
-        <f>D31-D30</f>
-        <v>-1.4529286966181054E-2</v>
-      </c>
-      <c r="E32" s="39">
-        <f t="shared" ref="E32:K32" si="5">E31-E30</f>
-        <v>2.2343722141387357E-2</v>
-      </c>
-      <c r="F32" s="39">
-        <f>F31-F30</f>
-        <v>2.6543149990832848E-2</v>
-      </c>
-      <c r="G32" s="40">
+    <row r="34" spans="2:11">
+      <c r="B34" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="39">
+        <f>D33-D32</f>
+        <v>1.4529286966181054E-2</v>
+      </c>
+      <c r="E34" s="39">
+        <f t="shared" ref="E34:K34" si="5">E33-E32</f>
+        <v>-2.2343722141387357E-2</v>
+      </c>
+      <c r="F34" s="39">
         <f t="shared" si="5"/>
-        <v>3.2801346645487284E-2</v>
-      </c>
-      <c r="H32" s="40">
+        <v>-2.6543149990832848E-2</v>
+      </c>
+      <c r="G34" s="39">
         <f t="shared" si="5"/>
-        <v>2.3873080199848129E-2</v>
-      </c>
-      <c r="I32" s="40">
+        <v>-3.2801346645487284E-2</v>
+      </c>
+      <c r="H34" s="39">
         <f t="shared" si="5"/>
-        <v>-3.6460773218557341E-2</v>
-      </c>
-      <c r="J32" s="40">
+        <v>-2.3873080199848129E-2</v>
+      </c>
+      <c r="I34" s="39">
         <f t="shared" si="5"/>
-        <v>2.413611566005569E-2</v>
-      </c>
-      <c r="K32" s="41">
+        <v>3.6460773218557341E-2</v>
+      </c>
+      <c r="J34" s="39">
         <f t="shared" si="5"/>
-        <v>-4.168072685282187E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="4:10">
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
+        <v>-2.413611566005569E-2</v>
+      </c>
+      <c r="K34" s="39">
+        <f t="shared" si="5"/>
+        <v>4.168072685282187E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43">
+        <f>1-D32/D33</f>
+        <v>1.1408679105286201E-2</v>
+      </c>
+      <c r="E35" s="43">
+        <f t="shared" ref="E35:K35" si="6">1-E32/E33</f>
+        <v>-1.1937940959411142E-2</v>
+      </c>
+      <c r="F35" s="43">
+        <f t="shared" si="6"/>
+        <v>-1.1503205353862844E-2</v>
+      </c>
+      <c r="G35" s="43">
+        <f t="shared" si="6"/>
+        <v>-2.0145789076724707E-2</v>
+      </c>
+      <c r="H35" s="43">
+        <f t="shared" si="6"/>
+        <v>-1.0051286102157775E-2</v>
+      </c>
+      <c r="I35" s="43">
+        <f t="shared" si="6"/>
+        <v>1.9317367404877661E-2</v>
+      </c>
+      <c r="J35" s="43">
+        <f t="shared" si="6"/>
+        <v>-1.1884654528631966E-2</v>
+      </c>
+      <c r="K35" s="43">
+        <f t="shared" si="6"/>
+        <v>2.6410828842774459E-3</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A30:K30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -4882,13 +5032,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="K2" s="23"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="23"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" t="s">
@@ -4906,7 +5056,7 @@
       <c r="H4" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="23"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" t="s">
@@ -4927,7 +5077,7 @@
       <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" t="s">
@@ -4945,13 +5095,13 @@
       <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="23"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="K7" s="23"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="K8" s="23"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:16">
       <c r="B9">
@@ -4970,7 +5120,7 @@
         <f>I23</f>
         <v>0.3689905</v>
       </c>
-      <c r="K9" s="23"/>
+      <c r="K9" s="21"/>
       <c r="L9">
         <v>0.18310950000000004</v>
       </c>
@@ -5001,7 +5151,7 @@
         <f>I24</f>
         <v>-0.779254</v>
       </c>
-      <c r="K10" s="23"/>
+      <c r="K10" s="21"/>
       <c r="L10">
         <v>-0.8517944999999999</v>
       </c>
@@ -5029,7 +5179,7 @@
         <f>I25</f>
         <v>0.48534050000000017</v>
       </c>
-      <c r="K11" s="23"/>
+      <c r="K11" s="21"/>
       <c r="L11">
         <v>0.41280000000000017</v>
       </c>
@@ -5041,10 +5191,10 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="K12" s="23"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="K13" s="23"/>
+      <c r="K13" s="21"/>
       <c r="P13">
         <f>MDETERM(L9:N11)</f>
         <v>0.11279545200000003</v>
@@ -5054,7 +5204,7 @@
       <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="23"/>
+      <c r="K14" s="21"/>
       <c r="L14">
         <v>0.77</v>
       </c>
@@ -5077,7 +5227,7 @@
         <f>MDETERM(B9:D11)</f>
         <v>0.47432000000000002</v>
       </c>
-      <c r="K15" s="23"/>
+      <c r="K15" s="21"/>
       <c r="L15">
         <v>0</v>
       </c>
@@ -5099,7 +5249,7 @@
         <f t="shared" ref="D16:D17" si="0">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
         <v>-1.0120181818181817</v>
       </c>
-      <c r="K16" s="23"/>
+      <c r="K16" s="21"/>
       <c r="L16">
         <v>0</v>
       </c>
@@ -5118,14 +5268,14 @@
         <f t="shared" si="0"/>
         <v>0.60667562500000027</v>
       </c>
-      <c r="K17" s="23"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="2:16">
       <c r="J18">
         <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
         <v>0.3689905</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="21"/>
       <c r="P18">
         <f>MDETERM(L14:N16)</f>
         <v>-0.52470541199999998</v>
@@ -5136,7 +5286,7 @@
         <f t="shared" ref="J19:J20" si="1">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
         <v>-0.77925399999999989</v>
       </c>
-      <c r="K19" s="23"/>
+      <c r="K19" s="21"/>
       <c r="L19">
         <v>0.77</v>
       </c>
@@ -5152,7 +5302,7 @@
         <f t="shared" si="1"/>
         <v>0.48534050000000023</v>
       </c>
-      <c r="K20" s="23"/>
+      <c r="K20" s="21"/>
       <c r="L20">
         <v>0</v>
       </c>
@@ -5173,7 +5323,7 @@
       <c r="D21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K21" s="23"/>
+      <c r="K21" s="21"/>
       <c r="L21">
         <v>0</v>
       </c>
@@ -5185,7 +5335,7 @@
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="K22" s="23"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" t="s">
@@ -5216,7 +5366,7 @@
         <f>(E23-F23+G23)/2</f>
         <v>0.3689905</v>
       </c>
-      <c r="K23" s="23"/>
+      <c r="K23" s="21"/>
       <c r="P23">
         <f>MDETERM(L19:N21)</f>
         <v>0.2447491200000001</v>
@@ -5251,7 +5401,7 @@
         <f t="shared" ref="I24:I25" si="2">(E24-F24+G24)/2</f>
         <v>-0.779254</v>
       </c>
-      <c r="K24" s="23"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" t="s">
@@ -5282,16 +5432,16 @@
         <f t="shared" si="2"/>
         <v>0.48534050000000017</v>
       </c>
-      <c r="K25" s="23"/>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="K26" s="23"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="K27" s="23"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="K28" s="23"/>
+      <c r="K28" s="21"/>
       <c r="L28" t="s">
         <v>59</v>
       </c>
@@ -5310,7 +5460,7 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="K29" s="23"/>
+      <c r="K29" s="21"/>
       <c r="L29" t="s">
         <v>60</v>
       </c>
@@ -5329,7 +5479,7 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="K30" s="23"/>
+      <c r="K30" s="21"/>
       <c r="L30" t="s">
         <v>61</v>
       </c>
@@ -5348,52 +5498,52 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="K31" s="23"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="K32" s="23"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="K33" s="23"/>
+      <c r="K33" s="21"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="19">
+      <c r="C34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="17">
         <f>D15+D29</f>
         <v>0.47920844155844156</v>
       </c>
-      <c r="K34" s="23"/>
+      <c r="K34" s="21"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="19">
+      <c r="C35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="17">
         <f>D16+D30</f>
         <v>-1.0120181818181817</v>
       </c>
-      <c r="K35" s="23"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="19">
+      <c r="C36" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="17">
         <f>D17+D31</f>
         <v>0.60667562500000027</v>
       </c>
-      <c r="K36" s="23"/>
+      <c r="K36" s="21"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40">
@@ -5739,37 +5889,37 @@
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="19">
+      <c r="C34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="17">
         <f>D15+D29</f>
         <v>-0.77466753246753273</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="19">
+      <c r="C35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="17">
         <f>D16+D30</f>
         <v>-1.04461038961039</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="19">
+      <c r="C36" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="17">
         <f>D17+D31</f>
         <v>1.3460225000000001</v>
       </c>
@@ -6103,37 +6253,37 @@
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="19">
+      <c r="C34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="17">
         <f>D15+D29</f>
         <v>1.521121428571429</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="19">
+      <c r="C35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="17">
         <f>D16+D30</f>
         <v>-1.052836363636364</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="19">
+      <c r="C36" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="17">
         <f>D17+D31</f>
         <v>1.3791600000000004</v>
       </c>
@@ -6467,37 +6617,37 @@
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="19">
+      <c r="C34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="17">
         <f>D15+D29</f>
         <v>-0.92363896103896137</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="19">
+      <c r="C35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="17">
         <f>D16+D30</f>
         <v>-0.19735259740259795</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="19">
+      <c r="C36" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="17">
         <f>D17+D31</f>
         <v>1.3262631249999999</v>
       </c>
@@ -6831,37 +6981,37 @@
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="19">
+      <c r="C34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="17">
         <f>D15+D29</f>
         <v>1.9213116883116885</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="19">
+      <c r="C35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="17">
         <f>D16+D30</f>
         <v>3.1169480519479917E-2</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="19">
+      <c r="C36" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="17">
         <f>D17+D31</f>
         <v>1.3960006250000003</v>
       </c>

--- a/measurements/20130516_transformation/Koordinatentransformation.xlsx
+++ b/measurements/20130516_transformation/Koordinatentransformation.xlsx
@@ -2,37 +2,151 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="22695" windowHeight="12705"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="22695" windowHeight="12705" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Messaufbau_Messdaten" sheetId="1" r:id="rId1"/>
-    <sheet name="Ergebnisse" sheetId="13" r:id="rId2"/>
-    <sheet name="Modell+Rechnung" sheetId="4" r:id="rId3"/>
-    <sheet name="Alle" sheetId="14" r:id="rId4"/>
-    <sheet name="RechnungA1" sheetId="5" r:id="rId5"/>
-    <sheet name="RechnungA2" sheetId="6" r:id="rId6"/>
-    <sheet name="RechnungA3" sheetId="7" r:id="rId7"/>
-    <sheet name="RechnungA4" sheetId="8" r:id="rId8"/>
-    <sheet name="RechnungA5" sheetId="9" r:id="rId9"/>
-    <sheet name="RechnungA6" sheetId="10" r:id="rId10"/>
-    <sheet name="RechnungA7" sheetId="11" r:id="rId11"/>
-    <sheet name="RechnungA8" sheetId="12" r:id="rId12"/>
-    <sheet name="testing_ground" sheetId="3" r:id="rId13"/>
+    <sheet name="num.-Neues-Modell" sheetId="18" r:id="rId2"/>
+    <sheet name="numerisch" sheetId="15" r:id="rId3"/>
+    <sheet name="analytisch" sheetId="14" r:id="rId4"/>
+    <sheet name="Ergebnisse" sheetId="13" r:id="rId5"/>
+    <sheet name="Modell+Rechnung" sheetId="4" r:id="rId6"/>
+    <sheet name="RechnungA1" sheetId="5" r:id="rId7"/>
+    <sheet name="RechnungA2" sheetId="6" r:id="rId8"/>
+    <sheet name="RechnungA3" sheetId="7" r:id="rId9"/>
+    <sheet name="RechnungA4" sheetId="8" r:id="rId10"/>
+    <sheet name="RechnungA5" sheetId="9" r:id="rId11"/>
+    <sheet name="RechnungA6" sheetId="10" r:id="rId12"/>
+    <sheet name="RechnungA7" sheetId="11" r:id="rId13"/>
+    <sheet name="RechnungA8" sheetId="12" r:id="rId14"/>
+    <sheet name="testing_ground" sheetId="3" r:id="rId15"/>
   </sheets>
   <definedNames>
+    <definedName name="A_1">'num.-Neues-Modell'!$E$8</definedName>
+    <definedName name="A_2">'num.-Neues-Modell'!$F$8</definedName>
     <definedName name="d_10">Messaufbau_Messdaten!$I$9</definedName>
     <definedName name="d_20">Messaufbau_Messdaten!$I$10</definedName>
     <definedName name="d_30">Messaufbau_Messdaten!$I$11</definedName>
     <definedName name="OFFSET">Messaufbau_Messdaten!$I$4</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'num.-Neues-Modell'!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">numerisch!$K$18:$K$20</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">numerisch!$K$20</definedName>
+    <definedName name="solver_lhs10" localSheetId="2" hidden="1">numerisch!$E$18</definedName>
+    <definedName name="solver_lhs11" localSheetId="2" hidden="1">numerisch!$F$18</definedName>
+    <definedName name="solver_lhs12" localSheetId="2" hidden="1">numerisch!$G$18</definedName>
+    <definedName name="solver_lhs13" localSheetId="2" hidden="1">numerisch!$H$18</definedName>
+    <definedName name="solver_lhs14" localSheetId="2" hidden="1">numerisch!$ID$18</definedName>
+    <definedName name="solver_lhs15" localSheetId="2" hidden="1">numerisch!$J$18</definedName>
+    <definedName name="solver_lhs16" localSheetId="2" hidden="1">numerisch!$K$18</definedName>
+    <definedName name="solver_lhs17" localSheetId="2" hidden="1">numerisch!$D$18</definedName>
+    <definedName name="solver_lhs18" localSheetId="2" hidden="1">numerisch!$E$18</definedName>
+    <definedName name="solver_lhs19" localSheetId="2" hidden="1">numerisch!$F$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">numerisch!$E$18</definedName>
+    <definedName name="solver_lhs20" localSheetId="2" hidden="1">numerisch!$G$18</definedName>
+    <definedName name="solver_lhs21" localSheetId="2" hidden="1">numerisch!$H$18</definedName>
+    <definedName name="solver_lhs22" localSheetId="2" hidden="1">numerisch!$ID$18</definedName>
+    <definedName name="solver_lhs23" localSheetId="2" hidden="1">numerisch!$J$18</definedName>
+    <definedName name="solver_lhs24" localSheetId="2" hidden="1">numerisch!$K$18</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">numerisch!$F$18</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">numerisch!$G$18</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">numerisch!$H$18</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">numerisch!$ID$18</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">numerisch!$J$18</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">numerisch!$K$18</definedName>
+    <definedName name="solver_lhs9" localSheetId="2" hidden="1">numerisch!$D$18</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'num.-Neues-Modell'!$K$34</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">numerisch!$K$14</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel10" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel11" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel12" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel13" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel14" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel15" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel16" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel17" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel18" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel19" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel20" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel21" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel22" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel23" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel24" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs10" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs11" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs12" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs13" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs14" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs15" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs16" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs17" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs18" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs19" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs20" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs21" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs22" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs23" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs24" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs9" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.05</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.05</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="THETA_0">'num.-Neues-Modell'!$H$11</definedName>
+    <definedName name="THETA_1">'num.-Neues-Modell'!$H$8</definedName>
+    <definedName name="THETA_2">'num.-Neues-Modell'!$H$9</definedName>
+    <definedName name="THETA_3">'num.-Neues-Modell'!$H$10</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="124">
   <si>
     <t>(0,0)</t>
   </si>
@@ -269,6 +383,141 @@
   </si>
   <si>
     <t>1/2[r_0^2-r_k^2+d_k0^2]</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>a_1</t>
+  </si>
+  <si>
+    <t>a_2</t>
+  </si>
+  <si>
+    <t>a_0k</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>a_3k0</t>
+  </si>
+  <si>
+    <t>Theta_k</t>
+  </si>
+  <si>
+    <t>Konstanten</t>
+  </si>
+  <si>
+    <t>n_0</t>
+  </si>
+  <si>
+    <t>n_1</t>
+  </si>
+  <si>
+    <t>n_2</t>
+  </si>
+  <si>
+    <t>n_3</t>
+  </si>
+  <si>
+    <t>Variabel</t>
+  </si>
+  <si>
+    <t>TermB_1</t>
+  </si>
+  <si>
+    <t>TermA_1</t>
+  </si>
+  <si>
+    <t>TermA_2</t>
+  </si>
+  <si>
+    <t>TermA_3</t>
+  </si>
+  <si>
+    <t>TermB_3</t>
+  </si>
+  <si>
+    <t>TermB_2</t>
+  </si>
+  <si>
+    <t>predicted_c_10</t>
+  </si>
+  <si>
+    <t>predicted_c_20</t>
+  </si>
+  <si>
+    <t>predicted_c_30</t>
+  </si>
+  <si>
+    <t>error^2</t>
+  </si>
+  <si>
+    <t>For Debugging only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_0 </t>
+  </si>
+  <si>
+    <t>[m/s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_mess </t>
+  </si>
+  <si>
+    <t>[1/s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda </t>
+  </si>
+  <si>
+    <t>[m]</t>
+  </si>
+  <si>
+    <t>Der Solver variiert hier</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Fehler^2</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Lineares Modell für die Koordinatenberechnung</t>
+  </si>
+  <si>
+    <t>c_10'</t>
+  </si>
+  <si>
+    <t>c_20'</t>
+  </si>
+  <si>
+    <t>c_30'</t>
+  </si>
+  <si>
+    <t>Vorhersage vom Solver</t>
+  </si>
+  <si>
+    <t>x_k</t>
+  </si>
+  <si>
+    <t>b_k</t>
+  </si>
+  <si>
+    <t>y_k</t>
+  </si>
+  <si>
+    <t>z_k</t>
   </si>
 </sst>
 </file>
@@ -278,7 +527,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,8 +566,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,8 +622,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -438,11 +753,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -484,37 +865,107 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1493,9 +1944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -1506,12 +1958,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="2:10">
@@ -1553,10 +2005,10 @@
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="74"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="5"/>
@@ -1669,12 +2121,12 @@
       </c>
     </row>
     <row r="19" spans="1:27">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
       <c r="G19" s="7"/>
       <c r="I19" s="19">
         <v>1</v>
@@ -2218,6 +2670,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Tabelle10"/>
   <dimension ref="A3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2300,7 +2753,7 @@
       </c>
       <c r="H9">
         <f>I23</f>
-        <v>-0.42808150000000034</v>
+        <v>-0.71120200000000022</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2321,7 +2774,7 @@
       </c>
       <c r="H10">
         <f>I24</f>
-        <v>0.84062999999999966</v>
+        <v>-0.15196150000000042</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2339,7 +2792,7 @@
       </c>
       <c r="H11">
         <f>I25</f>
-        <v>1.1486505</v>
+        <v>1.0610104999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2353,7 +2806,7 @@
       </c>
       <c r="D15">
         <f>INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A1))</f>
-        <v>-0.55595000000000039</v>
+        <v>-0.92363896103896137</v>
       </c>
       <c r="J15">
         <f>MDETERM(B9:D11)</f>
@@ -2369,7 +2822,7 @@
       </c>
       <c r="D16">
         <f t="shared" ref="D16:D17" si="0">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
-        <v>1.0917272727272722</v>
+        <v>-0.19735259740259795</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -2378,25 +2831,25 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>1.4358131250000001</v>
+        <v>1.3262631249999999</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="J18">
         <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
-        <v>-0.42808150000000028</v>
+        <v>-0.71120200000000022</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="J19">
         <f t="shared" ref="J19:J20" si="1">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
-        <v>0.84062999999999966</v>
+        <v>-0.15196150000000042</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>1.1486505000000002</v>
+        <v>1.0610104999999999</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="18.75">
@@ -2421,12 +2874,12 @@
         <v>0.5</v>
       </c>
       <c r="E23">
-        <f>(Messaufbau_Messdaten!$O$30^2)</f>
-        <v>3.4262009999999998</v>
+        <f>(Messaufbau_Messdaten!$M$30^2)</f>
+        <v>2.758921</v>
       </c>
       <c r="F23">
-        <f>(Messaufbau_Messdaten!O27^2 )</f>
-        <v>4.8752640000000005</v>
+        <f>(Messaufbau_Messdaten!M27^2 )</f>
+        <v>4.7742250000000004</v>
       </c>
       <c r="G23">
         <f>(Messaufbau_Messdaten!$I$35^2)</f>
@@ -2437,7 +2890,7 @@
       </c>
       <c r="I23">
         <f>D23*(E23-F23+G23)</f>
-        <v>-0.42808150000000034</v>
+        <v>-0.71120200000000022</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -2451,12 +2904,12 @@
         <v>0.5</v>
       </c>
       <c r="E24">
-        <f>(Messaufbau_Messdaten!$O$30^2)</f>
-        <v>3.4262009999999998</v>
+        <f>(Messaufbau_Messdaten!$M$30^2)</f>
+        <v>2.758921</v>
       </c>
       <c r="F24">
-        <f>(Messaufbau_Messdaten!O28^2 )</f>
-        <v>2.3378410000000005</v>
+        <f>(Messaufbau_Messdaten!M28^2 )</f>
+        <v>3.6557440000000008</v>
       </c>
       <c r="G24">
         <f>(Messaufbau_Messdaten!$I$41^2)</f>
@@ -2467,7 +2920,7 @@
       </c>
       <c r="I24">
         <f t="shared" ref="I24:I25" si="2">D24*(E24-F24+G24)</f>
-        <v>0.84062999999999966</v>
+        <v>-0.15196150000000042</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -2481,12 +2934,12 @@
         <v>0.5</v>
       </c>
       <c r="E25">
-        <f>(Messaufbau_Messdaten!$O$30^2)</f>
-        <v>3.4262009999999998</v>
+        <f>(Messaufbau_Messdaten!$M$30^2)</f>
+        <v>2.758921</v>
       </c>
       <c r="F25">
-        <f>(Messaufbau_Messdaten!O29^2 )</f>
-        <v>1.7689000000000001</v>
+        <f>(Messaufbau_Messdaten!M29^2 )</f>
+        <v>1.2769000000000004</v>
       </c>
       <c r="G25">
         <f>(Messaufbau_Messdaten!$I$43^2)</f>
@@ -2497,7 +2950,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>1.1486505</v>
+        <v>1.0610104999999999</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -2542,7 +2995,7 @@
       </c>
       <c r="D34" s="17">
         <f>D15+D29</f>
-        <v>-0.55595000000000039</v>
+        <v>-0.92363896103896137</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -2554,7 +3007,7 @@
       </c>
       <c r="D35" s="17">
         <f>D16+D30</f>
-        <v>1.0917272727272722</v>
+        <v>-0.19735259740259795</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -2566,13 +3019,13 @@
       </c>
       <c r="D36" s="17">
         <f>D17+D31</f>
-        <v>1.4358131250000001</v>
+        <v>1.3262631249999999</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40">
         <f>SQRT(D34^2+D35^2+D36^2)</f>
-        <v>1.8874607732185573</v>
+        <v>1.6281986533545127</v>
       </c>
     </row>
   </sheetData>
@@ -2582,6 +3035,372 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Tabelle11"/>
+  <dimension ref="A3:J40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9">
+        <v>0.77</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <f>I23</f>
+        <v>1.4794100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.77</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f>I24</f>
+        <v>2.4000499999999536E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <f>I25</f>
+        <v>1.1168005000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <f>INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A1))</f>
+        <v>1.9213116883116885</v>
+      </c>
+      <c r="J15">
+        <f>MDETERM(B9:D11)</f>
+        <v>0.47432000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D17" si="0">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
+        <v>3.1169480519479917E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.3960006250000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="J18">
+        <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
+        <v>1.4794100000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="J19">
+        <f t="shared" ref="J19:J20" si="1">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
+        <v>2.4000499999999536E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.1168005000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="18.75">
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <f>(Messaufbau_Messdaten!$N$30^2)</f>
+        <v>5.7552010000000005</v>
+      </c>
+      <c r="F23">
+        <f>(Messaufbau_Messdaten!N27^2 )</f>
+        <v>3.389281</v>
+      </c>
+      <c r="G23">
+        <f>(Messaufbau_Messdaten!$I$35^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <f>D23*(E23-F23+G23)</f>
+        <v>1.4794100000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <f>(Messaufbau_Messdaten!$N$30^2)</f>
+        <v>5.7552010000000005</v>
+      </c>
+      <c r="F24">
+        <f>(Messaufbau_Messdaten!N28^2 )</f>
+        <v>6.3001000000000014</v>
+      </c>
+      <c r="G24">
+        <f>(Messaufbau_Messdaten!$I$41^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I25" si="2">D24*(E24-F24+G24)</f>
+        <v>2.4000499999999536E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <f>(Messaufbau_Messdaten!$N$30^2)</f>
+        <v>5.7552010000000005</v>
+      </c>
+      <c r="F25">
+        <f>(Messaufbau_Messdaten!N29^2 )</f>
+        <v>4.1616</v>
+      </c>
+      <c r="G25">
+        <f>(Messaufbau_Messdaten!$I$43^2)</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1.1168005000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="17">
+        <f>D15+D29</f>
+        <v>1.9213116883116885</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="17">
+        <f>D16+D30</f>
+        <v>3.1169480519479917E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="17">
+        <f>D17+D31</f>
+        <v>1.3960006250000003</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <f>SQRT(D34^2+D35^2+D36^2)</f>
+        <v>2.3751269198001519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Tabelle12"/>
   <dimension ref="A3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2664,7 +3483,7 @@
       </c>
       <c r="H9">
         <f>I23</f>
-        <v>0.81841799999999998</v>
+        <v>-0.42808150000000034</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2685,7 +3504,7 @@
       </c>
       <c r="H10">
         <f>I24</f>
-        <v>0.82554200000000011</v>
+        <v>0.84062999999999966</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2703,7 +3522,7 @@
       </c>
       <c r="H11">
         <f>I25</f>
-        <v>1.0867125000000002</v>
+        <v>1.1486505</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2717,7 +3536,7 @@
       </c>
       <c r="D15">
         <f>INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A1))</f>
-        <v>1.0628805194805195</v>
+        <v>-0.55595000000000039</v>
       </c>
       <c r="J15">
         <f>MDETERM(B9:D11)</f>
@@ -2733,7 +3552,7 @@
       </c>
       <c r="D16">
         <f t="shared" ref="D16:D17" si="0">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
-        <v>1.0721324675324677</v>
+        <v>1.0917272727272722</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -2742,25 +3561,25 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>1.3583906250000002</v>
+        <v>1.4358131250000001</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="J18">
         <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
-        <v>0.81841800000000009</v>
+        <v>-0.42808150000000028</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="J19">
         <f t="shared" ref="J19:J20" si="1">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
-        <v>0.82554200000000011</v>
+        <v>0.84062999999999966</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>1.0867125000000002</v>
+        <v>1.1486505000000002</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="18.75">
@@ -2785,12 +3604,12 @@
         <v>0.5</v>
       </c>
       <c r="E23">
-        <f>(Messaufbau_Messdaten!$P$30^2)</f>
-        <v>4.2230250000000007</v>
+        <f>(Messaufbau_Messdaten!$O$30^2)</f>
+        <v>3.4262009999999998</v>
       </c>
       <c r="F23">
-        <f>(Messaufbau_Messdaten!P27^2 )</f>
-        <v>3.1790890000000007</v>
+        <f>(Messaufbau_Messdaten!O27^2 )</f>
+        <v>4.8752640000000005</v>
       </c>
       <c r="G23">
         <f>(Messaufbau_Messdaten!$I$35^2)</f>
@@ -2801,7 +3620,7 @@
       </c>
       <c r="I23">
         <f>D23*(E23-F23+G23)</f>
-        <v>0.81841799999999998</v>
+        <v>-0.42808150000000034</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -2815,12 +3634,12 @@
         <v>0.5</v>
       </c>
       <c r="E24">
-        <f>(Messaufbau_Messdaten!$P$30^2)</f>
-        <v>4.2230250000000007</v>
+        <f>(Messaufbau_Messdaten!$O$30^2)</f>
+        <v>3.4262009999999998</v>
       </c>
       <c r="F24">
-        <f>(Messaufbau_Messdaten!P28^2 )</f>
-        <v>3.1648410000000005</v>
+        <f>(Messaufbau_Messdaten!O28^2 )</f>
+        <v>2.3378410000000005</v>
       </c>
       <c r="G24">
         <f>(Messaufbau_Messdaten!$I$41^2)</f>
@@ -2831,7 +3650,7 @@
       </c>
       <c r="I24">
         <f t="shared" ref="I24:I25" si="2">D24*(E24-F24+G24)</f>
-        <v>0.82554200000000011</v>
+        <v>0.84062999999999966</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -2845,12 +3664,12 @@
         <v>0.5</v>
       </c>
       <c r="E25">
-        <f>(Messaufbau_Messdaten!$P$30^2)</f>
-        <v>4.2230250000000007</v>
+        <f>(Messaufbau_Messdaten!$O$30^2)</f>
+        <v>3.4262009999999998</v>
       </c>
       <c r="F25">
-        <f>(Messaufbau_Messdaten!P29^2 )</f>
-        <v>2.6896000000000004</v>
+        <f>(Messaufbau_Messdaten!O29^2 )</f>
+        <v>1.7689000000000001</v>
       </c>
       <c r="G25">
         <f>(Messaufbau_Messdaten!$I$43^2)</f>
@@ -2861,7 +3680,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>1.0867125000000002</v>
+        <v>1.1486505</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -2906,7 +3725,7 @@
       </c>
       <c r="D34" s="17">
         <f>D15+D29</f>
-        <v>1.0628805194805195</v>
+        <v>-0.55595000000000039</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -2918,7 +3737,7 @@
       </c>
       <c r="D35" s="17">
         <f>D16+D30</f>
-        <v>1.0721324675324677</v>
+        <v>1.0917272727272722</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -2930,13 +3749,13 @@
       </c>
       <c r="D36" s="17">
         <f>D17+D31</f>
-        <v>1.3583906250000002</v>
+        <v>1.4358131250000001</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40">
         <f>SQRT(D34^2+D35^2+D36^2)</f>
-        <v>2.0308638843399445</v>
+        <v>1.8874607732185573</v>
       </c>
     </row>
   </sheetData>
@@ -2944,8 +3763,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Tabelle13"/>
   <dimension ref="A3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3028,7 +3848,7 @@
       </c>
       <c r="H9">
         <f>I23</f>
-        <v>0.34938800000000014</v>
+        <v>0.81841799999999998</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3049,7 +3869,7 @@
       </c>
       <c r="H10">
         <f>I24</f>
-        <v>1.0431560000000002</v>
+        <v>0.82554200000000011</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3067,7 +3887,7 @@
       </c>
       <c r="H11">
         <f>I25</f>
-        <v>0.53628799999999988</v>
+        <v>1.0867125000000002</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3081,7 +3901,7 @@
       </c>
       <c r="D15">
         <f>INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A1))</f>
-        <v>0.45375064935064952</v>
+        <v>1.0628805194805195</v>
       </c>
       <c r="J15">
         <f>MDETERM(B9:D11)</f>
@@ -3097,7 +3917,7 @@
       </c>
       <c r="D16">
         <f t="shared" ref="D16:D17" si="0">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
-        <v>1.3547480519480521</v>
+        <v>1.0721324675324677</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -3106,25 +3926,25 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0.67035999999999984</v>
+        <v>1.3583906250000002</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="J18">
         <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
-        <v>0.34938800000000014</v>
+        <v>0.81841800000000009</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="J19">
         <f t="shared" ref="J19:J20" si="1">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
-        <v>1.0431560000000002</v>
+        <v>0.82554200000000011</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>0.53628799999999988</v>
+        <v>1.0867125000000002</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="18.75">
@@ -3149,12 +3969,12 @@
         <v>0.5</v>
       </c>
       <c r="E23">
-        <f>(Messaufbau_Messdaten!$Q$30^2)</f>
-        <v>2.4774760000000002</v>
+        <f>(Messaufbau_Messdaten!$P$30^2)</f>
+        <v>4.2230250000000007</v>
       </c>
       <c r="F23">
-        <f>(Messaufbau_Messdaten!Q27^2 )</f>
-        <v>2.3715999999999999</v>
+        <f>(Messaufbau_Messdaten!P27^2 )</f>
+        <v>3.1790890000000007</v>
       </c>
       <c r="G23">
         <f>(Messaufbau_Messdaten!$I$35^2)</f>
@@ -3165,7 +3985,7 @@
       </c>
       <c r="I23">
         <f>D23*(E23-F23+G23)</f>
-        <v>0.34938800000000014</v>
+        <v>0.81841799999999998</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -3179,12 +3999,12 @@
         <v>0.5</v>
       </c>
       <c r="E24">
-        <f>(Messaufbau_Messdaten!$Q$30^2)</f>
-        <v>2.4774760000000002</v>
+        <f>(Messaufbau_Messdaten!$P$30^2)</f>
+        <v>4.2230250000000007</v>
       </c>
       <c r="F24">
-        <f>(Messaufbau_Messdaten!Q28^2 )</f>
-        <v>0.98406399999999994</v>
+        <f>(Messaufbau_Messdaten!P28^2 )</f>
+        <v>3.1648410000000005</v>
       </c>
       <c r="G24">
         <f>(Messaufbau_Messdaten!$I$41^2)</f>
@@ -3195,7 +4015,7 @@
       </c>
       <c r="I24">
         <f t="shared" ref="I24:I25" si="2">D24*(E24-F24+G24)</f>
-        <v>1.0431560000000002</v>
+        <v>0.82554200000000011</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -3209,12 +4029,12 @@
         <v>0.5</v>
       </c>
       <c r="E25">
-        <f>(Messaufbau_Messdaten!$Q$30^2)</f>
-        <v>2.4774760000000002</v>
+        <f>(Messaufbau_Messdaten!$P$30^2)</f>
+        <v>4.2230250000000007</v>
       </c>
       <c r="F25">
-        <f>(Messaufbau_Messdaten!Q29^2 )</f>
-        <v>2.0449000000000006</v>
+        <f>(Messaufbau_Messdaten!P29^2 )</f>
+        <v>2.6896000000000004</v>
       </c>
       <c r="G25">
         <f>(Messaufbau_Messdaten!$I$43^2)</f>
@@ -3225,7 +4045,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>0.53628799999999988</v>
+        <v>1.0867125000000002</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -3270,7 +4090,7 @@
       </c>
       <c r="D34" s="17">
         <f>D15+D29</f>
-        <v>0.45375064935064952</v>
+        <v>1.0628805194805195</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -3282,7 +4102,7 @@
       </c>
       <c r="D35" s="17">
         <f>D16+D30</f>
-        <v>1.3547480519480521</v>
+        <v>1.0721324675324677</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -3294,13 +4114,13 @@
       </c>
       <c r="D36" s="17">
         <f>D17+D31</f>
-        <v>0.67035999999999984</v>
+        <v>1.3583906250000002</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40">
         <f>SQRT(D34^2+D35^2+D36^2)</f>
-        <v>1.5781680726852823</v>
+        <v>2.0308638843399445</v>
       </c>
     </row>
   </sheetData>
@@ -3308,8 +4128,374 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Tabelle14"/>
+  <dimension ref="A3:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9">
+        <v>0.77</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <f>I23</f>
+        <v>0.34938800000000014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.77</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f>I24</f>
+        <v>1.0431560000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <f>I25</f>
+        <v>0.53628799999999988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <f>INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A1))</f>
+        <v>0.45375064935064952</v>
+      </c>
+      <c r="J15">
+        <f>MDETERM(B9:D11)</f>
+        <v>0.47432000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D17" si="0">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
+        <v>1.3547480519480521</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.67035999999999984</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="J18">
+        <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
+        <v>0.34938800000000014</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="J19">
+        <f t="shared" ref="J19:J20" si="1">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
+        <v>1.0431560000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0.53628799999999988</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="18.75">
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <f>(Messaufbau_Messdaten!$Q$30^2)</f>
+        <v>2.4774760000000002</v>
+      </c>
+      <c r="F23">
+        <f>(Messaufbau_Messdaten!Q27^2 )</f>
+        <v>2.3715999999999999</v>
+      </c>
+      <c r="G23">
+        <f>(Messaufbau_Messdaten!$I$35^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <f>D23*(E23-F23+G23)</f>
+        <v>0.34938800000000014</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <f>(Messaufbau_Messdaten!$Q$30^2)</f>
+        <v>2.4774760000000002</v>
+      </c>
+      <c r="F24">
+        <f>(Messaufbau_Messdaten!Q28^2 )</f>
+        <v>0.98406399999999994</v>
+      </c>
+      <c r="G24">
+        <f>(Messaufbau_Messdaten!$I$41^2)</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I25" si="2">D24*(E24-F24+G24)</f>
+        <v>1.0431560000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <f>(Messaufbau_Messdaten!$Q$30^2)</f>
+        <v>2.4774760000000002</v>
+      </c>
+      <c r="F25">
+        <f>(Messaufbau_Messdaten!Q29^2 )</f>
+        <v>2.0449000000000006</v>
+      </c>
+      <c r="G25">
+        <f>(Messaufbau_Messdaten!$I$43^2)</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0.53628799999999988</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="17">
+        <f>D15+D29</f>
+        <v>0.45375064935064952</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="17">
+        <f>D16+D30</f>
+        <v>1.3547480519480521</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="17">
+        <f>D17+D31</f>
+        <v>0.67035999999999984</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <f>SQRT(D34^2+D35^2+D36^2)</f>
+        <v>1.5781680726852823</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Tabelle15"/>
   <dimension ref="B4:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3654,6 +4840,3685 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Tabelle2"/>
+  <dimension ref="A2:P65"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:15">
+      <c r="A2" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="46">
+        <v>300000000</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="50">
+        <v>866300000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="2">
+        <f>$C$3/$C$4</f>
+        <v>0.34630035784370311</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="49"/>
+      <c r="C6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="21"/>
+      <c r="B7" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="51"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="57">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <f>0.5*Messaufbau_Messdaten!$I$35</f>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <f>$C$5^2/8</f>
+        <v>1.4990492230334603E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <f>E$8/PI()</f>
+        <v>4.7716218756768064E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <f>A_1*(1/(2*PI())^2)*$H$11^2-$H8^2</f>
+        <v>-1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="55">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <f>0.5*Messaufbau_Messdaten!$I$41</f>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="2">
+        <f>A_1*(1/(2*PI())^2)*$H$11^2-$H9^2</f>
+        <v>-4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="55">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <f>0.5*Messaufbau_Messdaten!$I$43</f>
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="2">
+        <f>A_1*(1/(2*PI())^2)*$H$11^2-$H10^2</f>
+        <v>-36</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="55">
+        <v>0</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="52"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12">
+        <v>3</v>
+      </c>
+      <c r="G15" s="12">
+        <v>4</v>
+      </c>
+      <c r="H15" s="12">
+        <v>5</v>
+      </c>
+      <c r="I15" s="12">
+        <v>6</v>
+      </c>
+      <c r="J15" s="12">
+        <v>7</v>
+      </c>
+      <c r="K15" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="M16" s="76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="M17" s="76"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="M18" s="76"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="B19" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="M19" s="76"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="39">
+        <v>0.47920820717399498</v>
+      </c>
+      <c r="E20" s="39">
+        <v>-0.7746678940563656</v>
+      </c>
+      <c r="F20" s="39">
+        <v>1.5211207734350594</v>
+      </c>
+      <c r="G20" s="39">
+        <v>-0.92363913249376062</v>
+      </c>
+      <c r="H20" s="39">
+        <v>1.9213108140141657</v>
+      </c>
+      <c r="I20" s="39">
+        <v>-0.5559502324740031</v>
+      </c>
+      <c r="J20" s="39">
+        <v>1.0628800131422067</v>
+      </c>
+      <c r="K20" s="39">
+        <v>0.45375042022567252</v>
+      </c>
+      <c r="M20" s="76"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="39">
+        <v>-1.0120186360932779</v>
+      </c>
+      <c r="E21" s="39">
+        <v>-1.0446109004008435</v>
+      </c>
+      <c r="F21" s="39">
+        <v>-1.0528368912562995</v>
+      </c>
+      <c r="G21" s="39">
+        <v>-0.19735288075445023</v>
+      </c>
+      <c r="H21" s="39">
+        <v>3.1169431027432318E-2</v>
+      </c>
+      <c r="I21" s="39">
+        <v>1.0917266627962099</v>
+      </c>
+      <c r="J21" s="39">
+        <v>1.0721319549838608</v>
+      </c>
+      <c r="K21" s="39">
+        <v>1.3547475145351064</v>
+      </c>
+      <c r="M21" s="76"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="39">
+        <v>0.60667550022108041</v>
+      </c>
+      <c r="E22" s="39">
+        <v>1.346022304408635</v>
+      </c>
+      <c r="F22" s="39">
+        <v>1.3791594930279794</v>
+      </c>
+      <c r="G22" s="39">
+        <v>1.3262631202056154</v>
+      </c>
+      <c r="H22" s="39">
+        <v>1.3960002720243607</v>
+      </c>
+      <c r="I22" s="39">
+        <v>1.4358129552779264</v>
+      </c>
+      <c r="J22" s="39">
+        <v>1.3583903887765414</v>
+      </c>
+      <c r="K22" s="39">
+        <v>0.67035998451614454</v>
+      </c>
+      <c r="M22" s="76"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="21"/>
+      <c r="B25" s="31">
+        <v>0.77</v>
+      </c>
+      <c r="C25" s="31">
+        <v>0</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="21"/>
+      <c r="B26" s="31">
+        <v>0</v>
+      </c>
+      <c r="C26" s="31">
+        <v>0.77</v>
+      </c>
+      <c r="D26" s="23">
+        <v>0</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="21"/>
+      <c r="B27" s="31">
+        <v>0</v>
+      </c>
+      <c r="C27" s="31">
+        <v>0</v>
+      </c>
+      <c r="D27" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12">
+        <v>2</v>
+      </c>
+      <c r="F30" s="12">
+        <v>3</v>
+      </c>
+      <c r="G30" s="12">
+        <v>4</v>
+      </c>
+      <c r="H30" s="12">
+        <v>5</v>
+      </c>
+      <c r="I30" s="12">
+        <v>6</v>
+      </c>
+      <c r="J30" s="12">
+        <v>7</v>
+      </c>
+      <c r="K30" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="40">
+        <f t="shared" ref="D31:K33" si="0">INDEX(MMULT($B$25:$D$27,D$20:D$22),ROW($A1))</f>
+        <v>0.36899031952397615</v>
+      </c>
+      <c r="E31" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.59649427842340152</v>
+      </c>
+      <c r="F31" s="40">
+        <f t="shared" si="0"/>
+        <v>1.1712629955449958</v>
+      </c>
+      <c r="G31" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.71120213202019567</v>
+      </c>
+      <c r="H31" s="40">
+        <f t="shared" si="0"/>
+        <v>1.4794093267909076</v>
+      </c>
+      <c r="I31" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.4280816790049824</v>
+      </c>
+      <c r="J31" s="40">
+        <f t="shared" si="0"/>
+        <v>0.81841761011949921</v>
+      </c>
+      <c r="K31" s="40">
+        <f t="shared" si="0"/>
+        <v>0.34938782357376785</v>
+      </c>
+      <c r="M31" s="33"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.77925434979182406</v>
+      </c>
+      <c r="E32" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.80435039330864955</v>
+      </c>
+      <c r="F32" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.81068440626735061</v>
+      </c>
+      <c r="G32" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.15196171818092669</v>
+      </c>
+      <c r="H32" s="40">
+        <f t="shared" si="0"/>
+        <v>2.4000461891122885E-2</v>
+      </c>
+      <c r="I32" s="40">
+        <f t="shared" si="0"/>
+        <v>0.84062953035308163</v>
+      </c>
+      <c r="J32" s="40">
+        <f t="shared" si="0"/>
+        <v>0.82554160533757281</v>
+      </c>
+      <c r="K32" s="40">
+        <f t="shared" si="0"/>
+        <v>1.0431555861920321</v>
+      </c>
+      <c r="M32" s="33"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="40">
+        <f t="shared" si="0"/>
+        <v>0.48534040017686436</v>
+      </c>
+      <c r="E33" s="40">
+        <f t="shared" si="0"/>
+        <v>1.076817843526908</v>
+      </c>
+      <c r="F33" s="40">
+        <f t="shared" si="0"/>
+        <v>1.1033275944223835</v>
+      </c>
+      <c r="G33" s="40">
+        <f t="shared" si="0"/>
+        <v>1.0610104961644924</v>
+      </c>
+      <c r="H33" s="40">
+        <f t="shared" si="0"/>
+        <v>1.1168002176194887</v>
+      </c>
+      <c r="I33" s="40">
+        <f t="shared" si="0"/>
+        <v>1.1486503642223411</v>
+      </c>
+      <c r="J33" s="40">
+        <f t="shared" si="0"/>
+        <v>1.0867123110212331</v>
+      </c>
+      <c r="K33" s="40">
+        <f t="shared" si="0"/>
+        <v>0.53628798761291563</v>
+      </c>
+      <c r="M33" s="33"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="43">
+        <f t="shared" ref="D34:K34" si="1">(D$31-D$44)^2+(D$32-D$45)^2+(D$33-D$46)^2</f>
+        <v>2.2059654366038135</v>
+      </c>
+      <c r="E34" s="43">
+        <f t="shared" si="1"/>
+        <v>2.8984436488532479</v>
+      </c>
+      <c r="F34" s="43">
+        <f t="shared" si="1"/>
+        <v>6.1816775978630023</v>
+      </c>
+      <c r="G34" s="43">
+        <f t="shared" si="1"/>
+        <v>3.0326704838887384</v>
+      </c>
+      <c r="H34" s="43">
+        <f t="shared" si="1"/>
+        <v>7.7940040121927199</v>
+      </c>
+      <c r="I34" s="43">
+        <f t="shared" si="1"/>
+        <v>5.2642583955811251</v>
+      </c>
+      <c r="J34" s="43">
+        <f t="shared" si="1"/>
+        <v>7.0256709511904738</v>
+      </c>
+      <c r="K34" s="43">
+        <f t="shared" si="1"/>
+        <v>5.0049878526989868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="D35" s="43">
+        <f t="shared" ref="D35:K35" si="2">(D$31-D$44)+(D$32-D$45)+(D$33-D$46)</f>
+        <v>1.9200763699090164</v>
+      </c>
+      <c r="E35" s="43">
+        <f t="shared" si="2"/>
+        <v>1.5209731717948569</v>
+      </c>
+      <c r="F35" s="43">
+        <f t="shared" si="2"/>
+        <v>3.3089061837000289</v>
+      </c>
+      <c r="G35" s="43">
+        <f t="shared" si="2"/>
+        <v>2.0428466459633698</v>
+      </c>
+      <c r="H35" s="43">
+        <f t="shared" si="2"/>
+        <v>4.4652100063015192</v>
+      </c>
+      <c r="I35" s="43">
+        <f t="shared" si="2"/>
+        <v>3.4061982155704404</v>
+      </c>
+      <c r="J35" s="43">
+        <f t="shared" si="2"/>
+        <v>4.5756715264783052</v>
+      </c>
+      <c r="K35" s="43">
+        <f t="shared" si="2"/>
+        <v>3.7738313973787152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" ht="14.25" customHeight="1">
+      <c r="B38" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62">
+        <f t="shared" ref="D38:K40" si="3">A_1*(D$16^2-D17^2)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="14.25" customHeight="1">
+      <c r="B39" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="61"/>
+      <c r="D39" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="76"/>
+    </row>
+    <row r="40" spans="1:16" ht="14.25" customHeight="1">
+      <c r="B40" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="61"/>
+      <c r="D40" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="76"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="B41" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="63"/>
+      <c r="D41" s="62">
+        <f t="shared" ref="D41:K43" si="4">A_2*($H$11*D$16^2-$H8*D17^2)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="76"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="B42" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="76"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="B43" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="63"/>
+      <c r="D43" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="76"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="59">
+        <f>$D$8+$G$8+D38+D41</f>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="E44" s="59">
+        <f t="shared" ref="E44:K44" si="5">$D$8+$G$8+E38+E41</f>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="F44" s="59">
+        <f t="shared" si="5"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="G44" s="59">
+        <f t="shared" si="5"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="H44" s="59">
+        <f t="shared" si="5"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="I44" s="59">
+        <f t="shared" si="5"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="J44" s="59">
+        <f t="shared" si="5"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="K44" s="59">
+        <f t="shared" si="5"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="O44" s="37"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="59">
+        <f t="shared" ref="D45:K46" si="6">$D$8+$G$8+D39+D42</f>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="E45" s="59">
+        <f t="shared" si="6"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="F45" s="59">
+        <f t="shared" si="6"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="G45" s="59">
+        <f t="shared" si="6"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="H45" s="59">
+        <f t="shared" si="6"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="I45" s="59">
+        <f t="shared" si="6"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="J45" s="59">
+        <f t="shared" si="6"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="K45" s="59">
+        <f t="shared" si="6"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="O45" s="37"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="59">
+        <f t="shared" si="6"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="E46" s="59">
+        <f t="shared" si="6"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="F46" s="59">
+        <f t="shared" si="6"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="G46" s="59">
+        <f t="shared" si="6"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="H46" s="59">
+        <f t="shared" si="6"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="I46" s="59">
+        <f t="shared" si="6"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="J46" s="59">
+        <f t="shared" si="6"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="K46" s="59">
+        <f t="shared" si="6"/>
+        <v>-0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="78"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="12">
+        <v>1</v>
+      </c>
+      <c r="E54" s="12">
+        <v>2</v>
+      </c>
+      <c r="F54" s="12">
+        <v>3</v>
+      </c>
+      <c r="G54" s="12">
+        <v>4</v>
+      </c>
+      <c r="H54" s="12">
+        <v>5</v>
+      </c>
+      <c r="I54" s="12">
+        <v>6</v>
+      </c>
+      <c r="J54" s="12">
+        <v>7</v>
+      </c>
+      <c r="K54" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="B55" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="34">
+        <f>D20+$D$49</f>
+        <v>0.47920820717399498</v>
+      </c>
+      <c r="E55" s="34">
+        <f t="shared" ref="E55:K55" si="7">E20+$D$49</f>
+        <v>-0.7746678940563656</v>
+      </c>
+      <c r="F55" s="34">
+        <f t="shared" si="7"/>
+        <v>1.5211207734350594</v>
+      </c>
+      <c r="G55" s="34">
+        <f t="shared" si="7"/>
+        <v>-0.92363913249376062</v>
+      </c>
+      <c r="H55" s="34">
+        <f t="shared" si="7"/>
+        <v>1.9213108140141657</v>
+      </c>
+      <c r="I55" s="34">
+        <f t="shared" si="7"/>
+        <v>-0.5559502324740031</v>
+      </c>
+      <c r="J55" s="34">
+        <f t="shared" si="7"/>
+        <v>1.0628800131422067</v>
+      </c>
+      <c r="K55" s="34">
+        <f t="shared" si="7"/>
+        <v>0.45375042022567252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="34">
+        <f t="shared" ref="D56:K57" si="8">D21+$D$49</f>
+        <v>-1.0120186360932779</v>
+      </c>
+      <c r="E56" s="34">
+        <f t="shared" si="8"/>
+        <v>-1.0446109004008435</v>
+      </c>
+      <c r="F56" s="34">
+        <f t="shared" si="8"/>
+        <v>-1.0528368912562995</v>
+      </c>
+      <c r="G56" s="34">
+        <f t="shared" si="8"/>
+        <v>-0.19735288075445023</v>
+      </c>
+      <c r="H56" s="34">
+        <f t="shared" si="8"/>
+        <v>3.1169431027432318E-2</v>
+      </c>
+      <c r="I56" s="34">
+        <f t="shared" si="8"/>
+        <v>1.0917266627962099</v>
+      </c>
+      <c r="J56" s="34">
+        <f t="shared" si="8"/>
+        <v>1.0721319549838608</v>
+      </c>
+      <c r="K56" s="34">
+        <f t="shared" si="8"/>
+        <v>1.3547475145351064</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="B57" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="34">
+        <f t="shared" si="8"/>
+        <v>0.60667550022108041</v>
+      </c>
+      <c r="E57" s="34">
+        <f t="shared" si="8"/>
+        <v>1.346022304408635</v>
+      </c>
+      <c r="F57" s="34">
+        <f t="shared" si="8"/>
+        <v>1.3791594930279794</v>
+      </c>
+      <c r="G57" s="34">
+        <f t="shared" si="8"/>
+        <v>1.3262631202056154</v>
+      </c>
+      <c r="H57" s="34">
+        <f t="shared" si="8"/>
+        <v>1.3960002720243607</v>
+      </c>
+      <c r="I57" s="34">
+        <f t="shared" si="8"/>
+        <v>1.4358129552779264</v>
+      </c>
+      <c r="J57" s="34">
+        <f t="shared" si="8"/>
+        <v>1.3583903887765414</v>
+      </c>
+      <c r="K57" s="34">
+        <f t="shared" si="8"/>
+        <v>0.67035998451614454</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="77"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="12">
+        <v>1</v>
+      </c>
+      <c r="E60" s="12">
+        <v>2</v>
+      </c>
+      <c r="F60" s="12">
+        <v>3</v>
+      </c>
+      <c r="G60" s="12">
+        <v>4</v>
+      </c>
+      <c r="H60" s="12">
+        <v>5</v>
+      </c>
+      <c r="I60" s="12">
+        <v>6</v>
+      </c>
+      <c r="J60" s="12">
+        <v>7</v>
+      </c>
+      <c r="K60" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="B61" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="79"/>
+      <c r="D61" s="41">
+        <f>Messaufbau_Messdaten!J30</f>
+        <v>1.2590000000000001</v>
+      </c>
+      <c r="E61" s="41">
+        <f>Messaufbau_Messdaten!K30</f>
+        <v>1.8940000000000001</v>
+      </c>
+      <c r="F61" s="41">
+        <f>Messaufbau_Messdaten!L30</f>
+        <v>2.3340000000000001</v>
+      </c>
+      <c r="G61" s="41">
+        <f>Messaufbau_Messdaten!M30</f>
+        <v>1.661</v>
+      </c>
+      <c r="H61" s="41">
+        <f>Messaufbau_Messdaten!N30</f>
+        <v>2.399</v>
+      </c>
+      <c r="I61" s="41">
+        <f>Messaufbau_Messdaten!O30</f>
+        <v>1.851</v>
+      </c>
+      <c r="J61" s="41">
+        <f>Messaufbau_Messdaten!P30</f>
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="K61" s="41">
+        <f>Messaufbau_Messdaten!Q30</f>
+        <v>1.5740000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="B62" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="80"/>
+      <c r="D62" s="38">
+        <f>SQRT(D55^2+D56^2+D57^2)</f>
+        <v>1.2735295003224349</v>
+      </c>
+      <c r="E62" s="38">
+        <f t="shared" ref="E62:K62" si="9">SQRT(E55^2+E56^2+E57^2)</f>
+        <v>1.8716565719392855</v>
+      </c>
+      <c r="F62" s="38">
+        <f t="shared" si="9"/>
+        <v>2.3074563558548826</v>
+      </c>
+      <c r="G62" s="38">
+        <f t="shared" si="9"/>
+        <v>1.6281987810563676</v>
+      </c>
+      <c r="H62" s="38">
+        <f t="shared" si="9"/>
+        <v>2.3751260044406988</v>
+      </c>
+      <c r="I62" s="38">
+        <f t="shared" si="9"/>
+        <v>1.8874603597935455</v>
+      </c>
+      <c r="J62" s="38">
+        <f t="shared" si="9"/>
+        <v>2.0308631907529309</v>
+      </c>
+      <c r="K62" s="38">
+        <f t="shared" si="9"/>
+        <v>1.5781675388989942</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="B63" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="80"/>
+      <c r="D63" s="38">
+        <f>D62-D61</f>
+        <v>1.452950032243483E-2</v>
+      </c>
+      <c r="E63" s="38">
+        <f t="shared" ref="E63:K63" si="10">E62-E61</f>
+        <v>-2.2343428060714654E-2</v>
+      </c>
+      <c r="F63" s="38">
+        <f t="shared" si="10"/>
+        <v>-2.6543644145117451E-2</v>
+      </c>
+      <c r="G63" s="38">
+        <f t="shared" si="10"/>
+        <v>-3.2801218943632415E-2</v>
+      </c>
+      <c r="H63" s="38">
+        <f t="shared" si="10"/>
+        <v>-2.3873995559301253E-2</v>
+      </c>
+      <c r="I63" s="38">
+        <f t="shared" si="10"/>
+        <v>3.646035979354556E-2</v>
+      </c>
+      <c r="J63" s="38">
+        <f t="shared" si="10"/>
+        <v>-2.4136809247069291E-2</v>
+      </c>
+      <c r="K63" s="38">
+        <f t="shared" si="10"/>
+        <v>4.1675388989941275E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="B64" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="81"/>
+      <c r="D64" s="42">
+        <f>1-D61/D62</f>
+        <v>1.1408844725431355E-2</v>
+      </c>
+      <c r="E64" s="42">
+        <f t="shared" ref="E64:K64" si="11">1-E61/E62</f>
+        <v>-1.193778196048223E-2</v>
+      </c>
+      <c r="F64" s="42">
+        <f t="shared" si="11"/>
+        <v>-1.1503421972756334E-2</v>
+      </c>
+      <c r="G64" s="42">
+        <f t="shared" si="11"/>
+        <v>-2.014570906529678E-2</v>
+      </c>
+      <c r="H64" s="42">
+        <f t="shared" si="11"/>
+        <v>-1.0051675369923352E-2</v>
+      </c>
+      <c r="I64" s="42">
+        <f t="shared" si="11"/>
+        <v>1.9317152598390841E-2</v>
+      </c>
+      <c r="J64" s="42">
+        <f t="shared" si="11"/>
+        <v>-1.1885000110775978E-2</v>
+      </c>
+      <c r="K64" s="42">
+        <f t="shared" si="11"/>
+        <v>2.640745545876344E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="4:11">
+      <c r="D65">
+        <f>D63*D63</f>
+        <v>2.1110637961963382E-4</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ref="E65:K65" si="12">E63*E63</f>
+        <v>4.9922877750433099E-4</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="12"/>
+        <v>7.0456504450262792E-4</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="12"/>
+        <v>1.07591996418811E-3</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="12"/>
+        <v>5.6996766396553598E-4</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="12"/>
+        <v>1.3293578362747937E-3</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="12"/>
+        <v>5.8258556062940959E-4</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="12"/>
+        <v>1.7368380474629186E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="M38:M43"/>
+    <mergeCell ref="M16:M22"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="A53:K53"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Tabelle3"/>
+  <dimension ref="A2:ID43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:13">
+      <c r="A2" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="21"/>
+      <c r="B3" s="31">
+        <v>0.77</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="21"/>
+      <c r="B4" s="31">
+        <v>0</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.77</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="21"/>
+      <c r="B5" s="31">
+        <v>0</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="71"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3</v>
+      </c>
+      <c r="G10" s="12">
+        <v>4</v>
+      </c>
+      <c r="H10" s="12">
+        <v>5</v>
+      </c>
+      <c r="I10" s="12">
+        <v>6</v>
+      </c>
+      <c r="J10" s="12">
+        <v>7</v>
+      </c>
+      <c r="K10" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="40">
+        <f t="shared" ref="D11:K13" si="0">INDEX(MMULT($B$3:$D$5,D$18:D$20),ROW(A1))</f>
+        <v>0.36899026901232779</v>
+      </c>
+      <c r="E11" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.59649394925779853</v>
+      </c>
+      <c r="F11" s="40">
+        <f t="shared" si="0"/>
+        <v>1.1712628398783298</v>
+      </c>
+      <c r="G11" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.71120197140404484</v>
+      </c>
+      <c r="H11" s="40">
+        <f t="shared" si="0"/>
+        <v>1.4794094563027429</v>
+      </c>
+      <c r="I11" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.42808172119826038</v>
+      </c>
+      <c r="J11" s="40">
+        <f t="shared" si="0"/>
+        <v>0.81841763824108571</v>
+      </c>
+      <c r="K11" s="40">
+        <f t="shared" si="0"/>
+        <v>0.34938783058863671</v>
+      </c>
+      <c r="M11" s="33"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.77925436805870341</v>
+      </c>
+      <c r="E12" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.80434997362287264</v>
+      </c>
+      <c r="F12" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.81068426978662689</v>
+      </c>
+      <c r="G12" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.15196149507388176</v>
+      </c>
+      <c r="H12" s="40">
+        <f t="shared" si="0"/>
+        <v>2.4000464668363787E-2</v>
+      </c>
+      <c r="I12" s="40">
+        <f t="shared" si="0"/>
+        <v>0.84062961146326609</v>
+      </c>
+      <c r="J12" s="40">
+        <f t="shared" si="0"/>
+        <v>0.82554167512759768</v>
+      </c>
+      <c r="K12" s="40">
+        <f t="shared" si="0"/>
+        <v>1.0431555973722477</v>
+      </c>
+      <c r="M12" s="33"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="40">
+        <f t="shared" si="0"/>
+        <v>0.48534039469457019</v>
+      </c>
+      <c r="E13" s="40">
+        <f t="shared" si="0"/>
+        <v>1.0768179344776232</v>
+      </c>
+      <c r="F13" s="40">
+        <f t="shared" si="0"/>
+        <v>1.1033277611497334</v>
+      </c>
+      <c r="G13" s="40">
+        <f t="shared" si="0"/>
+        <v>1.0610104775930136</v>
+      </c>
+      <c r="H13" s="40">
+        <f t="shared" si="0"/>
+        <v>1.1167999867360103</v>
+      </c>
+      <c r="I13" s="40">
+        <f t="shared" si="0"/>
+        <v>1.1486501038695196</v>
+      </c>
+      <c r="J13" s="40">
+        <f t="shared" si="0"/>
+        <v>1.086712076612425</v>
+      </c>
+      <c r="K13" s="40">
+        <f t="shared" si="0"/>
+        <v>0.53628776615435059</v>
+      </c>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="43">
+        <f t="shared" ref="D14:K14" si="1">(D$11-D$22)^2+(D$12-D$23)^2+(D$13-D$24)^2</f>
+        <v>1.9991174744988518E-13</v>
+      </c>
+      <c r="E14" s="43">
+        <f t="shared" si="1"/>
+        <v>7.5637057587059667E-15</v>
+      </c>
+      <c r="F14" s="43">
+        <f t="shared" si="1"/>
+        <v>5.6559489366726085E-13</v>
+      </c>
+      <c r="G14" s="43">
+        <f t="shared" si="1"/>
+        <v>1.3440683426918248E-15</v>
+      </c>
+      <c r="H14" s="43">
+        <f t="shared" si="1"/>
+        <v>5.60294955395223E-13</v>
+      </c>
+      <c r="I14" s="43">
+        <f t="shared" si="1"/>
+        <v>3.5680882109051077E-13</v>
+      </c>
+      <c r="J14" s="43">
+        <f t="shared" si="1"/>
+        <v>4.156686287616834E-13</v>
+      </c>
+      <c r="K14" s="43">
+        <f t="shared" si="1"/>
+        <v>2.45493104813483E-13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+    </row>
+    <row r="17" spans="1:238">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2</v>
+      </c>
+      <c r="F17" s="12">
+        <v>3</v>
+      </c>
+      <c r="G17" s="12">
+        <v>4</v>
+      </c>
+      <c r="H17" s="12">
+        <v>5</v>
+      </c>
+      <c r="I17" s="12">
+        <v>6</v>
+      </c>
+      <c r="J17" s="12">
+        <v>7</v>
+      </c>
+      <c r="K17" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:238">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="67">
+        <v>0.47920814157445163</v>
+      </c>
+      <c r="E18" s="67">
+        <v>-0.77466746656856955</v>
+      </c>
+      <c r="F18" s="67">
+        <v>1.5211205712705582</v>
+      </c>
+      <c r="G18" s="67">
+        <v>-0.92363892390135693</v>
+      </c>
+      <c r="H18" s="67">
+        <v>1.9213109822113543</v>
+      </c>
+      <c r="I18" s="67">
+        <v>-0.55595028727046802</v>
+      </c>
+      <c r="J18" s="67">
+        <v>1.0628800496637476</v>
+      </c>
+      <c r="K18" s="67">
+        <v>0.45375042933589183</v>
+      </c>
+      <c r="M18" s="68">
+        <f ca="1">RAND()-RAND()</f>
+        <v>0.3078668767290742</v>
+      </c>
+      <c r="ID18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:238">
+      <c r="B19" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="67">
+        <v>-1.012018659816498</v>
+      </c>
+      <c r="E19" s="67">
+        <v>-1.04461035535438</v>
+      </c>
+      <c r="F19" s="67">
+        <v>-1.0528367140086063</v>
+      </c>
+      <c r="G19" s="67">
+        <v>-0.19735259100504124</v>
+      </c>
+      <c r="H19" s="67">
+        <v>3.1169434634238682E-2</v>
+      </c>
+      <c r="I19" s="67">
+        <v>1.0917267681341118</v>
+      </c>
+      <c r="J19" s="67">
+        <v>1.0721320456202568</v>
+      </c>
+      <c r="K19" s="67">
+        <v>1.3547475290548672</v>
+      </c>
+      <c r="M19" s="68">
+        <f t="shared" ref="M19" ca="1" si="2">RAND()-RAND()</f>
+        <v>-6.5572014866428496E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:238">
+      <c r="C20" s="2"/>
+      <c r="D20" s="67">
+        <v>0.60667549336821269</v>
+      </c>
+      <c r="E20" s="67">
+        <v>1.3460224180970288</v>
+      </c>
+      <c r="F20" s="67">
+        <v>1.3791597014371668</v>
+      </c>
+      <c r="G20" s="67">
+        <v>1.326263096991267</v>
+      </c>
+      <c r="H20" s="67">
+        <v>1.3959999834200127</v>
+      </c>
+      <c r="I20" s="67">
+        <v>1.4358126298368994</v>
+      </c>
+      <c r="J20" s="67">
+        <v>1.3583900957655313</v>
+      </c>
+      <c r="K20" s="67">
+        <v>0.67035970769293818</v>
+      </c>
+      <c r="M20" s="68">
+        <f ca="1">IF(RAND()-RAND()&lt;0,-1*RAND()-RAND(),RAND()-RAND())</f>
+        <v>-1.3510373698399407</v>
+      </c>
+      <c r="ID20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:238">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:238">
+      <c r="C22" s="2"/>
+      <c r="D22" s="33">
+        <f>((Messaufbau_Messdaten!J$30)^2-(Messaufbau_Messdaten!J27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>0.3689905</v>
+      </c>
+      <c r="E22" s="33">
+        <v>-0.59649400000000019</v>
+      </c>
+      <c r="F22" s="33">
+        <f>((Messaufbau_Messdaten!L$30)^2-(Messaufbau_Messdaten!L27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>1.1712635000000002</v>
+      </c>
+      <c r="G22" s="33">
+        <f>((Messaufbau_Messdaten!M$30)^2-(Messaufbau_Messdaten!M27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>-0.71120200000000022</v>
+      </c>
+      <c r="H22" s="33">
+        <f>((Messaufbau_Messdaten!N$30)^2-(Messaufbau_Messdaten!N27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>1.4794100000000001</v>
+      </c>
+      <c r="I22" s="33">
+        <f>((Messaufbau_Messdaten!O$30)^2-(Messaufbau_Messdaten!O27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>-0.42808150000000034</v>
+      </c>
+      <c r="J22" s="33">
+        <f>((Messaufbau_Messdaten!P$30)^2-(Messaufbau_Messdaten!P27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>0.81841799999999998</v>
+      </c>
+      <c r="K22" s="33">
+        <f>((Messaufbau_Messdaten!Q$30)^2-(Messaufbau_Messdaten!Q27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>0.34938800000000014</v>
+      </c>
+      <c r="O22" s="37"/>
+    </row>
+    <row r="23" spans="1:238">
+      <c r="B23" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="33">
+        <f>((Messaufbau_Messdaten!J$30)^2-(Messaufbau_Messdaten!J28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>-0.779254</v>
+      </c>
+      <c r="E23" s="33">
+        <v>-0.80435000000000023</v>
+      </c>
+      <c r="F23" s="33">
+        <f>((Messaufbau_Messdaten!L$30)^2-(Messaufbau_Messdaten!L28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>-0.81068400000000029</v>
+      </c>
+      <c r="G23" s="33">
+        <f>((Messaufbau_Messdaten!M$30)^2-(Messaufbau_Messdaten!M28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>-0.15196150000000042</v>
+      </c>
+      <c r="H23" s="33">
+        <f>((Messaufbau_Messdaten!N$30)^2-(Messaufbau_Messdaten!N28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>2.4000499999999536E-2</v>
+      </c>
+      <c r="I23" s="33">
+        <f>((Messaufbau_Messdaten!O$30)^2-(Messaufbau_Messdaten!O28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>0.84062999999999966</v>
+      </c>
+      <c r="J23" s="33">
+        <f>((Messaufbau_Messdaten!P$30)^2-(Messaufbau_Messdaten!P28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>0.82554200000000011</v>
+      </c>
+      <c r="K23" s="33">
+        <f>((Messaufbau_Messdaten!Q$30)^2-(Messaufbau_Messdaten!Q28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>1.0431560000000002</v>
+      </c>
+      <c r="O23" s="37"/>
+    </row>
+    <row r="24" spans="1:238">
+      <c r="C24" s="2"/>
+      <c r="D24" s="33">
+        <f>((Messaufbau_Messdaten!J$30)^2-(Messaufbau_Messdaten!J29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>0.48534050000000017</v>
+      </c>
+      <c r="E24" s="33">
+        <v>1.0768180000000001</v>
+      </c>
+      <c r="F24" s="33">
+        <f>((Messaufbau_Messdaten!L$30)^2-(Messaufbau_Messdaten!L29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.1033280000000003</v>
+      </c>
+      <c r="G24" s="33">
+        <f>((Messaufbau_Messdaten!M$30)^2-(Messaufbau_Messdaten!M29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.0610104999999999</v>
+      </c>
+      <c r="H24" s="33">
+        <f>((Messaufbau_Messdaten!N$30)^2-(Messaufbau_Messdaten!N29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.1168005000000003</v>
+      </c>
+      <c r="I24" s="33">
+        <f>((Messaufbau_Messdaten!O$30)^2-(Messaufbau_Messdaten!O29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.1486505</v>
+      </c>
+      <c r="J24" s="33">
+        <f>((Messaufbau_Messdaten!P$30)^2-(Messaufbau_Messdaten!P29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.0867125000000002</v>
+      </c>
+      <c r="K24" s="33">
+        <f>((Messaufbau_Messdaten!Q$30)^2-(Messaufbau_Messdaten!Q29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>0.53628799999999988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:238">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:238">
+      <c r="A26" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+    </row>
+    <row r="27" spans="1:238">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:238">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:238">
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:238">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:238">
+      <c r="A31" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+    </row>
+    <row r="32" spans="1:238">
+      <c r="A32" s="25"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12">
+        <v>2</v>
+      </c>
+      <c r="F32" s="12">
+        <v>3</v>
+      </c>
+      <c r="G32" s="12">
+        <v>4</v>
+      </c>
+      <c r="H32" s="12">
+        <v>5</v>
+      </c>
+      <c r="I32" s="12">
+        <v>6</v>
+      </c>
+      <c r="J32" s="12">
+        <v>7</v>
+      </c>
+      <c r="K32" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="B33" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="34">
+        <f t="shared" ref="D33:K33" si="3">D18+$D$27</f>
+        <v>0.47920814157445163</v>
+      </c>
+      <c r="E33" s="34">
+        <f t="shared" si="3"/>
+        <v>-0.77466746656856955</v>
+      </c>
+      <c r="F33" s="34">
+        <f t="shared" si="3"/>
+        <v>1.5211205712705582</v>
+      </c>
+      <c r="G33" s="34">
+        <f t="shared" si="3"/>
+        <v>-0.92363892390135693</v>
+      </c>
+      <c r="H33" s="34">
+        <f t="shared" si="3"/>
+        <v>1.9213109822113543</v>
+      </c>
+      <c r="I33" s="34">
+        <f t="shared" si="3"/>
+        <v>-0.55595028727046802</v>
+      </c>
+      <c r="J33" s="34">
+        <f t="shared" si="3"/>
+        <v>1.0628800496637476</v>
+      </c>
+      <c r="K33" s="34">
+        <f t="shared" si="3"/>
+        <v>0.45375042933589183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="34">
+        <f t="shared" ref="D34:E34" si="4">D19+$D$27</f>
+        <v>-1.012018659816498</v>
+      </c>
+      <c r="E34" s="34">
+        <f t="shared" si="4"/>
+        <v>-1.04461035535438</v>
+      </c>
+      <c r="F34" s="34">
+        <f t="shared" ref="F34:K35" si="5">F19+$D$27</f>
+        <v>-1.0528367140086063</v>
+      </c>
+      <c r="G34" s="34">
+        <f t="shared" si="5"/>
+        <v>-0.19735259100504124</v>
+      </c>
+      <c r="H34" s="34">
+        <f t="shared" si="5"/>
+        <v>3.1169434634238682E-2</v>
+      </c>
+      <c r="I34" s="34">
+        <f t="shared" si="5"/>
+        <v>1.0917267681341118</v>
+      </c>
+      <c r="J34" s="34">
+        <f t="shared" si="5"/>
+        <v>1.0721320456202568</v>
+      </c>
+      <c r="K34" s="34">
+        <f t="shared" si="5"/>
+        <v>1.3547475290548672</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="B35" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="34">
+        <f t="shared" ref="D35:E35" si="6">D20+$D$27</f>
+        <v>0.60667549336821269</v>
+      </c>
+      <c r="E35" s="34">
+        <f t="shared" si="6"/>
+        <v>1.3460224180970288</v>
+      </c>
+      <c r="F35" s="34">
+        <f t="shared" si="5"/>
+        <v>1.3791597014371668</v>
+      </c>
+      <c r="G35" s="34">
+        <f t="shared" si="5"/>
+        <v>1.326263096991267</v>
+      </c>
+      <c r="H35" s="34">
+        <f t="shared" si="5"/>
+        <v>1.3959999834200127</v>
+      </c>
+      <c r="I35" s="34">
+        <f t="shared" si="5"/>
+        <v>1.4358126298368994</v>
+      </c>
+      <c r="J35" s="34">
+        <f t="shared" si="5"/>
+        <v>1.3583900957655313</v>
+      </c>
+      <c r="K35" s="34">
+        <f t="shared" si="5"/>
+        <v>0.67035970769293818</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12">
+        <v>2</v>
+      </c>
+      <c r="F38" s="12">
+        <v>3</v>
+      </c>
+      <c r="G38" s="12">
+        <v>4</v>
+      </c>
+      <c r="H38" s="12">
+        <v>5</v>
+      </c>
+      <c r="I38" s="12">
+        <v>6</v>
+      </c>
+      <c r="J38" s="12">
+        <v>7</v>
+      </c>
+      <c r="K38" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="B39" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="79"/>
+      <c r="D39" s="41">
+        <f>Messaufbau_Messdaten!J30</f>
+        <v>1.2590000000000001</v>
+      </c>
+      <c r="E39" s="41">
+        <f>Messaufbau_Messdaten!K30</f>
+        <v>1.8940000000000001</v>
+      </c>
+      <c r="F39" s="41">
+        <f>Messaufbau_Messdaten!L30</f>
+        <v>2.3340000000000001</v>
+      </c>
+      <c r="G39" s="41">
+        <f>Messaufbau_Messdaten!M30</f>
+        <v>1.661</v>
+      </c>
+      <c r="H39" s="41">
+        <f>Messaufbau_Messdaten!N30</f>
+        <v>2.399</v>
+      </c>
+      <c r="I39" s="41">
+        <f>Messaufbau_Messdaten!O30</f>
+        <v>1.851</v>
+      </c>
+      <c r="J39" s="41">
+        <f>Messaufbau_Messdaten!P30</f>
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="K39" s="41">
+        <f>Messaufbau_Messdaten!Q30</f>
+        <v>1.5740000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="B40" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="80"/>
+      <c r="D40" s="38">
+        <f>SQRT(D33^2+D34^2+D35^2)</f>
+        <v>1.2735294912256978</v>
+      </c>
+      <c r="E40" s="38">
+        <f t="shared" ref="E40:K40" si="7">SQRT(E33^2+E34^2+E35^2)</f>
+        <v>1.8716561725629905</v>
+      </c>
+      <c r="F40" s="38">
+        <f t="shared" si="7"/>
+        <v>2.3074562662757367</v>
+      </c>
+      <c r="G40" s="38">
+        <f t="shared" si="7"/>
+        <v>1.6281986086970244</v>
+      </c>
+      <c r="H40" s="38">
+        <f t="shared" si="7"/>
+        <v>2.3751259709181856</v>
+      </c>
+      <c r="I40" s="38">
+        <f t="shared" si="7"/>
+        <v>1.8874601892956104</v>
+      </c>
+      <c r="J40" s="38">
+        <f t="shared" si="7"/>
+        <v>2.0308630617284309</v>
+      </c>
+      <c r="K40" s="38">
+        <f t="shared" si="7"/>
+        <v>1.5781674363960676</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="B41" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="80"/>
+      <c r="D41" s="38">
+        <f>D40-D39</f>
+        <v>1.4529491225697688E-2</v>
+      </c>
+      <c r="E41" s="38">
+        <f t="shared" ref="E41:K41" si="8">E40-E39</f>
+        <v>-2.2343827437009578E-2</v>
+      </c>
+      <c r="F41" s="38">
+        <f t="shared" si="8"/>
+        <v>-2.654373372426333E-2</v>
+      </c>
+      <c r="G41" s="38">
+        <f t="shared" si="8"/>
+        <v>-3.2801391302975658E-2</v>
+      </c>
+      <c r="H41" s="38">
+        <f t="shared" si="8"/>
+        <v>-2.3874029081814463E-2</v>
+      </c>
+      <c r="I41" s="38">
+        <f t="shared" si="8"/>
+        <v>3.6460189295610457E-2</v>
+      </c>
+      <c r="J41" s="38">
+        <f t="shared" si="8"/>
+        <v>-2.4136938271569264E-2</v>
+      </c>
+      <c r="K41" s="38">
+        <f t="shared" si="8"/>
+        <v>4.1674363960675365E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="B42" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="81"/>
+      <c r="D42" s="42">
+        <f>1-D39/D40</f>
+        <v>1.1408837663989924E-2</v>
+      </c>
+      <c r="E42" s="42">
+        <f t="shared" ref="E42:K42" si="9">1-E39/E40</f>
+        <v>-1.1937997889009955E-2</v>
+      </c>
+      <c r="F42" s="42">
+        <f t="shared" si="9"/>
+        <v>-1.1503461240938373E-2</v>
+      </c>
+      <c r="G42" s="42">
+        <f t="shared" si="9"/>
+        <v>-2.0145817056817839E-2</v>
+      </c>
+      <c r="H42" s="42">
+        <f t="shared" si="9"/>
+        <v>-1.0051689625786508E-2</v>
+      </c>
+      <c r="I42" s="42">
+        <f t="shared" si="9"/>
+        <v>1.9317064011409535E-2</v>
+      </c>
+      <c r="J42" s="42">
+        <f t="shared" si="9"/>
+        <v>-1.18850643977082E-2</v>
+      </c>
+      <c r="K42" s="42">
+        <f t="shared" si="9"/>
+        <v>2.640680766791359E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="B43" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="83"/>
+      <c r="D43" s="44">
+        <f>D41*D41</f>
+        <v>2.1110611527762612E-4</v>
+      </c>
+      <c r="E43" s="44">
+        <f t="shared" ref="E43:K43" si="10">E41*E41</f>
+        <v>4.9924662453486204E-4</v>
+      </c>
+      <c r="F43" s="44">
+        <f t="shared" si="10"/>
+        <v>7.0456980002459437E-4</v>
+      </c>
+      <c r="G43" s="44">
+        <f t="shared" si="10"/>
+        <v>1.0759312714109272E-3</v>
+      </c>
+      <c r="H43" s="44">
+        <f t="shared" si="10"/>
+        <v>5.6996926459932274E-4</v>
+      </c>
+      <c r="I43" s="44">
+        <f t="shared" si="10"/>
+        <v>1.3293454034717473E-3</v>
+      </c>
+      <c r="J43" s="44">
+        <f t="shared" si="10"/>
+        <v>5.82591789125545E-4</v>
+      </c>
+      <c r="K43" s="44">
+        <f t="shared" si="10"/>
+        <v>1.7367526115268377E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A31:K31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Tabelle4"/>
+  <dimension ref="A2:K35"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="A2" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15">
+        <v>0.77</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="21"/>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.77</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="21"/>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>3</v>
+      </c>
+      <c r="G8" s="12">
+        <v>4</v>
+      </c>
+      <c r="H8" s="12">
+        <v>5</v>
+      </c>
+      <c r="I8" s="12">
+        <v>6</v>
+      </c>
+      <c r="J8" s="12">
+        <v>7</v>
+      </c>
+      <c r="K8" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="33">
+        <f>INDEX(MMULT(MINVERSE($B$3:$D$5),D$15:D$17),ROW(A1))</f>
+        <v>0.47920844155844156</v>
+      </c>
+      <c r="E9" s="33">
+        <f t="shared" ref="E9:K11" si="0">INDEX(MMULT(MINVERSE($B$3:$D$5),E$15:E$17),ROW(B1))</f>
+        <v>-0.77466753246753273</v>
+      </c>
+      <c r="F9" s="33">
+        <f t="shared" si="0"/>
+        <v>1.521121428571429</v>
+      </c>
+      <c r="G9" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.92363896103896137</v>
+      </c>
+      <c r="H9" s="33">
+        <f t="shared" si="0"/>
+        <v>1.9213116883116885</v>
+      </c>
+      <c r="I9" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.55595000000000039</v>
+      </c>
+      <c r="J9" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0628805194805195</v>
+      </c>
+      <c r="K9" s="33">
+        <f t="shared" si="0"/>
+        <v>0.45375064935064952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="33">
+        <f t="shared" ref="D10:D11" si="1">INDEX(MMULT(MINVERSE($B$3:$D$5),D$15:D$17),ROW(A2))</f>
+        <v>-1.0120181818181817</v>
+      </c>
+      <c r="E10" s="33">
+        <f t="shared" si="0"/>
+        <v>-1.04461038961039</v>
+      </c>
+      <c r="F10" s="33">
+        <f t="shared" si="0"/>
+        <v>-1.052836363636364</v>
+      </c>
+      <c r="G10" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.19735259740259795</v>
+      </c>
+      <c r="H10" s="33">
+        <f t="shared" si="0"/>
+        <v>3.1169480519479917E-2</v>
+      </c>
+      <c r="I10" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0917272727272722</v>
+      </c>
+      <c r="J10" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0721324675324677</v>
+      </c>
+      <c r="K10" s="33">
+        <f t="shared" si="0"/>
+        <v>1.3547480519480521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="33">
+        <f t="shared" si="1"/>
+        <v>0.60667562500000027</v>
+      </c>
+      <c r="E11" s="33">
+        <f t="shared" si="0"/>
+        <v>1.3460225000000001</v>
+      </c>
+      <c r="F11" s="33">
+        <f t="shared" si="0"/>
+        <v>1.3791600000000004</v>
+      </c>
+      <c r="G11" s="33">
+        <f t="shared" si="0"/>
+        <v>1.3262631249999999</v>
+      </c>
+      <c r="H11" s="33">
+        <f t="shared" si="0"/>
+        <v>1.3960006250000003</v>
+      </c>
+      <c r="I11" s="33">
+        <f t="shared" si="0"/>
+        <v>1.4358131250000001</v>
+      </c>
+      <c r="J11" s="33">
+        <f t="shared" si="0"/>
+        <v>1.3583906250000002</v>
+      </c>
+      <c r="K11" s="33">
+        <f t="shared" si="0"/>
+        <v>0.67035999999999984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.75">
+      <c r="B13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="C14" s="2"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="33">
+        <f>((Messaufbau_Messdaten!J$30)^2-(Messaufbau_Messdaten!J27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>0.3689905</v>
+      </c>
+      <c r="E15" s="33">
+        <f>((Messaufbau_Messdaten!K$30)^2-(Messaufbau_Messdaten!K27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>-0.59649400000000019</v>
+      </c>
+      <c r="F15" s="33">
+        <f>((Messaufbau_Messdaten!L$30)^2-(Messaufbau_Messdaten!L27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>1.1712635000000002</v>
+      </c>
+      <c r="G15" s="33">
+        <f>((Messaufbau_Messdaten!M$30)^2-(Messaufbau_Messdaten!M27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>-0.71120200000000022</v>
+      </c>
+      <c r="H15" s="33">
+        <f>((Messaufbau_Messdaten!N$30)^2-(Messaufbau_Messdaten!N27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>1.4794100000000001</v>
+      </c>
+      <c r="I15" s="33">
+        <f>((Messaufbau_Messdaten!O$30)^2-(Messaufbau_Messdaten!O27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>-0.42808150000000034</v>
+      </c>
+      <c r="J15" s="33">
+        <f>((Messaufbau_Messdaten!P$30)^2-(Messaufbau_Messdaten!P27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>0.81841799999999998</v>
+      </c>
+      <c r="K15" s="33">
+        <f>((Messaufbau_Messdaten!Q$30)^2-(Messaufbau_Messdaten!Q27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
+        <v>0.34938800000000014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="33">
+        <f>((Messaufbau_Messdaten!J$30)^2-(Messaufbau_Messdaten!J28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>-0.779254</v>
+      </c>
+      <c r="E16" s="33">
+        <f>((Messaufbau_Messdaten!K$30)^2-(Messaufbau_Messdaten!K28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>-0.80435000000000023</v>
+      </c>
+      <c r="F16" s="33">
+        <f>((Messaufbau_Messdaten!L$30)^2-(Messaufbau_Messdaten!L28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>-0.81068400000000029</v>
+      </c>
+      <c r="G16" s="33">
+        <f>((Messaufbau_Messdaten!M$30)^2-(Messaufbau_Messdaten!M28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>-0.15196150000000042</v>
+      </c>
+      <c r="H16" s="33">
+        <f>((Messaufbau_Messdaten!N$30)^2-(Messaufbau_Messdaten!N28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>2.4000499999999536E-2</v>
+      </c>
+      <c r="I16" s="33">
+        <f>((Messaufbau_Messdaten!O$30)^2-(Messaufbau_Messdaten!O28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>0.84062999999999966</v>
+      </c>
+      <c r="J16" s="33">
+        <f>((Messaufbau_Messdaten!P$30)^2-(Messaufbau_Messdaten!P28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>0.82554200000000011</v>
+      </c>
+      <c r="K16" s="33">
+        <f>((Messaufbau_Messdaten!Q$30)^2-(Messaufbau_Messdaten!Q28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
+        <v>1.0431560000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="33">
+        <f>((Messaufbau_Messdaten!J$30)^2-(Messaufbau_Messdaten!J29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>0.48534050000000017</v>
+      </c>
+      <c r="E17" s="33">
+        <f>((Messaufbau_Messdaten!K$30)^2-(Messaufbau_Messdaten!K29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.0768180000000001</v>
+      </c>
+      <c r="F17" s="33">
+        <f>((Messaufbau_Messdaten!L$30)^2-(Messaufbau_Messdaten!L29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.1033280000000003</v>
+      </c>
+      <c r="G17" s="33">
+        <f>((Messaufbau_Messdaten!M$30)^2-(Messaufbau_Messdaten!M29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.0610104999999999</v>
+      </c>
+      <c r="H17" s="33">
+        <f>((Messaufbau_Messdaten!N$30)^2-(Messaufbau_Messdaten!N29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.1168005000000003</v>
+      </c>
+      <c r="I17" s="33">
+        <f>((Messaufbau_Messdaten!O$30)^2-(Messaufbau_Messdaten!O29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.1486505</v>
+      </c>
+      <c r="J17" s="33">
+        <f>((Messaufbau_Messdaten!P$30)^2-(Messaufbau_Messdaten!P29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>1.0867125000000002</v>
+      </c>
+      <c r="K17" s="33">
+        <f>((Messaufbau_Messdaten!Q$30)^2-(Messaufbau_Messdaten!Q29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
+        <v>0.53628799999999988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="25"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12">
+        <v>2</v>
+      </c>
+      <c r="F25" s="12">
+        <v>3</v>
+      </c>
+      <c r="G25" s="12">
+        <v>4</v>
+      </c>
+      <c r="H25" s="12">
+        <v>5</v>
+      </c>
+      <c r="I25" s="12">
+        <v>6</v>
+      </c>
+      <c r="J25" s="12">
+        <v>7</v>
+      </c>
+      <c r="K25" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="34">
+        <f t="shared" ref="D26" si="2">D9+$D$20</f>
+        <v>0.47920844155844156</v>
+      </c>
+      <c r="E26" s="34">
+        <f t="shared" ref="E26:K26" si="3">E9+$D$20</f>
+        <v>-0.77466753246753273</v>
+      </c>
+      <c r="F26" s="34">
+        <f t="shared" si="3"/>
+        <v>1.521121428571429</v>
+      </c>
+      <c r="G26" s="34">
+        <f t="shared" si="3"/>
+        <v>-0.92363896103896137</v>
+      </c>
+      <c r="H26" s="34">
+        <f t="shared" si="3"/>
+        <v>1.9213116883116885</v>
+      </c>
+      <c r="I26" s="34">
+        <f t="shared" si="3"/>
+        <v>-0.55595000000000039</v>
+      </c>
+      <c r="J26" s="34">
+        <f t="shared" si="3"/>
+        <v>1.0628805194805195</v>
+      </c>
+      <c r="K26" s="34">
+        <f t="shared" si="3"/>
+        <v>0.45375064935064952</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="34">
+        <f t="shared" ref="D27" si="4">D10+$D$20</f>
+        <v>-1.0120181818181817</v>
+      </c>
+      <c r="E27" s="34">
+        <f t="shared" ref="E27:K28" si="5">E10+$D$20</f>
+        <v>-1.04461038961039</v>
+      </c>
+      <c r="F27" s="34">
+        <f t="shared" si="5"/>
+        <v>-1.052836363636364</v>
+      </c>
+      <c r="G27" s="34">
+        <f t="shared" si="5"/>
+        <v>-0.19735259740259795</v>
+      </c>
+      <c r="H27" s="34">
+        <f t="shared" si="5"/>
+        <v>3.1169480519479917E-2</v>
+      </c>
+      <c r="I27" s="34">
+        <f t="shared" si="5"/>
+        <v>1.0917272727272722</v>
+      </c>
+      <c r="J27" s="34">
+        <f t="shared" si="5"/>
+        <v>1.0721324675324677</v>
+      </c>
+      <c r="K27" s="34">
+        <f t="shared" si="5"/>
+        <v>1.3547480519480521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="B28" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="34">
+        <f t="shared" ref="D28" si="6">D11+$D$20</f>
+        <v>0.60667562500000027</v>
+      </c>
+      <c r="E28" s="34">
+        <f t="shared" si="5"/>
+        <v>1.3460225000000001</v>
+      </c>
+      <c r="F28" s="34">
+        <f t="shared" si="5"/>
+        <v>1.3791600000000004</v>
+      </c>
+      <c r="G28" s="34">
+        <f t="shared" si="5"/>
+        <v>1.3262631249999999</v>
+      </c>
+      <c r="H28" s="34">
+        <f t="shared" si="5"/>
+        <v>1.3960006250000003</v>
+      </c>
+      <c r="I28" s="34">
+        <f t="shared" si="5"/>
+        <v>1.4358131250000001</v>
+      </c>
+      <c r="J28" s="34">
+        <f t="shared" si="5"/>
+        <v>1.3583906250000002</v>
+      </c>
+      <c r="K28" s="34">
+        <f t="shared" si="5"/>
+        <v>0.67035999999999984</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12">
+        <v>2</v>
+      </c>
+      <c r="F31" s="12">
+        <v>3</v>
+      </c>
+      <c r="G31" s="12">
+        <v>4</v>
+      </c>
+      <c r="H31" s="12">
+        <v>5</v>
+      </c>
+      <c r="I31" s="12">
+        <v>6</v>
+      </c>
+      <c r="J31" s="12">
+        <v>7</v>
+      </c>
+      <c r="K31" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="79"/>
+      <c r="D32">
+        <f>Messaufbau_Messdaten!J30</f>
+        <v>1.2590000000000001</v>
+      </c>
+      <c r="E32">
+        <f>Messaufbau_Messdaten!K30</f>
+        <v>1.8940000000000001</v>
+      </c>
+      <c r="F32">
+        <f>Messaufbau_Messdaten!L30</f>
+        <v>2.3340000000000001</v>
+      </c>
+      <c r="G32">
+        <f>Messaufbau_Messdaten!M30</f>
+        <v>1.661</v>
+      </c>
+      <c r="H32">
+        <f>Messaufbau_Messdaten!N30</f>
+        <v>2.399</v>
+      </c>
+      <c r="I32">
+        <f>Messaufbau_Messdaten!O30</f>
+        <v>1.851</v>
+      </c>
+      <c r="J32">
+        <f>Messaufbau_Messdaten!P30</f>
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="K32">
+        <f>Messaufbau_Messdaten!Q30</f>
+        <v>1.5740000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="80"/>
+      <c r="D33" s="33">
+        <f>SQRT(D26^2+D27^2+D28^2)</f>
+        <v>1.2735292869661812</v>
+      </c>
+      <c r="E33" s="33">
+        <f t="shared" ref="E33:K33" si="7">SQRT(E26^2+E27^2+E28^2)</f>
+        <v>1.8716562778586128</v>
+      </c>
+      <c r="F33" s="33">
+        <f t="shared" si="7"/>
+        <v>2.3074568500091672</v>
+      </c>
+      <c r="G33" s="33">
+        <f t="shared" si="7"/>
+        <v>1.6281986533545127</v>
+      </c>
+      <c r="H33" s="33">
+        <f t="shared" si="7"/>
+        <v>2.3751269198001519</v>
+      </c>
+      <c r="I33" s="33">
+        <f t="shared" si="7"/>
+        <v>1.8874607732185573</v>
+      </c>
+      <c r="J33" s="33">
+        <f t="shared" si="7"/>
+        <v>2.0308638843399445</v>
+      </c>
+      <c r="K33" s="33">
+        <f t="shared" si="7"/>
+        <v>1.5781680726852823</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="80"/>
+      <c r="D34" s="33">
+        <f>D33-D32</f>
+        <v>1.4529286966181054E-2</v>
+      </c>
+      <c r="E34" s="33">
+        <f t="shared" ref="E34:K34" si="8">E33-E32</f>
+        <v>-2.2343722141387357E-2</v>
+      </c>
+      <c r="F34" s="33">
+        <f t="shared" si="8"/>
+        <v>-2.6543149990832848E-2</v>
+      </c>
+      <c r="G34" s="33">
+        <f t="shared" si="8"/>
+        <v>-3.2801346645487284E-2</v>
+      </c>
+      <c r="H34" s="33">
+        <f t="shared" si="8"/>
+        <v>-2.3873080199848129E-2</v>
+      </c>
+      <c r="I34" s="33">
+        <f t="shared" si="8"/>
+        <v>3.6460773218557341E-2</v>
+      </c>
+      <c r="J34" s="33">
+        <f t="shared" si="8"/>
+        <v>-2.413611566005569E-2</v>
+      </c>
+      <c r="K34" s="33">
+        <f t="shared" si="8"/>
+        <v>4.168072685282187E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="81"/>
+      <c r="D35" s="35">
+        <f>1-D32/D33</f>
+        <v>1.1408679105286201E-2</v>
+      </c>
+      <c r="E35" s="35">
+        <f t="shared" ref="E35:K35" si="9">1-E32/E33</f>
+        <v>-1.1937940959411142E-2</v>
+      </c>
+      <c r="F35" s="35">
+        <f t="shared" si="9"/>
+        <v>-1.1503205353862844E-2</v>
+      </c>
+      <c r="G35" s="35">
+        <f t="shared" si="9"/>
+        <v>-2.0145789076724707E-2</v>
+      </c>
+      <c r="H35" s="35">
+        <f t="shared" si="9"/>
+        <v>-1.0051286102157775E-2</v>
+      </c>
+      <c r="I35" s="35">
+        <f t="shared" si="9"/>
+        <v>1.9317367404877661E-2</v>
+      </c>
+      <c r="J35" s="35">
+        <f t="shared" si="9"/>
+        <v>-1.1884654528631966E-2</v>
+      </c>
+      <c r="K35" s="35">
+        <f t="shared" si="9"/>
+        <v>2.6410828842774459E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D13:K13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Tabelle5"/>
   <dimension ref="B2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3814,8 +8679,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Tabelle6"/>
   <dimension ref="A3:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4130,903 +8996,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="1:11">
-      <c r="A2" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="21"/>
-      <c r="B3" s="15">
-        <v>0.77</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="21"/>
-      <c r="B4" s="15">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0.77</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="21"/>
-      <c r="B5" s="15">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2</v>
-      </c>
-      <c r="F8" s="12">
-        <v>3</v>
-      </c>
-      <c r="G8" s="12">
-        <v>4</v>
-      </c>
-      <c r="H8" s="12">
-        <v>5</v>
-      </c>
-      <c r="I8" s="12">
-        <v>6</v>
-      </c>
-      <c r="J8" s="12">
-        <v>7</v>
-      </c>
-      <c r="K8" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="39">
-        <f>INDEX(MMULT(MINVERSE($B$3:$D$5),D$15:D$17),ROW(A1))</f>
-        <v>0.47920844155844156</v>
-      </c>
-      <c r="E9" s="39">
-        <f t="shared" ref="E9:K11" si="0">INDEX(MMULT(MINVERSE($B$3:$D$5),E$15:E$17),ROW(B1))</f>
-        <v>-0.77466753246753273</v>
-      </c>
-      <c r="F9" s="39">
-        <f t="shared" si="0"/>
-        <v>1.521121428571429</v>
-      </c>
-      <c r="G9" s="39">
-        <f t="shared" si="0"/>
-        <v>-0.92363896103896137</v>
-      </c>
-      <c r="H9" s="39">
-        <f t="shared" si="0"/>
-        <v>1.9213116883116885</v>
-      </c>
-      <c r="I9" s="39">
-        <f t="shared" si="0"/>
-        <v>-0.55595000000000039</v>
-      </c>
-      <c r="J9" s="39">
-        <f t="shared" si="0"/>
-        <v>1.0628805194805195</v>
-      </c>
-      <c r="K9" s="39">
-        <f t="shared" si="0"/>
-        <v>0.45375064935064952</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="39">
-        <f t="shared" ref="D10:D11" si="1">INDEX(MMULT(MINVERSE($B$3:$D$5),D$15:D$17),ROW(A2))</f>
-        <v>-1.0120181818181817</v>
-      </c>
-      <c r="E10" s="39">
-        <f t="shared" si="0"/>
-        <v>-1.04461038961039</v>
-      </c>
-      <c r="F10" s="39">
-        <f t="shared" si="0"/>
-        <v>-1.052836363636364</v>
-      </c>
-      <c r="G10" s="39">
-        <f t="shared" si="0"/>
-        <v>-0.19735259740259795</v>
-      </c>
-      <c r="H10" s="39">
-        <f t="shared" si="0"/>
-        <v>3.1169480519479917E-2</v>
-      </c>
-      <c r="I10" s="39">
-        <f t="shared" si="0"/>
-        <v>1.0917272727272722</v>
-      </c>
-      <c r="J10" s="39">
-        <f t="shared" si="0"/>
-        <v>1.0721324675324677</v>
-      </c>
-      <c r="K10" s="39">
-        <f t="shared" si="0"/>
-        <v>1.3547480519480521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="39">
-        <f t="shared" si="1"/>
-        <v>0.60667562500000027</v>
-      </c>
-      <c r="E11" s="39">
-        <f t="shared" si="0"/>
-        <v>1.3460225000000001</v>
-      </c>
-      <c r="F11" s="39">
-        <f t="shared" si="0"/>
-        <v>1.3791600000000004</v>
-      </c>
-      <c r="G11" s="39">
-        <f t="shared" si="0"/>
-        <v>1.3262631249999999</v>
-      </c>
-      <c r="H11" s="39">
-        <f t="shared" si="0"/>
-        <v>1.3960006250000003</v>
-      </c>
-      <c r="I11" s="39">
-        <f t="shared" si="0"/>
-        <v>1.4358131250000001</v>
-      </c>
-      <c r="J11" s="39">
-        <f t="shared" si="0"/>
-        <v>1.3583906250000002</v>
-      </c>
-      <c r="K11" s="39">
-        <f t="shared" si="0"/>
-        <v>0.67035999999999984</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.75">
-      <c r="B13" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="C14" s="2"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="39">
-        <f>((Messaufbau_Messdaten!J$30)^2-(Messaufbau_Messdaten!J27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
-        <v>0.3689905</v>
-      </c>
-      <c r="E15" s="39">
-        <f>((Messaufbau_Messdaten!K$30)^2-(Messaufbau_Messdaten!K27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
-        <v>-0.59649400000000019</v>
-      </c>
-      <c r="F15" s="39">
-        <f>((Messaufbau_Messdaten!L$30)^2-(Messaufbau_Messdaten!L27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
-        <v>1.1712635000000002</v>
-      </c>
-      <c r="G15" s="39">
-        <f>((Messaufbau_Messdaten!M$30)^2-(Messaufbau_Messdaten!M27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
-        <v>-0.71120200000000022</v>
-      </c>
-      <c r="H15" s="39">
-        <f>((Messaufbau_Messdaten!N$30)^2-(Messaufbau_Messdaten!N27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
-        <v>1.4794100000000001</v>
-      </c>
-      <c r="I15" s="39">
-        <f>((Messaufbau_Messdaten!O$30)^2-(Messaufbau_Messdaten!O27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
-        <v>-0.42808150000000034</v>
-      </c>
-      <c r="J15" s="39">
-        <f>((Messaufbau_Messdaten!P$30)^2-(Messaufbau_Messdaten!P27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
-        <v>0.81841799999999998</v>
-      </c>
-      <c r="K15" s="39">
-        <f>((Messaufbau_Messdaten!Q$30)^2-(Messaufbau_Messdaten!Q27)^2+(Messaufbau_Messdaten!$I$35)^2)/2</f>
-        <v>0.34938800000000014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="39">
-        <f>((Messaufbau_Messdaten!J$30)^2-(Messaufbau_Messdaten!J28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
-        <v>-0.779254</v>
-      </c>
-      <c r="E16" s="39">
-        <f>((Messaufbau_Messdaten!K$30)^2-(Messaufbau_Messdaten!K28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
-        <v>-0.80435000000000023</v>
-      </c>
-      <c r="F16" s="39">
-        <f>((Messaufbau_Messdaten!L$30)^2-(Messaufbau_Messdaten!L28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
-        <v>-0.81068400000000029</v>
-      </c>
-      <c r="G16" s="39">
-        <f>((Messaufbau_Messdaten!M$30)^2-(Messaufbau_Messdaten!M28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
-        <v>-0.15196150000000042</v>
-      </c>
-      <c r="H16" s="39">
-        <f>((Messaufbau_Messdaten!N$30)^2-(Messaufbau_Messdaten!N28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
-        <v>2.4000499999999536E-2</v>
-      </c>
-      <c r="I16" s="39">
-        <f>((Messaufbau_Messdaten!O$30)^2-(Messaufbau_Messdaten!O28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
-        <v>0.84062999999999966</v>
-      </c>
-      <c r="J16" s="39">
-        <f>((Messaufbau_Messdaten!P$30)^2-(Messaufbau_Messdaten!P28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
-        <v>0.82554200000000011</v>
-      </c>
-      <c r="K16" s="39">
-        <f>((Messaufbau_Messdaten!Q$30)^2-(Messaufbau_Messdaten!Q28)^2+(Messaufbau_Messdaten!$I$41)^2)/2</f>
-        <v>1.0431560000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="39">
-        <f>((Messaufbau_Messdaten!J$30)^2-(Messaufbau_Messdaten!J29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
-        <v>0.48534050000000017</v>
-      </c>
-      <c r="E17" s="39">
-        <f>((Messaufbau_Messdaten!K$30)^2-(Messaufbau_Messdaten!K29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
-        <v>1.0768180000000001</v>
-      </c>
-      <c r="F17" s="39">
-        <f>((Messaufbau_Messdaten!L$30)^2-(Messaufbau_Messdaten!L29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
-        <v>1.1033280000000003</v>
-      </c>
-      <c r="G17" s="39">
-        <f>((Messaufbau_Messdaten!M$30)^2-(Messaufbau_Messdaten!M29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
-        <v>1.0610104999999999</v>
-      </c>
-      <c r="H17" s="39">
-        <f>((Messaufbau_Messdaten!N$30)^2-(Messaufbau_Messdaten!N29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
-        <v>1.1168005000000003</v>
-      </c>
-      <c r="I17" s="39">
-        <f>((Messaufbau_Messdaten!O$30)^2-(Messaufbau_Messdaten!O29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
-        <v>1.1486505</v>
-      </c>
-      <c r="J17" s="39">
-        <f>((Messaufbau_Messdaten!P$30)^2-(Messaufbau_Messdaten!P29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
-        <v>1.0867125000000002</v>
-      </c>
-      <c r="K17" s="39">
-        <f>((Messaufbau_Messdaten!Q$30)^2-(Messaufbau_Messdaten!Q29)^2+(Messaufbau_Messdaten!$I$43)^2)/2</f>
-        <v>0.53628799999999988</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="25"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-      <c r="E25" s="12">
-        <v>2</v>
-      </c>
-      <c r="F25" s="12">
-        <v>3</v>
-      </c>
-      <c r="G25" s="12">
-        <v>4</v>
-      </c>
-      <c r="H25" s="12">
-        <v>5</v>
-      </c>
-      <c r="I25" s="12">
-        <v>6</v>
-      </c>
-      <c r="J25" s="12">
-        <v>7</v>
-      </c>
-      <c r="K25" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="40">
-        <f>D9+$D$20</f>
-        <v>0.47920844155844156</v>
-      </c>
-      <c r="E26" s="40">
-        <f t="shared" ref="E26:K26" si="2">E9+$D$20</f>
-        <v>-0.77466753246753273</v>
-      </c>
-      <c r="F26" s="40">
-        <f t="shared" si="2"/>
-        <v>1.521121428571429</v>
-      </c>
-      <c r="G26" s="40">
-        <f t="shared" si="2"/>
-        <v>-0.92363896103896137</v>
-      </c>
-      <c r="H26" s="40">
-        <f t="shared" si="2"/>
-        <v>1.9213116883116885</v>
-      </c>
-      <c r="I26" s="40">
-        <f t="shared" si="2"/>
-        <v>-0.55595000000000039</v>
-      </c>
-      <c r="J26" s="40">
-        <f t="shared" si="2"/>
-        <v>1.0628805194805195</v>
-      </c>
-      <c r="K26" s="40">
-        <f t="shared" si="2"/>
-        <v>0.45375064935064952</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="B27" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="40">
-        <f t="shared" ref="D27:K28" si="3">D10+$D$20</f>
-        <v>-1.0120181818181817</v>
-      </c>
-      <c r="E27" s="40">
-        <f t="shared" si="3"/>
-        <v>-1.04461038961039</v>
-      </c>
-      <c r="F27" s="40">
-        <f t="shared" si="3"/>
-        <v>-1.052836363636364</v>
-      </c>
-      <c r="G27" s="40">
-        <f t="shared" si="3"/>
-        <v>-0.19735259740259795</v>
-      </c>
-      <c r="H27" s="40">
-        <f t="shared" si="3"/>
-        <v>3.1169480519479917E-2</v>
-      </c>
-      <c r="I27" s="40">
-        <f t="shared" si="3"/>
-        <v>1.0917272727272722</v>
-      </c>
-      <c r="J27" s="40">
-        <f t="shared" si="3"/>
-        <v>1.0721324675324677</v>
-      </c>
-      <c r="K27" s="40">
-        <f t="shared" si="3"/>
-        <v>1.3547480519480521</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="B28" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="40">
-        <f t="shared" si="3"/>
-        <v>0.60667562500000027</v>
-      </c>
-      <c r="E28" s="40">
-        <f t="shared" si="3"/>
-        <v>1.3460225000000001</v>
-      </c>
-      <c r="F28" s="40">
-        <f t="shared" si="3"/>
-        <v>1.3791600000000004</v>
-      </c>
-      <c r="G28" s="40">
-        <f t="shared" si="3"/>
-        <v>1.3262631249999999</v>
-      </c>
-      <c r="H28" s="40">
-        <f t="shared" si="3"/>
-        <v>1.3960006250000003</v>
-      </c>
-      <c r="I28" s="40">
-        <f t="shared" si="3"/>
-        <v>1.4358131250000001</v>
-      </c>
-      <c r="J28" s="40">
-        <f t="shared" si="3"/>
-        <v>1.3583906250000002</v>
-      </c>
-      <c r="K28" s="40">
-        <f t="shared" si="3"/>
-        <v>0.67035999999999984</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="12">
-        <v>1</v>
-      </c>
-      <c r="E31" s="12">
-        <v>2</v>
-      </c>
-      <c r="F31" s="12">
-        <v>3</v>
-      </c>
-      <c r="G31" s="12">
-        <v>4</v>
-      </c>
-      <c r="H31" s="12">
-        <v>5</v>
-      </c>
-      <c r="I31" s="12">
-        <v>6</v>
-      </c>
-      <c r="J31" s="12">
-        <v>7</v>
-      </c>
-      <c r="K31" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="B32" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32">
-        <f>Messaufbau_Messdaten!J30</f>
-        <v>1.2590000000000001</v>
-      </c>
-      <c r="E32">
-        <f>Messaufbau_Messdaten!K30</f>
-        <v>1.8940000000000001</v>
-      </c>
-      <c r="F32">
-        <f>Messaufbau_Messdaten!L30</f>
-        <v>2.3340000000000001</v>
-      </c>
-      <c r="G32">
-        <f>Messaufbau_Messdaten!M30</f>
-        <v>1.661</v>
-      </c>
-      <c r="H32">
-        <f>Messaufbau_Messdaten!N30</f>
-        <v>2.399</v>
-      </c>
-      <c r="I32">
-        <f>Messaufbau_Messdaten!O30</f>
-        <v>1.851</v>
-      </c>
-      <c r="J32">
-        <f>Messaufbau_Messdaten!P30</f>
-        <v>2.0550000000000002</v>
-      </c>
-      <c r="K32">
-        <f>Messaufbau_Messdaten!Q30</f>
-        <v>1.5740000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="39">
-        <f>SQRT(D26^2+D27^2+D28^2)</f>
-        <v>1.2735292869661812</v>
-      </c>
-      <c r="E33" s="39">
-        <f t="shared" ref="E33:K33" si="4">SQRT(E26^2+E27^2+E28^2)</f>
-        <v>1.8716562778586128</v>
-      </c>
-      <c r="F33" s="39">
-        <f t="shared" si="4"/>
-        <v>2.3074568500091672</v>
-      </c>
-      <c r="G33" s="39">
-        <f t="shared" si="4"/>
-        <v>1.6281986533545127</v>
-      </c>
-      <c r="H33" s="39">
-        <f t="shared" si="4"/>
-        <v>2.3751269198001519</v>
-      </c>
-      <c r="I33" s="39">
-        <f t="shared" si="4"/>
-        <v>1.8874607732185573</v>
-      </c>
-      <c r="J33" s="39">
-        <f t="shared" si="4"/>
-        <v>2.0308638843399445</v>
-      </c>
-      <c r="K33" s="39">
-        <f t="shared" si="4"/>
-        <v>1.5781680726852823</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="39">
-        <f>D33-D32</f>
-        <v>1.4529286966181054E-2</v>
-      </c>
-      <c r="E34" s="39">
-        <f t="shared" ref="E34:K34" si="5">E33-E32</f>
-        <v>-2.2343722141387357E-2</v>
-      </c>
-      <c r="F34" s="39">
-        <f t="shared" si="5"/>
-        <v>-2.6543149990832848E-2</v>
-      </c>
-      <c r="G34" s="39">
-        <f t="shared" si="5"/>
-        <v>-3.2801346645487284E-2</v>
-      </c>
-      <c r="H34" s="39">
-        <f t="shared" si="5"/>
-        <v>-2.3873080199848129E-2</v>
-      </c>
-      <c r="I34" s="39">
-        <f t="shared" si="5"/>
-        <v>3.6460773218557341E-2</v>
-      </c>
-      <c r="J34" s="39">
-        <f t="shared" si="5"/>
-        <v>-2.413611566005569E-2</v>
-      </c>
-      <c r="K34" s="39">
-        <f t="shared" si="5"/>
-        <v>4.168072685282187E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="43">
-        <f>1-D32/D33</f>
-        <v>1.1408679105286201E-2</v>
-      </c>
-      <c r="E35" s="43">
-        <f t="shared" ref="E35:K35" si="6">1-E32/E33</f>
-        <v>-1.1937940959411142E-2</v>
-      </c>
-      <c r="F35" s="43">
-        <f t="shared" si="6"/>
-        <v>-1.1503205353862844E-2</v>
-      </c>
-      <c r="G35" s="43">
-        <f t="shared" si="6"/>
-        <v>-2.0145789076724707E-2</v>
-      </c>
-      <c r="H35" s="43">
-        <f t="shared" si="6"/>
-        <v>-1.0051286102157775E-2</v>
-      </c>
-      <c r="I35" s="43">
-        <f t="shared" si="6"/>
-        <v>1.9317367404877661E-2</v>
-      </c>
-      <c r="J35" s="43">
-        <f t="shared" si="6"/>
-        <v>-1.1884654528631966E-2</v>
-      </c>
-      <c r="K35" s="43">
-        <f t="shared" si="6"/>
-        <v>2.6410828842774459E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A30:K30"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Tabelle7"/>
   <dimension ref="A2:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5571,8 +9547,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Tabelle8"/>
   <dimension ref="A3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5935,8 +9912,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Tabelle9"/>
   <dimension ref="A3:J40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -6297,732 +10275,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:J40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="1:10">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9">
-        <v>0.77</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9">
-        <f>I23</f>
-        <v>-0.71120200000000022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0.77</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10">
-        <f>I24</f>
-        <v>-0.15196150000000042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0.8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11">
-        <f>I25</f>
-        <v>1.0610104999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15">
-        <f>INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A1))</f>
-        <v>-0.92363896103896137</v>
-      </c>
-      <c r="J15">
-        <f>MDETERM(B9:D11)</f>
-        <v>0.47432000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ref="D16:D17" si="0">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
-        <v>-0.19735259740259795</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1.3262631249999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="J18">
-        <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
-        <v>-0.71120200000000022</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="J19">
-        <f t="shared" ref="J19:J20" si="1">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
-        <v>-0.15196150000000042</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="J20">
-        <f t="shared" si="1"/>
-        <v>1.0610104999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="18.75">
-      <c r="B21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23">
-        <v>0.5</v>
-      </c>
-      <c r="E23">
-        <f>(Messaufbau_Messdaten!$M$30^2)</f>
-        <v>2.758921</v>
-      </c>
-      <c r="F23">
-        <f>(Messaufbau_Messdaten!M27^2 )</f>
-        <v>4.7742250000000004</v>
-      </c>
-      <c r="G23">
-        <f>(Messaufbau_Messdaten!$I$35^2)</f>
-        <v>0.59289999999999998</v>
-      </c>
-      <c r="H23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23">
-        <f>D23*(E23-F23+G23)</f>
-        <v>-0.71120200000000022</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24">
-        <v>0.5</v>
-      </c>
-      <c r="E24">
-        <f>(Messaufbau_Messdaten!$M$30^2)</f>
-        <v>2.758921</v>
-      </c>
-      <c r="F24">
-        <f>(Messaufbau_Messdaten!M28^2 )</f>
-        <v>3.6557440000000008</v>
-      </c>
-      <c r="G24">
-        <f>(Messaufbau_Messdaten!$I$41^2)</f>
-        <v>0.59289999999999998</v>
-      </c>
-      <c r="H24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ref="I24:I25" si="2">D24*(E24-F24+G24)</f>
-        <v>-0.15196150000000042</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25">
-        <v>0.5</v>
-      </c>
-      <c r="E25">
-        <f>(Messaufbau_Messdaten!$M$30^2)</f>
-        <v>2.758921</v>
-      </c>
-      <c r="F25">
-        <f>(Messaufbau_Messdaten!M29^2 )</f>
-        <v>1.2769000000000004</v>
-      </c>
-      <c r="G25">
-        <f>(Messaufbau_Messdaten!$I$43^2)</f>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="H25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
-        <v>1.0610104999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="17">
-        <f>D15+D29</f>
-        <v>-0.92363896103896137</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="17">
-        <f>D16+D30</f>
-        <v>-0.19735259740259795</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="17">
-        <f>D17+D31</f>
-        <v>1.3262631249999999</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40">
-        <f>SQRT(D34^2+D35^2+D36^2)</f>
-        <v>1.6281986533545127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:J40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="1:10">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9">
-        <v>0.77</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9">
-        <f>I23</f>
-        <v>1.4794100000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0.77</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10">
-        <f>I24</f>
-        <v>2.4000499999999536E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0.8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11">
-        <f>I25</f>
-        <v>1.1168005000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15">
-        <f>INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A1))</f>
-        <v>1.9213116883116885</v>
-      </c>
-      <c r="J15">
-        <f>MDETERM(B9:D11)</f>
-        <v>0.47432000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ref="D16:D17" si="0">INDEX(MMULT(MINVERSE($B$9:$D$11),$H$9:$H$11),ROW(A2))</f>
-        <v>3.1169480519479917E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1.3960006250000003</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="J18">
-        <f>INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A1))</f>
-        <v>1.4794100000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="J19">
-        <f t="shared" ref="J19:J20" si="1">INDEX(MMULT($B$9:$D$11,$D$15:$D$17),ROW(A2))</f>
-        <v>2.4000499999999536E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="J20">
-        <f t="shared" si="1"/>
-        <v>1.1168005000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="18.75">
-      <c r="B21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23">
-        <v>0.5</v>
-      </c>
-      <c r="E23">
-        <f>(Messaufbau_Messdaten!$N$30^2)</f>
-        <v>5.7552010000000005</v>
-      </c>
-      <c r="F23">
-        <f>(Messaufbau_Messdaten!N27^2 )</f>
-        <v>3.389281</v>
-      </c>
-      <c r="G23">
-        <f>(Messaufbau_Messdaten!$I$35^2)</f>
-        <v>0.59289999999999998</v>
-      </c>
-      <c r="H23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23">
-        <f>D23*(E23-F23+G23)</f>
-        <v>1.4794100000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24">
-        <v>0.5</v>
-      </c>
-      <c r="E24">
-        <f>(Messaufbau_Messdaten!$N$30^2)</f>
-        <v>5.7552010000000005</v>
-      </c>
-      <c r="F24">
-        <f>(Messaufbau_Messdaten!N28^2 )</f>
-        <v>6.3001000000000014</v>
-      </c>
-      <c r="G24">
-        <f>(Messaufbau_Messdaten!$I$41^2)</f>
-        <v>0.59289999999999998</v>
-      </c>
-      <c r="H24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ref="I24:I25" si="2">D24*(E24-F24+G24)</f>
-        <v>2.4000499999999536E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25">
-        <v>0.5</v>
-      </c>
-      <c r="E25">
-        <f>(Messaufbau_Messdaten!$N$30^2)</f>
-        <v>5.7552010000000005</v>
-      </c>
-      <c r="F25">
-        <f>(Messaufbau_Messdaten!N29^2 )</f>
-        <v>4.1616</v>
-      </c>
-      <c r="G25">
-        <f>(Messaufbau_Messdaten!$I$43^2)</f>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="H25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
-        <v>1.1168005000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="17">
-        <f>D15+D29</f>
-        <v>1.9213116883116885</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="17">
-        <f>D16+D30</f>
-        <v>3.1169480519479917E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="17">
-        <f>D17+D31</f>
-        <v>1.3960006250000003</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40">
-        <f>SQRT(D34^2+D35^2+D36^2)</f>
-        <v>2.3751269198001519</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>